--- a/db.xlsx
+++ b/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="480">
   <si>
     <t>Название</t>
   </si>
@@ -405,21 +405,888 @@
     <t>Краевого государственного общеобразовательного автономного учреждения$«Краевая государственная общеобразовательная школа-интернат$среднего общего образования по работе с одаренными детьми$«Школа космонавтики»</t>
   </si>
   <si>
+    <t>МБОУ «СОШ № 1 им. В.И. Сурикова»</t>
+  </si>
+  <si>
+    <t>г. Красноярск, Советский р-он</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 1 им. В.И. Сурикова»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 108</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 108$с углубленным изучением отдельных предметов$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 115</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 115$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 121»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 121»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 129</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 129$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 139»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 139»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 141»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 141»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 143</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 143$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 144»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 144»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 145</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 145»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 147</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 147$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 149»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 149»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 150»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 150»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 18</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 18$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 2»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 2»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 22»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 22»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 56»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 56»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 24</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 24$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 66</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 66$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 69»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 69»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 70»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 70»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 91»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 91»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 98»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 98»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 134</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 134$г. Красноярск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 5$с углубленным изучением отдельных предметов»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 7$с углубленным изучением отдельных предметов»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 85»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 85»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 151»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 151»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ лицей № 10»</t>
+  </si>
+  <si>
+    <t>г. Красноярск, Октябрьский р-он</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение лицей № 10»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ гимназия № 3»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 3»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ лицей № 1»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение лицей № 1»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 82</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 82»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МАОУ «КУГ «Универс» № 1»</t>
+  </si>
+  <si>
+    <t>Муниципального автономного образовательного учреждения$«Красноярская университетская гимназия «Универс» № 1»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МАОУ «ОУ гимназия № 13»</t>
+  </si>
+  <si>
+    <t>Муниципального автономного образовательного учреждения$«Общеобразовательное учреждение гимназия № 13»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 30»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 30$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ лицей № 8»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение лицей № 8»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 138»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 138$с углубленным изучением отдельных предметов»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 133»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 133»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 39</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 39$г. Красноярск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 3»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 72</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 72$с углубленным изучением отдельных предметов$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 36</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 36$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 73»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 73»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 95»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 95»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 99»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 99»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 84</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 84$с углубленным изучением отдельных предметов$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 21</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 21$с углубленным изучением отдельных предметов$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 63»</t>
+  </si>
+  <si>
+    <t>г. Красноярск, Кировский р-он</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 63»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ гимназия № 10»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 10»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ гимназия № 4»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 4»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ гимназия № 6»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 6»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ лицей № 11»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение лицей № 11»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ лицей № 6 «Перспектива»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение$лицей № 6 «Перспектива»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 46</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 46$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 135»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 135»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 49»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 49»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 55»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 55»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 8»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 80</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 80$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 81»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 81»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 90»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 90»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ гимназия № 7»</t>
+  </si>
+  <si>
+    <t>г. Красноярск, Ленинский р-он</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 7»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ гимназия № 11 им. А.Н. Кулакова»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение$гимназия № 11 им. А.Н. Кулакова»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ гимназия № 15»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 15»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ лицей № 12»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение лицей № 12»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ лицей № 3»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение лицей № 3»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 16»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 13»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 148»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 148»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 31»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 31»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 44»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 47»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 47</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 47$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 50</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 50$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 53»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 53»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 64»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 64»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 65»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 65»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 79»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 79»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 88»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 88»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 89</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 89$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 94</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 94$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 78</t>
+  </si>
+  <si>
+    <t>г. Красноярск, Свердловский р-он</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 78$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ гимназия № 14»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 7$управления, права и экономики»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ОУ гимназия № 5»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 5»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МАОУ «ОУ лицей № 9 «Лидер»</t>
+  </si>
+  <si>
+    <t>Муниципального автономного образовательного учреждения$«Общеобразовательное учреждение лицей № 9 «Лидер»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «ООШ № 26»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Основная общеобразовательная школа № 26»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 137»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 137»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 17$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 23»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 23»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 25</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 25$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 34»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 34»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 42»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 42»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 45</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 45$г. Красноярск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 6$с углубленным изучением предметов$художественно-эстетического цикла$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 62»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 62»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 76»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 76»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 92»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 92»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 93»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 93»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 97»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 97»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 124</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 124$с углубленным изучением предметов$художественно-эстетического цикла$г. Красноярск</t>
+  </si>
+  <si>
+    <t>МАОУ «Гимназия № 1»</t>
+  </si>
+  <si>
+    <t>г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального автономного образовательного учреждения$«Гимназия № 1»$г. Канск</t>
+  </si>
+  <si>
+    <t>МБОУ гимназия № 4</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$гимназии № 4$г. Канск</t>
+  </si>
+  <si>
+    <t>МАОУ лицей № 1</t>
+  </si>
+  <si>
+    <t>Муниципального автономного общеобразовательного учреждения$лицея № 1$г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 11$г. Канск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 15</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 15$г. Канск</t>
+  </si>
+  <si>
+    <t>МКОУ ООШ № 17</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$основной общеобразовательной школы № 17$г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 18$г. Канск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 19</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 19$г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 2$г. Канск</t>
+  </si>
+  <si>
+    <t>МКОУ ООШ № 20</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$основной общеобразовательной школы № 20$г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 21$г. Канск</t>
+  </si>
+  <si>
+    <t>МКОУ ООШ № 22</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$основной общеобразовательной школы № 22$г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 3$г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 5$г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 6$г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 7$г. Канск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 9</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 9$г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 8»$г. Канск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Центр образования»$г. Канск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 101</t>
+  </si>
+  <si>
+    <t>г. Железногорск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 101$с углубленным изучением математики и информатики$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МКОУ Гимназия № 96 им. В.П. Астафьева</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$Гимназии № 95 им. В.П. Астафьева$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МБОУ «Гимназия № 91 им. М.В. Ломоносова»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Гимназия № 91 им. М.В. Ломоносова»$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МБОУ «Лицей № 102 им. М.Ф. Решетнёва»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$ «Лицей № 102 им. М.Ф. Решетнёва»$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МБОУ Лицей № 103 «Гармония»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$Лицея № 103 «Гармония»$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 95</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 95$г.Железногорск</t>
+  </si>
+  <si>
+    <t>МКОУ СОШ № 100</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$средней общеобразовательной школы № 100$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МКОУ СОШ № 104</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$средней общеобразовательной школы № 104$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МКОУ СОШ № 106</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$средней общеобразовательной школы № 106$с углубленным изучением математики$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МБОУ СОШ № 176</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 176$г.Железногорск</t>
+  </si>
+  <si>
+    <t>МКОУ СОШ № 90</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$средней общеобразовательной школы № 90$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МКОУ СОШ № 93 им. М.М. Царевского</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$средней общеобразовательной школы № 93 им. М.М. Царевского$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МКОУ СОШ № 97</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$средней общеобразовательной школы № 97$г. Железногорск</t>
+  </si>
+  <si>
+    <t>МКОУ СОШ № 98</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$средней общеобразовательной школы № 98$г. Железногорск</t>
+  </si>
+  <si>
+    <t>г. Дивногорск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$средней общеобразовательной школы № 9$г. Дивногорск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 10»$г. Дивногорск</t>
+  </si>
+  <si>
+    <t>МБОУ ООШ № 6</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$основной общеобразовательной школы № 6$г. Дивногорск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 2 им. Ю.А. Гагарина»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 2 им. Ю.А. Гагарина»$г.Дивногорск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$средней общеобразовательной школы № 4$г. Дивногорск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$средней общеобразовательной школы № 5$г. Дивногорск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$средней общеобразовательной школы № 7$г. Дивногорск</t>
+  </si>
+  <si>
+    <t>г. Сосновоборск</t>
+  </si>
+  <si>
+    <t>Муниципального автономного образовательного учреждения$«Гимназия № 1»$г. Сосновоборск</t>
+  </si>
+  <si>
+    <t>МБОУ «ООШ № 3»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Основная общеобразовательная школа № 3»$г. Сосновоборск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 2»$г. Сосновоборск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 4»$г. Сосновоборск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 5»$г. Сосновоборск</t>
+  </si>
+  <si>
+    <t>МБОУ «Гимназия № 164»</t>
+  </si>
+  <si>
+    <t>г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Гимназия № 164»$г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>МБОУ «Лицей № 174»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Лицей № 174»$г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>МБОУ ООШ № 165</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$основной общеобразовательной школы № 165$г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 161»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 161»$г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 163»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 163»$г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 167»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 167»$г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 169»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 169»$г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 170»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 170»$г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 172»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 172»$г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 175»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 175»$г. Зеленогорск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 176»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 176»$г. Зеленогорск</t>
+  </si>
+  <si>
     <t>готово</t>
   </si>
   <si>
-    <t>г. Дивногорск</t>
-  </si>
-  <si>
-    <t>г. Железногорск</t>
-  </si>
-  <si>
-    <t>г. Зеленогорск</t>
-  </si>
-  <si>
-    <t>г. Канск</t>
-  </si>
-  <si>
     <t>г. Красноярск, Кировский район</t>
   </si>
   <si>
@@ -445,9 +1312,6 @@
   </si>
   <si>
     <t>г. Норильск</t>
-  </si>
-  <si>
-    <t>г. Сосновоборск</t>
   </si>
   <si>
     <t>г. Шарыпово</t>
@@ -722,10 +1586,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:69"/>
+  <dimension ref="1:234"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C60" activeCellId="0" pane="topLeft" sqref="C60"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B96" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C104" activeCellId="0" pane="topLeft" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.9"/>
@@ -1992,6 +2856,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
+      <c r="D22" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="23">
       <c r="A23" s="3" t="s">
@@ -2003,6 +2868,7 @@
       <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="D23" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="24">
       <c r="A24" s="3" t="s">
@@ -2014,6 +2880,7 @@
       <c r="C24" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D24" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="25">
       <c r="A25" s="3" t="s">
@@ -2025,6 +2892,7 @@
       <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D25" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="26">
       <c r="A26" s="3" t="s">
@@ -2036,6 +2904,7 @@
       <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="D26" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="27">
       <c r="A27" s="3" t="s">
@@ -2047,6 +2916,7 @@
       <c r="C27" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D27" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="28">
       <c r="A28" s="3" t="s">
@@ -2058,6 +2928,7 @@
       <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D28" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="29">
       <c r="A29" s="3" t="s">
@@ -2069,6 +2940,7 @@
       <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="D29" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="30">
       <c r="A30" s="3" t="s">
@@ -2080,6 +2952,7 @@
       <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="D30" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="31">
       <c r="A31" s="3" t="s">
@@ -2091,6 +2964,7 @@
       <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="D31" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="32">
       <c r="A32" s="3" t="s">
@@ -2102,11 +2976,13 @@
       <c r="C32" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="D32" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="33">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
+      <c r="D33" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="34">
       <c r="A34" s="3" t="s">
@@ -2118,6 +2994,7 @@
       <c r="C34" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="D34" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="35">
       <c r="A35" s="3" t="s">
@@ -2129,6 +3006,7 @@
       <c r="C35" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="D35" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="36">
       <c r="A36" s="3" t="s">
@@ -2140,6 +3018,7 @@
       <c r="C36" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="D36" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="37">
       <c r="A37" s="3" t="s">
@@ -2151,6 +3030,7 @@
       <c r="C37" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="D37" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="38">
       <c r="A38" s="3" t="s">
@@ -2162,6 +3042,7 @@
       <c r="C38" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="D38" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="39">
       <c r="A39" s="3" t="s">
@@ -2173,6 +3054,7 @@
       <c r="C39" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="D39" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="40">
       <c r="A40" s="3" t="s">
@@ -2184,6 +3066,7 @@
       <c r="C40" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D40" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="41">
       <c r="A41" s="3" t="s">
@@ -2195,6 +3078,7 @@
       <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="D41" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="42">
       <c r="A42" s="3" t="s">
@@ -2206,11 +3090,13 @@
       <c r="C42" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="D42" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="43">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
+      <c r="D43" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="44">
       <c r="A44" s="3" t="s">
@@ -2222,6 +3108,7 @@
       <c r="C44" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="D44" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="45">
       <c r="A45" s="3" t="s">
@@ -2233,6 +3120,7 @@
       <c r="C45" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="D45" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="46">
       <c r="A46" s="3" t="s">
@@ -2244,6 +3132,7 @@
       <c r="C46" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="D46" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="47">
       <c r="A47" s="3" t="s">
@@ -2255,6 +3144,7 @@
       <c r="C47" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="D47" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="48">
       <c r="A48" s="3" t="s">
@@ -2266,11 +3156,13 @@
       <c r="C48" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="D48" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="49">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
+      <c r="D49" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="50">
       <c r="A50" s="3" t="s">
@@ -2282,6 +3174,7 @@
       <c r="C50" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="D50" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="51">
       <c r="A51" s="3" t="s">
@@ -2293,6 +3186,7 @@
       <c r="C51" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="D51" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="52">
       <c r="A52" s="3" t="s">
@@ -2304,11 +3198,13 @@
       <c r="C52" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="D52" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="53">
       <c r="A53" s="0"/>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="54">
       <c r="A54" s="3" t="s">
@@ -2495,6 +3391,1761 @@
         <v>128</v>
       </c>
       <c r="D69" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="70">
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="71">
+      <c r="A71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="72">
+      <c r="A72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="73">
+      <c r="A73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="74">
+      <c r="A74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="75">
+      <c r="A75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="76">
+      <c r="A76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="77">
+      <c r="A77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="78">
+      <c r="A78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="79">
+      <c r="A79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="80">
+      <c r="A80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="81">
+      <c r="A81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="82">
+      <c r="A82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="83">
+      <c r="A83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="84">
+      <c r="A84" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="85">
+      <c r="A85" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="86">
+      <c r="A86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="87">
+      <c r="A87" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="88">
+      <c r="A88" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="89">
+      <c r="A89" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="90">
+      <c r="A90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="91">
+      <c r="A91" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="92">
+      <c r="A92" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="93">
+      <c r="A93" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="94">
+      <c r="A94" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="95">
+      <c r="A95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="96">
+      <c r="A96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="97">
+      <c r="A97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="98">
+      <c r="A98" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="99">
+      <c r="A99" s="0"/>
+      <c r="B99" s="0"/>
+      <c r="C99" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="100">
+      <c r="A100" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="101">
+      <c r="A101" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="102">
+      <c r="A102" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="103">
+      <c r="A103" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="104">
+      <c r="A104" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="105">
+      <c r="A105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="106">
+      <c r="A106" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="107">
+      <c r="A107" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="108">
+      <c r="A108" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="109">
+      <c r="A109" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="110">
+      <c r="A110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="111">
+      <c r="A111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="112">
+      <c r="A112" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="113">
+      <c r="A113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="114">
+      <c r="A114" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="115">
+      <c r="A115" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="116">
+      <c r="A116" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="117">
+      <c r="A117" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="118">
+      <c r="A118" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="119">
+      <c r="A119" s="0"/>
+      <c r="B119" s="0"/>
+      <c r="C119" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="120">
+      <c r="A120" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="121">
+      <c r="A121" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="122">
+      <c r="A122" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="123">
+      <c r="A123" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="124">
+      <c r="A124" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="125">
+      <c r="A125" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="126">
+      <c r="A126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="127">
+      <c r="A127" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="128">
+      <c r="A128" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="129">
+      <c r="A129" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="130">
+      <c r="A130" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="131">
+      <c r="A131" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="132">
+      <c r="A132" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="133">
+      <c r="A133" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="134">
+      <c r="A134" s="0"/>
+      <c r="B134" s="0"/>
+      <c r="C134" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="135">
+      <c r="A135" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="136">
+      <c r="A136" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="137">
+      <c r="A137" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="138">
+      <c r="A138" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="139">
+      <c r="A139" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="140">
+      <c r="A140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="141">
+      <c r="A141" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="142">
+      <c r="A142" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="143">
+      <c r="A143" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="144">
+      <c r="A144" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="145">
+      <c r="A145" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="146">
+      <c r="A146" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="147">
+      <c r="A147" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="148">
+      <c r="A148" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="149">
+      <c r="A149" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="150">
+      <c r="A150" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="151">
+      <c r="A151" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="152">
+      <c r="A152" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="153">
+      <c r="A153" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="154">
+      <c r="A154" s="0"/>
+      <c r="B154" s="0"/>
+      <c r="C154" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="155">
+      <c r="A155" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="156">
+      <c r="A156" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="157">
+      <c r="A157" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="158">
+      <c r="A158" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="159">
+      <c r="A159" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="160">
+      <c r="A160" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="161">
+      <c r="A161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="162">
+      <c r="A162" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="163">
+      <c r="A163" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="164">
+      <c r="A164" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="165">
+      <c r="A165" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="166">
+      <c r="A166" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="167">
+      <c r="A167" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="168">
+      <c r="A168" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="169">
+      <c r="A169" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="170">
+      <c r="A170" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="171">
+      <c r="A171" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="172">
+      <c r="A172" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="173">
+      <c r="A173" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="174">
+      <c r="A174" s="0"/>
+      <c r="B174" s="0"/>
+      <c r="C174" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="175">
+      <c r="A175" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="176">
+      <c r="A176" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="177">
+      <c r="A177" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="178">
+      <c r="A178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="179">
+      <c r="A179" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="180">
+      <c r="A180" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="181">
+      <c r="A181" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="182">
+      <c r="A182" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="183">
+      <c r="A183" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="184">
+      <c r="A184" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="185">
+      <c r="A185" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="186">
+      <c r="A186" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="187">
+      <c r="A187" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="188">
+      <c r="A188" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="189">
+      <c r="A189" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="190">
+      <c r="A190" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="191">
+      <c r="A191" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="192">
+      <c r="A192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="193">
+      <c r="A193" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="194">
+      <c r="A194" s="0"/>
+      <c r="B194" s="0"/>
+      <c r="C194" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="195">
+      <c r="A195" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="196">
+      <c r="A196" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="197">
+      <c r="A197" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="198">
+      <c r="A198" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="199">
+      <c r="A199" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="200">
+      <c r="A200" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="201">
+      <c r="A201" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="202">
+      <c r="A202" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="203">
+      <c r="A203" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="204">
+      <c r="A204" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="205">
+      <c r="A205" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="206">
+      <c r="A206" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="207">
+      <c r="A207" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="208">
+      <c r="A208" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="209">
+      <c r="A209" s="0"/>
+      <c r="B209" s="0"/>
+      <c r="C209" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="210">
+      <c r="A210" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="211">
+      <c r="A211" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="212">
+      <c r="A212" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="213">
+      <c r="A213" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="214">
+      <c r="A214" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="215">
+      <c r="A215" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="216">
+      <c r="A216" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="217">
+      <c r="A217" s="0"/>
+      <c r="B217" s="0"/>
+      <c r="C217" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="218">
+      <c r="A218" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="219">
+      <c r="A219" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="220">
+      <c r="A220" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="221">
+      <c r="A221" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="222">
+      <c r="A222" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="223">
+      <c r="A223" s="0"/>
+      <c r="B223" s="0"/>
+      <c r="C223" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="224">
+      <c r="A224" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="225">
+      <c r="A225" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="226">
+      <c r="A226" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="227">
+      <c r="A227" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="228">
+      <c r="A228" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="229">
+      <c r="A229" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="230">
+      <c r="A230" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="231">
+      <c r="A231" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="232">
+      <c r="A232" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="233">
+      <c r="A233" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="234">
+      <c r="A234" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>421</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2514,8 +5165,8 @@
   </sheetPr>
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B68" activeCellId="0" pane="topLeft" sqref="B68"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B10" activeCellId="0" pane="topLeft" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -2529,7 +5180,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>129</v>
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
@@ -2537,7 +5188,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>129</v>
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -2545,7 +5196,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>129</v>
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -2553,7 +5204,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>129</v>
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -2561,328 +5212,355 @@
         <v>92</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>129</v>
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>130</v>
+        <v>382</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>131</v>
+        <v>354</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>132</v>
+        <v>400</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>133</v>
+        <v>325</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>134</v>
+        <v>423</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>135</v>
+        <v>424</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>136</v>
+        <v>425</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>137</v>
+        <v>426</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>138</v>
+        <v>427</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>139</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>140</v>
+        <v>429</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>141</v>
+        <v>430</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>142</v>
+        <v>431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>143</v>
+        <v>392</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>144</v>
+        <v>432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>145</v>
+        <v>433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
-        <v>146</v>
+        <v>434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>147</v>
+        <v>435</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
-        <v>148</v>
+        <v>436</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>149</v>
+        <v>437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
-        <v>150</v>
+        <v>438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
-        <v>151</v>
+        <v>439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>152</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>153</v>
+        <v>441</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
-        <v>154</v>
+        <v>442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>157</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
-        <v>159</v>
+        <v>447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
-        <v>160</v>
+        <v>448</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
-        <v>161</v>
+        <v>449</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="s">
-        <v>162</v>
+        <v>450</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
-        <v>163</v>
+        <v>451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
-        <v>164</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
-        <v>165</v>
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="s">
-        <v>166</v>
+        <v>454</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
-        <v>167</v>
+        <v>455</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="s">
-        <v>168</v>
+        <v>456</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="s">
-        <v>169</v>
+        <v>457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="0" t="s">
-        <v>170</v>
+        <v>458</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="s">
-        <v>171</v>
+        <v>459</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="0" t="s">
-        <v>172</v>
+        <v>460</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="0" t="s">
-        <v>173</v>
+        <v>461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="0" t="s">
-        <v>174</v>
+        <v>462</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="0" t="s">
-        <v>175</v>
+        <v>463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="0" t="s">
-        <v>176</v>
+        <v>464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="0" t="s">
-        <v>177</v>
+        <v>465</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="0" t="s">
-        <v>178</v>
+        <v>466</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="0" t="s">
-        <v>179</v>
+        <v>467</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="0" t="s">
-        <v>180</v>
+        <v>468</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="0" t="s">
-        <v>181</v>
+        <v>469</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="0" t="s">
-        <v>182</v>
+        <v>470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="0" t="s">
-        <v>183</v>
+        <v>471</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="A61" s="0" t="s">
-        <v>184</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="0" t="s">
-        <v>185</v>
+        <v>473</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="0" t="s">
-        <v>186</v>
+        <v>474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="0" t="s">
-        <v>187</v>
+        <v>475</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="0" t="s">
-        <v>188</v>
+        <v>476</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="A66" s="0" t="s">
-        <v>189</v>
+        <v>477</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
-        <v>190</v>
+        <v>478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="0" t="s">
-        <v>191</v>
+        <v>479</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>129</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="188" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="188" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Школы" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="620">
   <si>
     <t>Название</t>
   </si>
@@ -522,7 +522,7 @@
     <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 66$г. Красноярск</t>
   </si>
   <si>
-    <t>МБОУ «СОШ № 69»</t>
+    <t>И</t>
   </si>
   <si>
     <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 69»$г. Красноярск</t>
@@ -1284,9 +1284,477 @@
     <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 176»$г. Зеленогорск</t>
   </si>
   <si>
+    <t>МБОУ «СОШ № 71»</t>
+  </si>
+  <si>
+    <t>ЗАТО Кедровый</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 71»$ЗАТО п. Кедровый Красноярского края</t>
+  </si>
+  <si>
+    <t>МКОУ СОШ № 2 им. Н.И. Крылова</t>
+  </si>
+  <si>
+    <t>ЗАТО Солнечный</t>
+  </si>
+  <si>
+    <t>Муниципального казённого образовательного учреждения$средней общеобразовательной школы № 2$имени Маршала Советского Союза Крылова Н.И.$ЗАТО п. Солнечного Красноярского края</t>
+  </si>
+  <si>
+    <t>МБОУ «Гимназия»</t>
+  </si>
+  <si>
+    <t>г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Гимназия»$г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>МБОУ «Лицей»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Лицей»$г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>МКОУ «ООШ № 14»</t>
+  </si>
+  <si>
+    <t>Муниципального казённого общеобразовательного учреждения$ «Основная общеобразовательная школа № 14»$г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>МБОУ «ООШ № 5»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Основная общеобразовательная школа № 5»$г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 1»$г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 18»$г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 2»$г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 4»$г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 8»$г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 9 им. К.М. Филлипова»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 9$имени К.М. Филлипова»$г. Лесосибирск</t>
+  </si>
+  <si>
+    <t>МОБУ «Гимназия № 1»</t>
+  </si>
+  <si>
+    <t>г. Минусинск</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$ «Гимназия № 1»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>МОБУ «ООШ № 1»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$«Основная общеобразовательная школа № 1»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>МОБУ «ООШ № 5»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$«Основная общеобразовательная школа № 5»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>МОБУ «СОШ № 12»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$«Средняя общеобразовательная школа № 12»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>МОБУ «СОШ № 16»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$«Средняя общеобразовательная школа № 16»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>МОБУ «СОШ № 3 им. А.С. Пушкина»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$«Средняя общеобразовательная школа № 3$имени А.С. Пушкина»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>МОБУ «СОШ № 9»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$«Средняя общеобразовательная школа № 9»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>МОБУ «Лицей № 7»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$ «Лицей № 7»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>МОБУ «СОШ № 2»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$«Средняя общеобразовательная школа № 2»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>МОБУ «СОШ № 4 им. М.П. Хвастанцева»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$«Средняя общеобразовательная школа № 4$имени Героя Советского Союза М.П. Хвастанцева»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>МОБУ «СОШ № 47»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$«Средняя общеобразовательная школа № 47»$п. Зелёный Бор Минусинского района</t>
+  </si>
+  <si>
+    <t>МОБУ «СОШ № 6 «Русская школа»</t>
+  </si>
+  <si>
+    <t>Муниципального общеобразовательного бюджетного учреждения$«Средняя общеобразовательная школа № 6$ «Русская школа»$г. Минусинск</t>
+  </si>
+  <si>
+    <t>г. Назарово</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 1»$г. Назарово</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 11»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 11»$г. Назарово</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 14»$г. Назарово</t>
+  </si>
+  <si>
+    <t>МКОУ «ООШ № 17»</t>
+  </si>
+  <si>
+    <t>Муниципального казённого общеобразовательного учреждения$ «Основная общеобразовательная школа № 17»$г. Назарово</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 2»$г. Назарово</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 3»$г. Назарово</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 4»$г. Назарово</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 7»$г. Назарово</t>
+  </si>
+  <si>
+    <t>МАОУ «СОШ № 8»</t>
+  </si>
+  <si>
+    <t>Муниципального автономного общеобразовательного учреждения$«Средняя общеобразовательная школа № 8$с углубленным изучением отдельных предметов»$г. Назарово</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 9»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 9$с углубленным изучением отдельных предметов»$г. Назарово</t>
+  </si>
+  <si>
+    <t>МБОУ «Гимназия № 1»</t>
+  </si>
+  <si>
+    <t>г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Гимназия № 1»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «Гимназия № 11»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Гимназия № 11»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «Гимназия № 4»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Гимназия № 4»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МАОУ «Гимназия № 48»</t>
+  </si>
+  <si>
+    <t>Муниципального автономного образовательного учреждения$«Гимназия № 48»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «Гимназия № 5»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Гимназия № 5»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «Гимназия № 7»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Гимназия № 7»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «Лицей № 1»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Лицей № 1»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «Лицей № 3»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Лицей № 3»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 1»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 13»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 14»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 16»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 17»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 17»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 18»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 20»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 20»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 21»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 21»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 23»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 24»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 24»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 26»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 26»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 27»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 27»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 28»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 28»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 29»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 29»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 3»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 30»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 31»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 32»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 33»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 33»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 34»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 36»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 36»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 37»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 37»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 38»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 38»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 39»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 39»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 40»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 40»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 41»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 41»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 42»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 43»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 43»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «СОШ № 45»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 45»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 6»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 8»$г. Норильск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 9»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «ЦО № 1»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$ «Центр образования № 1»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «ЦО № 2»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$ «Центр образования № 2»$г. Норильск</t>
+  </si>
+  <si>
+    <t>МБОУ «ЦО № 3»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$ «Центр образования № 3»$г. Норильск</t>
+  </si>
+  <si>
+    <t>г. Шарыпово</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 1»$г. Шарыпово</t>
+  </si>
+  <si>
+    <t>МБОУ «ООШ № 4»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Основная общеобразовательная школа № 4»$г. Шарыпово</t>
+  </si>
+  <si>
+    <t>МБОУ «ООШ № 6»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Основная общеобразовательная школа № 6»$г. Шарыпово</t>
+  </si>
+  <si>
+    <t>МАОУ «СОШ № 12»</t>
+  </si>
+  <si>
+    <t>Муниципального автономного общеобразовательного учреждения$«Средняя общеобразовательная школа № 12»$г. Шарыпово</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 2»$г. Шарыпово</t>
+  </si>
+  <si>
+    <t>МАОУ «СОШ № 3»</t>
+  </si>
+  <si>
+    <t>Муниципального автономного общеобразовательного учреждения$«Средняя общеобразовательная школа № 3»$г. Шарыпово</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 7»$г. Шарыпово</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Средняя общеобразовательная школа № 8»$г. Шарыпово</t>
+  </si>
+  <si>
     <t>готово</t>
   </si>
   <si>
+    <t>Абанский район</t>
+  </si>
+  <si>
+    <t>Ачинский район</t>
+  </si>
+  <si>
+    <t>Балахтинский район</t>
+  </si>
+  <si>
+    <t>Березовский район</t>
+  </si>
+  <si>
+    <t>Бирилюсский район</t>
+  </si>
+  <si>
+    <t>Боготольский район</t>
+  </si>
+  <si>
+    <t>Богучанский район</t>
+  </si>
+  <si>
+    <t>Большемуртинский район</t>
+  </si>
+  <si>
+    <t>Большеулуйский район</t>
+  </si>
+  <si>
     <t>г. Красноярск, Кировский район</t>
   </si>
   <si>
@@ -1302,48 +1770,6 @@
     <t>г. Красноярск, Советский район</t>
   </si>
   <si>
-    <t>г. Лесосибирск</t>
-  </si>
-  <si>
-    <t>г. Минусинск</t>
-  </si>
-  <si>
-    <t>г. Назарово</t>
-  </si>
-  <si>
-    <t>г. Норильск</t>
-  </si>
-  <si>
-    <t>г. Шарыпово</t>
-  </si>
-  <si>
-    <t>Абанский район</t>
-  </si>
-  <si>
-    <t>Ачинский район</t>
-  </si>
-  <si>
-    <t>Балахтинский район</t>
-  </si>
-  <si>
-    <t>Березовский район</t>
-  </si>
-  <si>
-    <t>Бирилюсский район</t>
-  </si>
-  <si>
-    <t>Боготольский район</t>
-  </si>
-  <si>
-    <t>Богучанский район</t>
-  </si>
-  <si>
-    <t>Большемуртинский район</t>
-  </si>
-  <si>
-    <t>Большеулуйский район</t>
-  </si>
-  <si>
     <t>Дзержинский район</t>
   </si>
   <si>
@@ -1356,12 +1782,6 @@
     <t>Ермаковский район</t>
   </si>
   <si>
-    <t>ЗАТО Кедровый</t>
-  </si>
-  <si>
-    <t>ЗАТО Солнечный</t>
-  </si>
-  <si>
     <t>Идринский район</t>
   </si>
   <si>
@@ -1386,6 +1806,9 @@
     <t>Козульский район</t>
   </si>
   <si>
+    <t>Краевые учреждения</t>
+  </si>
+  <si>
     <t>Краснотуранский район</t>
   </si>
   <si>
@@ -1453,9 +1876,6 @@
   </si>
   <si>
     <t>Эвенкийский МР</t>
-  </si>
-  <si>
-    <t>Краевые учреждения</t>
   </si>
 </sst>
 </file>
@@ -1586,10 +2006,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:234"/>
+  <dimension ref="1:326"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B96" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C104" activeCellId="0" pane="topLeft" sqref="C104"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="B300" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C327" activeCellId="0" pane="topLeft" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.9"/>
@@ -5147,6 +5567,941 @@
         <v>421</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="236">
+      <c r="A236" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="238">
+      <c r="A238" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="240">
+      <c r="A240" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="241">
+      <c r="A241" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="242">
+      <c r="A242" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="243">
+      <c r="A243" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="244">
+      <c r="A244" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="245">
+      <c r="A245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="246">
+      <c r="A246" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="247">
+      <c r="A247" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="248">
+      <c r="A248" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="249">
+      <c r="A249" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="251">
+      <c r="A251" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="252">
+      <c r="A252" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="253">
+      <c r="A253" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="254">
+      <c r="A254" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="255">
+      <c r="A255" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="256">
+      <c r="A256" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="257">
+      <c r="A257" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="258">
+      <c r="A258" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="259">
+      <c r="A259" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="260">
+      <c r="A260" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="261">
+      <c r="A261" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="262">
+      <c r="A262" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="264">
+      <c r="A264" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="265">
+      <c r="A265" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="266">
+      <c r="A266" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="267">
+      <c r="A267" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="268">
+      <c r="A268" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="269">
+      <c r="A269" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="270">
+      <c r="A270" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="271">
+      <c r="A271" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="272">
+      <c r="A272" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="273">
+      <c r="A273" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="275">
+      <c r="A275" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="276">
+      <c r="A276" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="277">
+      <c r="A277" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="278">
+      <c r="A278" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="279">
+      <c r="A279" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="280">
+      <c r="A280" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="281">
+      <c r="A281" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="282">
+      <c r="A282" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="283">
+      <c r="A283" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="284">
+      <c r="A284" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="285">
+      <c r="A285" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="286">
+      <c r="A286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="287">
+      <c r="A287" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="288">
+      <c r="A288" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="289">
+      <c r="A289" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="290">
+      <c r="A290" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="291">
+      <c r="A291" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="292">
+      <c r="A292" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="293">
+      <c r="A293" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="294">
+      <c r="A294" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="295">
+      <c r="A295" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="296">
+      <c r="A296" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="297">
+      <c r="A297" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="298">
+      <c r="A298" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="299">
+      <c r="A299" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="300">
+      <c r="A300" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="301">
+      <c r="A301" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="302">
+      <c r="A302" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="303">
+      <c r="A303" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="304">
+      <c r="A304" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="305">
+      <c r="A305" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="306">
+      <c r="A306" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="307">
+      <c r="A307" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="308">
+      <c r="A308" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="309">
+      <c r="A309" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="310">
+      <c r="A310" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="311">
+      <c r="A311" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="312">
+      <c r="A312" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="313">
+      <c r="A313" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="314">
+      <c r="A314" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="315">
+      <c r="A315" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="316">
+      <c r="A316" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="317">
+      <c r="A317" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="319">
+      <c r="A319" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="320">
+      <c r="A320" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="321">
+      <c r="A321" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="322">
+      <c r="A322" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="323">
+      <c r="A323" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="324">
+      <c r="A324" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="325">
+      <c r="A325" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="326">
+      <c r="A326" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5165,8 +6520,8 @@
   </sheetPr>
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B10" activeCellId="0" pane="topLeft" sqref="B10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -5180,387 +6535,411 @@
         <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>422</v>
+        <v>570</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>422</v>
+        <v>571</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>422</v>
+        <v>572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>422</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>422</v>
+        <v>574</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>99</v>
+        <v>575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>422</v>
+        <v>576</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>422</v>
+        <v>577</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>422</v>
+        <v>578</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>423</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>424</v>
+        <v>92</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>426</v>
+        <v>99</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>428</v>
+        <v>400</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>429</v>
+        <v>325</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>430</v>
+        <v>45</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>431</v>
+        <v>579</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>392</v>
+        <v>580</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>432</v>
+        <v>581</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>433</v>
+        <v>582</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
-        <v>434</v>
+        <v>583</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>435</v>
+        <v>66</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
-        <v>436</v>
+        <v>429</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>437</v>
+        <v>445</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
-        <v>438</v>
+        <v>469</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
-        <v>439</v>
+        <v>485</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>440</v>
+        <v>392</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>441</v>
+        <v>556</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
-        <v>442</v>
+        <v>584</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
-        <v>443</v>
+        <v>585</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>444</v>
+        <v>586</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>445</v>
+        <v>587</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>446</v>
+        <v>423</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
-        <v>447</v>
+        <v>426</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
-        <v>448</v>
+        <v>588</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
-        <v>449</v>
+        <v>589</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="s">
-        <v>450</v>
+        <v>590</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
-        <v>451</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
-        <v>452</v>
+        <v>592</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
-        <v>453</v>
+        <v>593</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="s">
-        <v>454</v>
+        <v>594</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
-        <v>455</v>
+        <v>595</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="s">
-        <v>456</v>
+        <v>596</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="s">
-        <v>457</v>
+        <v>597</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="0" t="s">
-        <v>458</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="s">
-        <v>459</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="0" t="s">
-        <v>460</v>
+        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="0" t="s">
-        <v>461</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="0" t="s">
-        <v>462</v>
+        <v>602</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="0" t="s">
-        <v>463</v>
+        <v>603</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="0" t="s">
-        <v>464</v>
+        <v>604</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="0" t="s">
-        <v>465</v>
+        <v>605</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="0" t="s">
-        <v>466</v>
+        <v>606</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="0" t="s">
-        <v>467</v>
+        <v>607</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="0" t="s">
-        <v>468</v>
+        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="0" t="s">
-        <v>469</v>
+        <v>609</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="0" t="s">
-        <v>470</v>
+        <v>610</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="0" t="s">
-        <v>471</v>
+        <v>611</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="A61" s="0" t="s">
-        <v>472</v>
+        <v>612</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="0" t="s">
-        <v>473</v>
+        <v>613</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="0" t="s">
-        <v>474</v>
+        <v>614</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="0" t="s">
-        <v>475</v>
+        <v>615</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="0" t="s">
-        <v>476</v>
+        <v>616</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="A66" s="0" t="s">
-        <v>477</v>
+        <v>617</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
-        <v>478</v>
+        <v>618</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>422</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -3152,7 +3152,7 @@
     <t>Школа космонавтики</t>
   </si>
   <si>
-    <t>Краевого государственного общеобразовательного автономного учреждения$«Краевая государственная общеобразовательная школа-интернат$среднего общего образования по работе с одаренными детьми$«Школа космонавтики»</t>
+    <t>Краевого государственного общеобразовательного$автономного учреждения$«Краевая государственная общеобразовательная школа-интернат$среднего общего образования по работе с одаренными детьми$«Школа космонавтики»</t>
   </si>
   <si>
     <t>МБОУ «Ильичевская СОШ»</t>
@@ -3396,8 +3396,8 @@
   </sheetPr>
   <dimension ref="1:537"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B4" activeCellId="0" pane="topLeft" sqref="B4"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B513" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C522" activeCellId="0" pane="topLeft" sqref="C522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.9"/>
@@ -5246,6 +5246,7 @@
       <c r="C70" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="D70" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="71" s="6">
       <c r="A71" s="3" t="s">
@@ -5257,6 +5258,7 @@
       <c r="C71" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="D71" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="72" s="6">
       <c r="A72" s="3" t="s">
@@ -5268,6 +5270,7 @@
       <c r="C72" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="D72" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="73" s="6">
       <c r="A73" s="3" t="s">
@@ -5279,6 +5282,7 @@
       <c r="C73" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="D73" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="74" s="6">
       <c r="A74" s="3" t="s">
@@ -5290,6 +5294,7 @@
       <c r="C74" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="D74" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="75" s="6">
       <c r="A75" s="3" t="s">
@@ -5301,6 +5306,7 @@
       <c r="C75" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="D75" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="76" s="6">
       <c r="A76" s="3" t="s">
@@ -5312,6 +5318,7 @@
       <c r="C76" s="3" t="s">
         <v>163</v>
       </c>
+      <c r="D76" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="77" s="6">
       <c r="A77" s="3" t="s">
@@ -5323,6 +5330,7 @@
       <c r="C77" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="D77" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="78" s="6">
       <c r="A78" s="3" t="s">
@@ -5334,6 +5342,7 @@
       <c r="C78" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="D78" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="79" s="6">
       <c r="A79" s="3" t="s">
@@ -5345,6 +5354,7 @@
       <c r="C79" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="D79" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="80" s="6">
       <c r="A80" s="3" t="s">
@@ -5356,6 +5366,7 @@
       <c r="C80" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="D80" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="81" s="6">
       <c r="A81" s="3" t="s">
@@ -5367,6 +5378,7 @@
       <c r="C81" s="3" t="s">
         <v>172</v>
       </c>
+      <c r="D81" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="82" s="6">
       <c r="A82" s="3" t="s">
@@ -5378,6 +5390,7 @@
       <c r="C82" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="D82" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="83" s="6">
       <c r="A83" s="3" t="s">
@@ -5389,6 +5402,7 @@
       <c r="C83" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="D83" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="84" s="6">
       <c r="A84" s="3" t="s">
@@ -5400,6 +5414,7 @@
       <c r="C84" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="D84" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="85" s="6">
       <c r="A85" s="3" t="s">
@@ -5411,6 +5426,7 @@
       <c r="C85" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="D85" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="86" s="6">
       <c r="A86" s="3" t="s">
@@ -5422,6 +5438,7 @@
       <c r="C86" s="3" t="s">
         <v>182</v>
       </c>
+      <c r="D86" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="87" s="6">
       <c r="A87" s="3" t="s">
@@ -5433,6 +5450,7 @@
       <c r="C87" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="D87" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="88" s="6">
       <c r="A88" s="3" t="s">
@@ -5444,6 +5462,7 @@
       <c r="C88" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="D88" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="89" s="6">
       <c r="A89" s="3" t="s">
@@ -5455,6 +5474,7 @@
       <c r="C89" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="D89" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="90" s="6">
       <c r="A90" s="3" t="s">
@@ -5466,6 +5486,7 @@
       <c r="C90" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="D90" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="91" s="6">
       <c r="A91" s="3" t="s">
@@ -5477,6 +5498,7 @@
       <c r="C91" s="3" t="s">
         <v>191</v>
       </c>
+      <c r="D91" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="92" s="6">
       <c r="A92" s="3" t="s">
@@ -5488,6 +5510,7 @@
       <c r="C92" s="3" t="s">
         <v>193</v>
       </c>
+      <c r="D92" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="93" s="6">
       <c r="A93" s="3" t="s">
@@ -5499,6 +5522,7 @@
       <c r="C93" s="3" t="s">
         <v>195</v>
       </c>
+      <c r="D93" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="94" s="6">
       <c r="A94" s="3" t="s">
@@ -5510,6 +5534,7 @@
       <c r="C94" s="3" t="s">
         <v>198</v>
       </c>
+      <c r="D94" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="95" s="6">
       <c r="A95" s="3" t="s">
@@ -5521,6 +5546,7 @@
       <c r="C95" s="3" t="s">
         <v>200</v>
       </c>
+      <c r="D95" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="96" s="6">
       <c r="A96" s="3" t="s">
@@ -5532,6 +5558,7 @@
       <c r="C96" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="D96" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="97" s="6">
       <c r="A97" s="3" t="s">
@@ -5543,6 +5570,7 @@
       <c r="C97" s="3" t="s">
         <v>202</v>
       </c>
+      <c r="D97" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="98" s="6">
       <c r="A98" s="3" t="s">
@@ -5554,6 +5582,7 @@
       <c r="C98" s="3" t="s">
         <v>205</v>
       </c>
+      <c r="D98" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="99" s="6">
       <c r="A99" s="3" t="s">
@@ -5565,6 +5594,7 @@
       <c r="C99" s="3" t="s">
         <v>207</v>
       </c>
+      <c r="D99" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="100" s="6">
       <c r="A100" s="3" t="s">
@@ -5576,6 +5606,7 @@
       <c r="C100" s="3" t="s">
         <v>209</v>
       </c>
+      <c r="D100" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="101" s="6">
       <c r="A101" s="3" t="s">
@@ -5587,6 +5618,7 @@
       <c r="C101" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="D101" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="102" s="6">
       <c r="A102" s="3" t="s">
@@ -5598,6 +5630,7 @@
       <c r="C102" s="3" t="s">
         <v>213</v>
       </c>
+      <c r="D102" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="103" s="6">
       <c r="A103" s="3" t="s">
@@ -5609,6 +5642,7 @@
       <c r="C103" s="3" t="s">
         <v>215</v>
       </c>
+      <c r="D103" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="104" s="6">
       <c r="A104" s="3" t="s">
@@ -5620,6 +5654,7 @@
       <c r="C104" s="3" t="s">
         <v>217</v>
       </c>
+      <c r="D104" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="105" s="6">
       <c r="A105" s="3" t="s">
@@ -5631,6 +5666,7 @@
       <c r="C105" s="3" t="s">
         <v>219</v>
       </c>
+      <c r="D105" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="106" s="6">
       <c r="A106" s="3" t="s">
@@ -5642,6 +5678,7 @@
       <c r="C106" s="3" t="s">
         <v>221</v>
       </c>
+      <c r="D106" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="107" s="6">
       <c r="A107" s="3" t="s">
@@ -5653,6 +5690,7 @@
       <c r="C107" s="3" t="s">
         <v>223</v>
       </c>
+      <c r="D107" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="108" s="6">
       <c r="A108" s="3" t="s">
@@ -5664,6 +5702,7 @@
       <c r="C108" s="3" t="s">
         <v>225</v>
       </c>
+      <c r="D108" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="109" s="6">
       <c r="A109" s="3" t="s">
@@ -5675,6 +5714,7 @@
       <c r="C109" s="3" t="s">
         <v>227</v>
       </c>
+      <c r="D109" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="110" s="6">
       <c r="A110" s="3" t="s">
@@ -5686,6 +5726,7 @@
       <c r="C110" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="D110" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="111" s="6">
       <c r="A111" s="3" t="s">
@@ -5697,6 +5738,7 @@
       <c r="C111" s="3" t="s">
         <v>231</v>
       </c>
+      <c r="D111" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="112" s="6">
       <c r="A112" s="3" t="s">
@@ -5708,6 +5750,7 @@
       <c r="C112" s="3" t="s">
         <v>234</v>
       </c>
+      <c r="D112" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="113" s="6">
       <c r="A113" s="3" t="s">
@@ -5719,6 +5762,7 @@
       <c r="C113" s="3" t="s">
         <v>236</v>
       </c>
+      <c r="D113" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="114" s="6">
       <c r="A114" s="3" t="s">
@@ -5730,6 +5774,7 @@
       <c r="C114" s="3" t="s">
         <v>238</v>
       </c>
+      <c r="D114" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="115" s="6">
       <c r="A115" s="3" t="s">
@@ -5741,6 +5786,7 @@
       <c r="C115" s="3" t="s">
         <v>240</v>
       </c>
+      <c r="D115" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="116" s="6">
       <c r="A116" s="3" t="s">
@@ -5752,6 +5798,7 @@
       <c r="C116" s="3" t="s">
         <v>242</v>
       </c>
+      <c r="D116" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="117" s="6">
       <c r="A117" s="3" t="s">
@@ -5763,6 +5810,7 @@
       <c r="C117" s="3" t="s">
         <v>244</v>
       </c>
+      <c r="D117" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="118" s="6">
       <c r="A118" s="3" t="s">
@@ -5774,6 +5822,7 @@
       <c r="C118" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="D118" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="119" s="6">
       <c r="A119" s="3" t="s">
@@ -5785,6 +5834,7 @@
       <c r="C119" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="D119" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="120" s="6">
       <c r="A120" s="3" t="s">
@@ -5796,6 +5846,7 @@
       <c r="C120" s="3" t="s">
         <v>250</v>
       </c>
+      <c r="D120" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="121" s="6">
       <c r="A121" s="3" t="s">
@@ -5807,6 +5858,7 @@
       <c r="C121" s="3" t="s">
         <v>252</v>
       </c>
+      <c r="D121" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="122" s="6">
       <c r="A122" s="3" t="s">
@@ -5818,6 +5870,7 @@
       <c r="C122" s="3" t="s">
         <v>254</v>
       </c>
+      <c r="D122" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="123" s="6">
       <c r="A123" s="3" t="s">
@@ -5829,6 +5882,7 @@
       <c r="C123" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="D123" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="124" s="6">
       <c r="A124" s="3" t="s">
@@ -5840,6 +5894,7 @@
       <c r="C124" s="3" t="s">
         <v>259</v>
       </c>
+      <c r="D124" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="125" s="6">
       <c r="A125" s="3" t="s">
@@ -5851,6 +5906,7 @@
       <c r="C125" s="3" t="s">
         <v>260</v>
       </c>
+      <c r="D125" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="126" s="6">
       <c r="A126" s="3" t="s">
@@ -5862,6 +5918,7 @@
       <c r="C126" s="3" t="s">
         <v>261</v>
       </c>
+      <c r="D126" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="127" s="6">
       <c r="A127" s="3" t="s">
@@ -5873,6 +5930,7 @@
       <c r="C127" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="D127" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="128" s="6">
       <c r="A128" s="3" t="s">
@@ -5884,6 +5942,7 @@
       <c r="C128" s="3" t="s">
         <v>264</v>
       </c>
+      <c r="D128" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="129" s="6">
       <c r="A129" s="3" t="s">
@@ -5895,6 +5954,7 @@
       <c r="C129" s="3" t="s">
         <v>266</v>
       </c>
+      <c r="D129" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="130" s="6">
       <c r="A130" s="3" t="s">
@@ -5906,6 +5966,7 @@
       <c r="C130" s="3" t="s">
         <v>268</v>
       </c>
+      <c r="D130" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="131" s="6">
       <c r="A131" s="3" t="s">
@@ -5917,6 +5978,7 @@
       <c r="C131" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="D131" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="132" s="6">
       <c r="A132" s="3" t="s">
@@ -5928,6 +5990,7 @@
       <c r="C132" s="3" t="s">
         <v>271</v>
       </c>
+      <c r="D132" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="133" s="6">
       <c r="A133" s="3" t="s">
@@ -5939,6 +6002,7 @@
       <c r="C133" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="D133" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="134" s="6">
       <c r="A134" s="3" t="s">
@@ -5950,6 +6014,7 @@
       <c r="C134" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="D134" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="135" s="6">
       <c r="A135" s="3" t="s">
@@ -5961,6 +6026,7 @@
       <c r="C135" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="D135" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="136" s="6">
       <c r="A136" s="3" t="s">
@@ -5972,6 +6038,7 @@
       <c r="C136" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="D136" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="137" s="6">
       <c r="A137" s="3" t="s">
@@ -5983,6 +6050,7 @@
       <c r="C137" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="D137" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="138" s="6">
       <c r="A138" s="3" t="s">
@@ -5994,6 +6062,7 @@
       <c r="C138" s="3" t="s">
         <v>278</v>
       </c>
+      <c r="D138" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="139" s="6">
       <c r="A139" s="3" t="s">
@@ -6005,6 +6074,7 @@
       <c r="C139" s="3" t="s">
         <v>280</v>
       </c>
+      <c r="D139" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="140" s="6">
       <c r="A140" s="3" t="s">
@@ -6016,6 +6086,7 @@
       <c r="C140" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="D140" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="141" s="6">
       <c r="A141" s="3" t="s">
@@ -6027,6 +6098,7 @@
       <c r="C141" s="3" t="s">
         <v>284</v>
       </c>
+      <c r="D141" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="142" s="6">
       <c r="A142" s="3" t="s">
@@ -6038,6 +6110,7 @@
       <c r="C142" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="D142" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="143" s="6">
       <c r="A143" s="3" t="s">
@@ -6049,6 +6122,7 @@
       <c r="C143" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="D143" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="144" s="6">
       <c r="A144" s="3" t="s">
@@ -6060,6 +6134,7 @@
       <c r="C144" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="D144" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="145" s="6">
       <c r="A145" s="3" t="s">
@@ -6071,6 +6146,7 @@
       <c r="C145" s="3" t="s">
         <v>293</v>
       </c>
+      <c r="D145" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="146" s="6">
       <c r="A146" s="3" t="s">
@@ -6082,6 +6158,7 @@
       <c r="C146" s="3" t="s">
         <v>295</v>
       </c>
+      <c r="D146" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="147" s="6">
       <c r="A147" s="3" t="s">
@@ -6093,6 +6170,7 @@
       <c r="C147" s="3" t="s">
         <v>297</v>
       </c>
+      <c r="D147" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="148" s="6">
       <c r="A148" s="3" t="s">
@@ -6104,6 +6182,7 @@
       <c r="C148" s="3" t="s">
         <v>299</v>
       </c>
+      <c r="D148" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="149" s="6">
       <c r="A149" s="3" t="s">
@@ -6115,6 +6194,7 @@
       <c r="C149" s="3" t="s">
         <v>301</v>
       </c>
+      <c r="D149" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="150" s="6">
       <c r="A150" s="3" t="s">
@@ -6126,6 +6206,7 @@
       <c r="C150" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="D150" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="151" s="6">
       <c r="A151" s="3" t="s">
@@ -6137,6 +6218,7 @@
       <c r="C151" s="3" t="s">
         <v>305</v>
       </c>
+      <c r="D151" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="152" s="6">
       <c r="A152" s="3" t="s">
@@ -6148,6 +6230,7 @@
       <c r="C152" s="3" t="s">
         <v>307</v>
       </c>
+      <c r="D152" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="153" s="6">
       <c r="A153" s="3" t="s">
@@ -6159,6 +6242,7 @@
       <c r="C153" s="3" t="s">
         <v>309</v>
       </c>
+      <c r="D153" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="154" s="6">
       <c r="A154" s="3" t="s">
@@ -6170,6 +6254,7 @@
       <c r="C154" s="3" t="s">
         <v>311</v>
       </c>
+      <c r="D154" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="155" s="6">
       <c r="A155" s="3" t="s">
@@ -6181,6 +6266,7 @@
       <c r="C155" s="3" t="s">
         <v>313</v>
       </c>
+      <c r="D155" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="156" s="6">
       <c r="A156" s="3" t="s">
@@ -6192,6 +6278,7 @@
       <c r="C156" s="3" t="s">
         <v>315</v>
       </c>
+      <c r="D156" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="157" s="6">
       <c r="A157" s="3" t="s">
@@ -6203,6 +6290,7 @@
       <c r="C157" s="3" t="s">
         <v>317</v>
       </c>
+      <c r="D157" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="158" s="6">
       <c r="A158" s="3" t="s">
@@ -6214,6 +6302,7 @@
       <c r="C158" s="3" t="s">
         <v>319</v>
       </c>
+      <c r="D158" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="159" s="6">
       <c r="A159" s="3" t="s">
@@ -6225,6 +6314,7 @@
       <c r="C159" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="D159" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="160" s="6">
       <c r="A160" s="3" t="s">
@@ -6236,6 +6326,7 @@
       <c r="C160" s="3" t="s">
         <v>323</v>
       </c>
+      <c r="D160" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="161" s="6">
       <c r="A161" s="3" t="s">
@@ -6247,6 +6338,7 @@
       <c r="C161" s="3" t="s">
         <v>324</v>
       </c>
+      <c r="D161" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="162" s="6">
       <c r="A162" s="3" t="s">
@@ -6258,6 +6350,7 @@
       <c r="C162" s="3" t="s">
         <v>326</v>
       </c>
+      <c r="D162" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="163" s="6">
       <c r="A163" s="3" t="s">
@@ -6269,6 +6362,7 @@
       <c r="C163" s="3" t="s">
         <v>328</v>
       </c>
+      <c r="D163" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="164" s="6">
       <c r="A164" s="3" t="s">
@@ -6280,6 +6374,7 @@
       <c r="C164" s="3" t="s">
         <v>330</v>
       </c>
+      <c r="D164" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="165" s="6">
       <c r="A165" s="3" t="s">
@@ -6291,6 +6386,7 @@
       <c r="C165" s="3" t="s">
         <v>332</v>
       </c>
+      <c r="D165" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="166" s="6">
       <c r="A166" s="3" t="s">
@@ -6302,6 +6398,7 @@
       <c r="C166" s="3" t="s">
         <v>335</v>
       </c>
+      <c r="D166" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="167" s="6">
       <c r="A167" s="3" t="s">
@@ -6313,6 +6410,7 @@
       <c r="C167" s="3" t="s">
         <v>337</v>
       </c>
+      <c r="D167" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="168" s="6">
       <c r="A168" s="3" t="s">
@@ -6324,6 +6422,7 @@
       <c r="C168" s="3" t="s">
         <v>339</v>
       </c>
+      <c r="D168" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="169" s="6">
       <c r="A169" s="3" t="s">
@@ -6335,6 +6434,7 @@
       <c r="C169" s="3" t="s">
         <v>341</v>
       </c>
+      <c r="D169" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="170" s="6">
       <c r="A170" s="3" t="s">
@@ -6346,6 +6446,7 @@
       <c r="C170" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="D170" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="171" s="6">
       <c r="A171" s="3" t="s">
@@ -6357,6 +6458,7 @@
       <c r="C171" s="3" t="s">
         <v>344</v>
       </c>
+      <c r="D171" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="172" s="6">
       <c r="A172" s="3" t="s">
@@ -6368,6 +6470,7 @@
       <c r="C172" s="3" t="s">
         <v>346</v>
       </c>
+      <c r="D172" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="173" s="6">
       <c r="A173" s="3" t="s">
@@ -6379,6 +6482,7 @@
       <c r="C173" s="3" t="s">
         <v>347</v>
       </c>
+      <c r="D173" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="174" s="6">
       <c r="A174" s="3" t="s">
@@ -6390,6 +6494,7 @@
       <c r="C174" s="3" t="s">
         <v>349</v>
       </c>
+      <c r="D174" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="175" s="6">
       <c r="A175" s="3" t="s">
@@ -6401,6 +6506,7 @@
       <c r="C175" s="3" t="s">
         <v>351</v>
       </c>
+      <c r="D175" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="176" s="6">
       <c r="A176" s="3" t="s">
@@ -6412,6 +6518,7 @@
       <c r="C176" s="3" t="s">
         <v>353</v>
       </c>
+      <c r="D176" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="177" s="6">
       <c r="A177" s="3" t="s">
@@ -6423,6 +6530,7 @@
       <c r="C177" s="3" t="s">
         <v>355</v>
       </c>
+      <c r="D177" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="178" s="6">
       <c r="A178" s="3" t="s">
@@ -6434,6 +6542,7 @@
       <c r="C178" s="3" t="s">
         <v>357</v>
       </c>
+      <c r="D178" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="179" s="6">
       <c r="A179" s="3" t="s">
@@ -6445,6 +6554,7 @@
       <c r="C179" s="3" t="s">
         <v>359</v>
       </c>
+      <c r="D179" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="180" s="6">
       <c r="A180" s="3" t="s">
@@ -6456,6 +6566,7 @@
       <c r="C180" s="3" t="s">
         <v>361</v>
       </c>
+      <c r="D180" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="181" s="6">
       <c r="A181" s="3" t="s">
@@ -6467,6 +6578,7 @@
       <c r="C181" s="3" t="s">
         <v>363</v>
       </c>
+      <c r="D181" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="182" s="6">
       <c r="A182" s="3" t="s">
@@ -6478,6 +6590,7 @@
       <c r="C182" s="3" t="s">
         <v>365</v>
       </c>
+      <c r="D182" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="183" s="6">
       <c r="A183" s="3" t="s">
@@ -6489,6 +6602,7 @@
       <c r="C183" s="3" t="s">
         <v>367</v>
       </c>
+      <c r="D183" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="184" s="6">
       <c r="A184" s="3" t="s">
@@ -6500,6 +6614,7 @@
       <c r="C184" s="3" t="s">
         <v>369</v>
       </c>
+      <c r="D184" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="185" s="6">
       <c r="A185" s="3" t="s">
@@ -6511,6 +6626,7 @@
       <c r="C185" s="3" t="s">
         <v>372</v>
       </c>
+      <c r="D185" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="186" s="6">
       <c r="A186" s="3" t="s">
@@ -6522,6 +6638,7 @@
       <c r="C186" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="D186" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="187" s="6">
       <c r="A187" s="3" t="s">
@@ -6533,6 +6650,7 @@
       <c r="C187" s="3" t="s">
         <v>376</v>
       </c>
+      <c r="D187" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="188" s="6">
       <c r="A188" s="3" t="s">
@@ -6544,6 +6662,7 @@
       <c r="C188" s="3" t="s">
         <v>378</v>
       </c>
+      <c r="D188" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="189" s="6">
       <c r="A189" s="3" t="s">
@@ -6555,6 +6674,7 @@
       <c r="C189" s="3" t="s">
         <v>380</v>
       </c>
+      <c r="D189" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="190" s="6">
       <c r="A190" s="3" t="s">
@@ -6566,6 +6686,7 @@
       <c r="C190" s="3" t="s">
         <v>382</v>
       </c>
+      <c r="D190" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="191" s="6">
       <c r="A191" s="3" t="s">
@@ -6577,6 +6698,7 @@
       <c r="C191" s="3" t="s">
         <v>384</v>
       </c>
+      <c r="D191" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="192" s="6">
       <c r="A192" s="3" t="s">
@@ -6588,6 +6710,7 @@
       <c r="C192" s="3" t="s">
         <v>386</v>
       </c>
+      <c r="D192" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="193" s="6">
       <c r="A193" s="3" t="s">
@@ -6599,6 +6722,7 @@
       <c r="C193" s="3" t="s">
         <v>387</v>
       </c>
+      <c r="D193" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="194" s="6">
       <c r="A194" s="3" t="s">
@@ -6610,6 +6734,7 @@
       <c r="C194" s="3" t="s">
         <v>389</v>
       </c>
+      <c r="D194" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="195" s="6">
       <c r="A195" s="3" t="s">
@@ -6621,6 +6746,7 @@
       <c r="C195" s="3" t="s">
         <v>391</v>
       </c>
+      <c r="D195" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="196" s="6">
       <c r="A196" s="3" t="s">
@@ -6632,6 +6758,7 @@
       <c r="C196" s="3" t="s">
         <v>393</v>
       </c>
+      <c r="D196" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="197" s="6">
       <c r="A197" s="3" t="s">
@@ -6643,6 +6770,7 @@
       <c r="C197" s="3" t="s">
         <v>395</v>
       </c>
+      <c r="D197" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="198" s="6">
       <c r="A198" s="3" t="s">
@@ -6654,6 +6782,7 @@
       <c r="C198" s="3" t="s">
         <v>396</v>
       </c>
+      <c r="D198" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="199" s="6">
       <c r="A199" s="3" t="s">
@@ -6665,6 +6794,7 @@
       <c r="C199" s="3" t="s">
         <v>398</v>
       </c>
+      <c r="D199" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="200" s="6">
       <c r="A200" s="3" t="s">
@@ -6676,6 +6806,7 @@
       <c r="C200" s="3" t="s">
         <v>400</v>
       </c>
+      <c r="D200" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="201" s="6">
       <c r="A201" s="3" t="s">
@@ -6687,6 +6818,7 @@
       <c r="C201" s="3" t="s">
         <v>402</v>
       </c>
+      <c r="D201" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="202" s="6">
       <c r="A202" s="3" t="s">
@@ -6698,6 +6830,7 @@
       <c r="C202" s="3" t="s">
         <v>404</v>
       </c>
+      <c r="D202" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="203" s="6">
       <c r="A203" s="3" t="s">
@@ -6709,6 +6842,7 @@
       <c r="C203" s="3" t="s">
         <v>406</v>
       </c>
+      <c r="D203" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="204" s="6">
       <c r="A204" s="3" t="s">
@@ -6720,6 +6854,7 @@
       <c r="C204" s="3" t="s">
         <v>409</v>
       </c>
+      <c r="D204" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="205" s="6">
       <c r="A205" s="3" t="s">
@@ -6731,6 +6866,7 @@
       <c r="C205" s="3" t="s">
         <v>411</v>
       </c>
+      <c r="D205" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="206" s="6">
       <c r="A206" s="3" t="s">
@@ -6742,6 +6878,7 @@
       <c r="C206" s="3" t="s">
         <v>413</v>
       </c>
+      <c r="D206" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="207" s="6">
       <c r="A207" s="3" t="s">
@@ -6753,6 +6890,7 @@
       <c r="C207" s="3" t="s">
         <v>415</v>
       </c>
+      <c r="D207" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="208" s="6">
       <c r="A208" s="3" t="s">
@@ -6764,6 +6902,7 @@
       <c r="C208" s="3" t="s">
         <v>417</v>
       </c>
+      <c r="D208" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="209" s="6">
       <c r="A209" s="3" t="s">
@@ -6775,6 +6914,7 @@
       <c r="C209" s="3" t="s">
         <v>419</v>
       </c>
+      <c r="D209" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="210" s="6">
       <c r="A210" s="3" t="s">
@@ -6786,6 +6926,7 @@
       <c r="C210" s="3" t="s">
         <v>421</v>
       </c>
+      <c r="D210" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="211" s="6">
       <c r="A211" s="3" t="s">
@@ -6797,6 +6938,7 @@
       <c r="C211" s="3" t="s">
         <v>423</v>
       </c>
+      <c r="D211" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="212" s="6">
       <c r="A212" s="3" t="s">
@@ -6808,6 +6950,7 @@
       <c r="C212" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="D212" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="213" s="6">
       <c r="A213" s="3" t="s">
@@ -6819,6 +6962,7 @@
       <c r="C213" s="3" t="s">
         <v>427</v>
       </c>
+      <c r="D213" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="214" s="6">
       <c r="A214" s="3" t="s">
@@ -6830,6 +6974,7 @@
       <c r="C214" s="3" t="s">
         <v>429</v>
       </c>
+      <c r="D214" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="215" s="6">
       <c r="A215" s="3" t="s">
@@ -6841,6 +6986,7 @@
       <c r="C215" s="3" t="s">
         <v>431</v>
       </c>
+      <c r="D215" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="216" s="6">
       <c r="A216" s="3" t="s">
@@ -6852,6 +6998,7 @@
       <c r="C216" s="3" t="s">
         <v>433</v>
       </c>
+      <c r="D216" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="217" s="6">
       <c r="A217" s="3" t="s">
@@ -6863,6 +7010,7 @@
       <c r="C217" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="D217" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="218" s="6">
       <c r="A218" s="3" t="s">
@@ -6874,6 +7022,7 @@
       <c r="C218" s="3" t="s">
         <v>436</v>
       </c>
+      <c r="D218" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="219" s="6">
       <c r="A219" s="3" t="s">
@@ -6885,6 +7034,7 @@
       <c r="C219" s="3" t="s">
         <v>438</v>
       </c>
+      <c r="D219" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="220" s="6">
       <c r="A220" s="3" t="s">
@@ -6896,6 +7046,7 @@
       <c r="C220" s="3" t="s">
         <v>440</v>
       </c>
+      <c r="D220" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="221" s="6">
       <c r="A221" s="3" t="s">
@@ -6907,6 +7058,7 @@
       <c r="C221" s="3" t="s">
         <v>441</v>
       </c>
+      <c r="D221" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="222" s="6">
       <c r="A222" s="3" t="s">
@@ -6918,6 +7070,7 @@
       <c r="C222" s="3" t="s">
         <v>443</v>
       </c>
+      <c r="D222" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="223" s="6">
       <c r="A223" s="3" t="s">
@@ -6929,6 +7082,7 @@
       <c r="C223" s="3" t="s">
         <v>446</v>
       </c>
+      <c r="D223" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="224" s="6">
       <c r="A224" s="3" t="s">
@@ -6940,6 +7094,7 @@
       <c r="C224" s="3" t="s">
         <v>448</v>
       </c>
+      <c r="D224" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="225" s="6">
       <c r="A225" s="3" t="s">
@@ -6951,6 +7106,7 @@
       <c r="C225" s="3" t="s">
         <v>450</v>
       </c>
+      <c r="D225" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="226" s="6">
       <c r="A226" s="3" t="s">
@@ -6962,6 +7118,7 @@
       <c r="C226" s="3" t="s">
         <v>452</v>
       </c>
+      <c r="D226" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="227" s="6">
       <c r="A227" s="3" t="s">
@@ -6973,6 +7130,7 @@
       <c r="C227" s="3" t="s">
         <v>454</v>
       </c>
+      <c r="D227" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="228" s="6">
       <c r="A228" s="3" t="s">
@@ -6984,6 +7142,7 @@
       <c r="C228" s="3" t="s">
         <v>456</v>
       </c>
+      <c r="D228" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="229" s="6">
       <c r="A229" s="3" t="s">
@@ -6995,6 +7154,7 @@
       <c r="C229" s="3" t="s">
         <v>458</v>
       </c>
+      <c r="D229" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="230" s="6">
       <c r="A230" s="3" t="s">
@@ -7006,6 +7166,7 @@
       <c r="C230" s="3" t="s">
         <v>460</v>
       </c>
+      <c r="D230" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="231" s="6">
       <c r="A231" s="3" t="s">
@@ -7017,6 +7178,7 @@
       <c r="C231" s="3" t="s">
         <v>462</v>
       </c>
+      <c r="D231" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="232" s="6">
       <c r="A232" s="3" t="s">
@@ -7028,6 +7190,7 @@
       <c r="C232" s="3" t="s">
         <v>464</v>
       </c>
+      <c r="D232" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="233" s="6">
       <c r="A233" s="3" t="s">
@@ -7039,6 +7202,7 @@
       <c r="C233" s="3" t="s">
         <v>466</v>
       </c>
+      <c r="D233" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="234" s="6">
       <c r="A234" s="3" t="s">
@@ -7050,6 +7214,7 @@
       <c r="C234" s="3" t="s">
         <v>467</v>
       </c>
+      <c r="D234" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="235" s="6">
       <c r="A235" s="3" t="s">
@@ -7061,6 +7226,7 @@
       <c r="C235" s="3" t="s">
         <v>469</v>
       </c>
+      <c r="D235" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="236" s="6">
       <c r="A236" s="3" t="s">
@@ -7072,6 +7238,7 @@
       <c r="C236" s="3" t="s">
         <v>470</v>
       </c>
+      <c r="D236" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="237" s="6">
       <c r="A237" s="3" t="s">
@@ -7083,6 +7250,7 @@
       <c r="C237" s="3" t="s">
         <v>472</v>
       </c>
+      <c r="D237" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="238" s="6">
       <c r="A238" s="3" t="s">
@@ -7094,6 +7262,7 @@
       <c r="C238" s="3" t="s">
         <v>474</v>
       </c>
+      <c r="D238" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="239" s="6">
       <c r="A239" s="3" t="s">
@@ -7105,6 +7274,7 @@
       <c r="C239" s="3" t="s">
         <v>476</v>
       </c>
+      <c r="D239" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="240" s="6">
       <c r="A240" s="3" t="s">
@@ -7116,6 +7286,7 @@
       <c r="C240" s="3" t="s">
         <v>478</v>
       </c>
+      <c r="D240" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="241" s="6">
       <c r="A241" s="3" t="s">
@@ -7127,6 +7298,7 @@
       <c r="C241" s="3" t="s">
         <v>480</v>
       </c>
+      <c r="D241" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="242" s="6">
       <c r="A242" s="3" t="s">
@@ -7138,6 +7310,7 @@
       <c r="C242" s="3" t="s">
         <v>482</v>
       </c>
+      <c r="D242" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="243" s="6">
       <c r="A243" s="3" t="s">
@@ -7149,6 +7322,7 @@
       <c r="C243" s="3" t="s">
         <v>484</v>
       </c>
+      <c r="D243" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="244" s="6">
       <c r="A244" s="3" t="s">
@@ -7160,6 +7334,7 @@
       <c r="C244" s="3" t="s">
         <v>486</v>
       </c>
+      <c r="D244" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="245" s="6">
       <c r="A245" s="3" t="s">
@@ -7171,6 +7346,7 @@
       <c r="C245" s="3" t="s">
         <v>488</v>
       </c>
+      <c r="D245" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="246" s="6">
       <c r="A246" s="3" t="s">
@@ -7182,6 +7358,7 @@
       <c r="C246" s="3" t="s">
         <v>490</v>
       </c>
+      <c r="D246" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="247" s="6">
       <c r="A247" s="3" t="s">
@@ -7193,6 +7370,7 @@
       <c r="C247" s="3" t="s">
         <v>492</v>
       </c>
+      <c r="D247" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="248" s="6">
       <c r="A248" s="3" t="s">
@@ -7204,6 +7382,7 @@
       <c r="C248" s="3" t="s">
         <v>493</v>
       </c>
+      <c r="D248" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="249" s="6">
       <c r="A249" s="3" t="s">
@@ -7215,6 +7394,7 @@
       <c r="C249" s="3" t="s">
         <v>495</v>
       </c>
+      <c r="D249" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="250" s="6">
       <c r="A250" s="3" t="s">
@@ -7226,6 +7406,7 @@
       <c r="C250" s="3" t="s">
         <v>497</v>
       </c>
+      <c r="D250" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="251" s="6">
       <c r="A251" s="3" t="s">
@@ -7237,6 +7418,7 @@
       <c r="C251" s="3" t="s">
         <v>499</v>
       </c>
+      <c r="D251" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="252" s="6">
       <c r="A252" s="3" t="s">
@@ -7248,6 +7430,7 @@
       <c r="C252" s="3" t="s">
         <v>502</v>
       </c>
+      <c r="D252" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="253" s="6">
       <c r="A253" s="3" t="s">
@@ -7259,6 +7442,7 @@
       <c r="C253" s="3" t="s">
         <v>504</v>
       </c>
+      <c r="D253" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="254" s="6">
       <c r="A254" s="3" t="s">
@@ -7270,6 +7454,7 @@
       <c r="C254" s="3" t="s">
         <v>506</v>
       </c>
+      <c r="D254" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="255" s="6">
       <c r="A255" s="3" t="s">
@@ -7281,6 +7466,7 @@
       <c r="C255" s="3" t="s">
         <v>508</v>
       </c>
+      <c r="D255" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="256" s="6">
       <c r="A256" s="3" t="s">
@@ -7292,6 +7478,7 @@
       <c r="C256" s="3" t="s">
         <v>509</v>
       </c>
+      <c r="D256" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="257" s="6">
       <c r="A257" s="3" t="s">
@@ -7303,6 +7490,7 @@
       <c r="C257" s="3" t="s">
         <v>511</v>
       </c>
+      <c r="D257" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="258" s="6">
       <c r="A258" s="3" t="s">
@@ -7314,6 +7502,7 @@
       <c r="C258" s="3" t="s">
         <v>513</v>
       </c>
+      <c r="D258" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="259" s="6">
       <c r="A259" s="3" t="s">
@@ -7325,6 +7514,7 @@
       <c r="C259" s="3" t="s">
         <v>515</v>
       </c>
+      <c r="D259" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="260" s="6">
       <c r="A260" s="3" t="s">
@@ -7336,6 +7526,7 @@
       <c r="C260" s="3" t="s">
         <v>517</v>
       </c>
+      <c r="D260" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="261" s="6">
       <c r="A261" s="3" t="s">
@@ -7347,6 +7538,7 @@
       <c r="C261" s="3" t="s">
         <v>520</v>
       </c>
+      <c r="D261" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="262" s="6">
       <c r="A262" s="3" t="s">
@@ -7358,6 +7550,7 @@
       <c r="C262" s="3" t="s">
         <v>522</v>
       </c>
+      <c r="D262" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="263" s="6">
       <c r="A263" s="3" t="s">
@@ -7369,6 +7562,7 @@
       <c r="C263" s="3" t="s">
         <v>524</v>
       </c>
+      <c r="D263" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="264" s="6">
       <c r="A264" s="3" t="s">
@@ -7380,6 +7574,7 @@
       <c r="C264" s="3" t="s">
         <v>525</v>
       </c>
+      <c r="D264" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="265" s="6">
       <c r="A265" s="3" t="s">
@@ -7391,6 +7586,7 @@
       <c r="C265" s="3" t="s">
         <v>526</v>
       </c>
+      <c r="D265" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="266" s="6">
       <c r="A266" s="3" t="s">
@@ -7402,6 +7598,7 @@
       <c r="C266" s="3" t="s">
         <v>527</v>
       </c>
+      <c r="D266" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="267" s="6">
       <c r="A267" s="3" t="s">
@@ -7413,6 +7610,7 @@
       <c r="C267" s="3" t="s">
         <v>528</v>
       </c>
+      <c r="D267" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="268" s="6">
       <c r="A268" s="3" t="s">
@@ -7424,6 +7622,7 @@
       <c r="C268" s="3" t="s">
         <v>529</v>
       </c>
+      <c r="D268" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="269" s="6">
       <c r="A269" s="3" t="s">
@@ -7435,6 +7634,7 @@
       <c r="C269" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="D269" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="270" s="6">
       <c r="A270" s="3" t="s">
@@ -7446,6 +7646,7 @@
       <c r="C270" s="3" t="s">
         <v>533</v>
       </c>
+      <c r="D270" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="271" s="6">
       <c r="A271" s="3" t="s">
@@ -7457,6 +7658,7 @@
       <c r="C271" s="3" t="s">
         <v>536</v>
       </c>
+      <c r="D271" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="272" s="6">
       <c r="A272" s="3" t="s">
@@ -7468,6 +7670,7 @@
       <c r="C272" s="3" t="s">
         <v>538</v>
       </c>
+      <c r="D272" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="273" s="6">
       <c r="A273" s="3" t="s">
@@ -7479,6 +7682,7 @@
       <c r="C273" s="3" t="s">
         <v>540</v>
       </c>
+      <c r="D273" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="274" s="6">
       <c r="A274" s="3" t="s">
@@ -7490,6 +7694,7 @@
       <c r="C274" s="3" t="s">
         <v>542</v>
       </c>
+      <c r="D274" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="275" s="6">
       <c r="A275" s="3" t="s">
@@ -7501,6 +7706,7 @@
       <c r="C275" s="3" t="s">
         <v>544</v>
       </c>
+      <c r="D275" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="276" s="6">
       <c r="A276" s="3" t="s">
@@ -7512,6 +7718,7 @@
       <c r="C276" s="3" t="s">
         <v>546</v>
       </c>
+      <c r="D276" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="277" s="6">
       <c r="A277" s="3" t="s">
@@ -7523,6 +7730,7 @@
       <c r="C277" s="3" t="s">
         <v>548</v>
       </c>
+      <c r="D277" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="278" s="6">
       <c r="A278" s="3" t="s">
@@ -7534,6 +7742,7 @@
       <c r="C278" s="3" t="s">
         <v>550</v>
       </c>
+      <c r="D278" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="279" s="6">
       <c r="A279" s="3" t="s">
@@ -7545,6 +7754,7 @@
       <c r="C279" s="3" t="s">
         <v>552</v>
       </c>
+      <c r="D279" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="280" s="6">
       <c r="A280" s="3" t="s">
@@ -7556,6 +7766,7 @@
       <c r="C280" s="3" t="s">
         <v>554</v>
       </c>
+      <c r="D280" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="281" s="6">
       <c r="A281" s="3" t="s">
@@ -7567,6 +7778,7 @@
       <c r="C281" s="3" t="s">
         <v>556</v>
       </c>
+      <c r="D281" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="282" s="6">
       <c r="A282" s="3" t="s">
@@ -7578,6 +7790,7 @@
       <c r="C282" s="3" t="s">
         <v>558</v>
       </c>
+      <c r="D282" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="283" s="6">
       <c r="A283" s="3" t="s">
@@ -7589,6 +7802,7 @@
       <c r="C283" s="3" t="s">
         <v>561</v>
       </c>
+      <c r="D283" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="284" s="6">
       <c r="A284" s="3" t="s">
@@ -7600,6 +7814,7 @@
       <c r="C284" s="3" t="s">
         <v>562</v>
       </c>
+      <c r="D284" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="285" s="6">
       <c r="A285" s="3" t="s">
@@ -7611,6 +7826,7 @@
       <c r="C285" s="3" t="s">
         <v>564</v>
       </c>
+      <c r="D285" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="286" s="6">
       <c r="A286" s="3" t="s">
@@ -7622,6 +7838,7 @@
       <c r="C286" s="3" t="s">
         <v>565</v>
       </c>
+      <c r="D286" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="287" s="6">
       <c r="A287" s="3" t="s">
@@ -7633,6 +7850,7 @@
       <c r="C287" s="3" t="s">
         <v>566</v>
       </c>
+      <c r="D287" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="288" s="6">
       <c r="A288" s="3" t="s">
@@ -7644,6 +7862,7 @@
       <c r="C288" s="3" t="s">
         <v>567</v>
       </c>
+      <c r="D288" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="289" s="6">
       <c r="A289" s="3" t="s">
@@ -7655,6 +7874,7 @@
       <c r="C289" s="3" t="s">
         <v>568</v>
       </c>
+      <c r="D289" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="290" s="6">
       <c r="A290" s="3" t="s">
@@ -7666,6 +7886,7 @@
       <c r="C290" s="3" t="s">
         <v>569</v>
       </c>
+      <c r="D290" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="291" s="6">
       <c r="A291" s="3" t="s">
@@ -7677,6 +7898,7 @@
       <c r="C291" s="3" t="s">
         <v>571</v>
       </c>
+      <c r="D291" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="292" s="6">
       <c r="A292" s="3" t="s">
@@ -7688,6 +7910,7 @@
       <c r="C292" s="3" t="s">
         <v>573</v>
       </c>
+      <c r="D292" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="293" s="6">
       <c r="A293" s="3" t="s">
@@ -7699,6 +7922,7 @@
       <c r="C293" s="3" t="s">
         <v>576</v>
       </c>
+      <c r="D293" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="294" s="6">
       <c r="A294" s="3" t="s">
@@ -7710,6 +7934,7 @@
       <c r="C294" s="3" t="s">
         <v>578</v>
       </c>
+      <c r="D294" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="295" s="6">
       <c r="A295" s="3" t="s">
@@ -7721,6 +7946,7 @@
       <c r="C295" s="3" t="s">
         <v>580</v>
       </c>
+      <c r="D295" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="296" s="6">
       <c r="A296" s="3" t="s">
@@ -7732,6 +7958,7 @@
       <c r="C296" s="3" t="s">
         <v>582</v>
       </c>
+      <c r="D296" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="297" s="6">
       <c r="A297" s="3" t="s">
@@ -7743,6 +7970,7 @@
       <c r="C297" s="3" t="s">
         <v>584</v>
       </c>
+      <c r="D297" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="298" s="6">
       <c r="A298" s="3" t="s">
@@ -7754,6 +7982,7 @@
       <c r="C298" s="3" t="s">
         <v>586</v>
       </c>
+      <c r="D298" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="299" s="6">
       <c r="A299" s="3" t="s">
@@ -7765,6 +7994,7 @@
       <c r="C299" s="3" t="s">
         <v>588</v>
       </c>
+      <c r="D299" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="300" s="6">
       <c r="A300" s="3" t="s">
@@ -7776,6 +8006,7 @@
       <c r="C300" s="3" t="s">
         <v>590</v>
       </c>
+      <c r="D300" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="301" s="6">
       <c r="A301" s="3" t="s">
@@ -7787,6 +8018,7 @@
       <c r="C301" s="3" t="s">
         <v>591</v>
       </c>
+      <c r="D301" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="302" s="6">
       <c r="A302" s="3" t="s">
@@ -7798,6 +8030,7 @@
       <c r="C302" s="3" t="s">
         <v>592</v>
       </c>
+      <c r="D302" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="303" s="6">
       <c r="A303" s="3" t="s">
@@ -7809,6 +8042,7 @@
       <c r="C303" s="3" t="s">
         <v>593</v>
       </c>
+      <c r="D303" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="304" s="6">
       <c r="A304" s="3" t="s">
@@ -7820,6 +8054,7 @@
       <c r="C304" s="3" t="s">
         <v>594</v>
       </c>
+      <c r="D304" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="305" s="6">
       <c r="A305" s="3" t="s">
@@ -7831,6 +8066,7 @@
       <c r="C305" s="3" t="s">
         <v>596</v>
       </c>
+      <c r="D305" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="306" s="6">
       <c r="A306" s="3" t="s">
@@ -7842,6 +8078,7 @@
       <c r="C306" s="3" t="s">
         <v>597</v>
       </c>
+      <c r="D306" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="307" s="6">
       <c r="A307" s="3" t="s">
@@ -7853,6 +8090,7 @@
       <c r="C307" s="3" t="s">
         <v>599</v>
       </c>
+      <c r="D307" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="308" s="6">
       <c r="A308" s="3" t="s">
@@ -7864,6 +8102,7 @@
       <c r="C308" s="3" t="s">
         <v>601</v>
       </c>
+      <c r="D308" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="309" s="6">
       <c r="A309" s="3" t="s">
@@ -7875,6 +8114,7 @@
       <c r="C309" s="3" t="s">
         <v>602</v>
       </c>
+      <c r="D309" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="310" s="6">
       <c r="A310" s="3" t="s">
@@ -7886,6 +8126,7 @@
       <c r="C310" s="3" t="s">
         <v>604</v>
       </c>
+      <c r="D310" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="311" s="6">
       <c r="A311" s="3" t="s">
@@ -7897,6 +8138,7 @@
       <c r="C311" s="3" t="s">
         <v>606</v>
       </c>
+      <c r="D311" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="312" s="6">
       <c r="A312" s="3" t="s">
@@ -7908,6 +8150,7 @@
       <c r="C312" s="3" t="s">
         <v>608</v>
       </c>
+      <c r="D312" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="313" s="6">
       <c r="A313" s="3" t="s">
@@ -7919,6 +8162,7 @@
       <c r="C313" s="3" t="s">
         <v>610</v>
       </c>
+      <c r="D313" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="314" s="6">
       <c r="A314" s="3" t="s">
@@ -7930,6 +8174,7 @@
       <c r="C314" s="3" t="s">
         <v>612</v>
       </c>
+      <c r="D314" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="315" s="6">
       <c r="A315" s="3" t="s">
@@ -7941,6 +8186,7 @@
       <c r="C315" s="3" t="s">
         <v>613</v>
       </c>
+      <c r="D315" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="316" s="6">
       <c r="A316" s="3" t="s">
@@ -7952,6 +8198,7 @@
       <c r="C316" s="3" t="s">
         <v>614</v>
       </c>
+      <c r="D316" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="317" s="6">
       <c r="A317" s="3" t="s">
@@ -7963,6 +8210,7 @@
       <c r="C317" s="3" t="s">
         <v>615</v>
       </c>
+      <c r="D317" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="318" s="6">
       <c r="A318" s="3" t="s">
@@ -7974,6 +8222,7 @@
       <c r="C318" s="3" t="s">
         <v>616</v>
       </c>
+      <c r="D318" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="319" s="6">
       <c r="A319" s="3" t="s">
@@ -7985,6 +8234,7 @@
       <c r="C319" s="3" t="s">
         <v>618</v>
       </c>
+      <c r="D319" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="320" s="6">
       <c r="A320" s="3" t="s">
@@ -7996,6 +8246,7 @@
       <c r="C320" s="3" t="s">
         <v>619</v>
       </c>
+      <c r="D320" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="321" s="6">
       <c r="A321" s="3" t="s">
@@ -8007,6 +8258,7 @@
       <c r="C321" s="3" t="s">
         <v>621</v>
       </c>
+      <c r="D321" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="322" s="6">
       <c r="A322" s="3" t="s">
@@ -8018,6 +8270,7 @@
       <c r="C322" s="3" t="s">
         <v>623</v>
       </c>
+      <c r="D322" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="323" s="6">
       <c r="A323" s="3" t="s">
@@ -8029,6 +8282,7 @@
       <c r="C323" s="3" t="s">
         <v>625</v>
       </c>
+      <c r="D323" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="324" s="6">
       <c r="A324" s="3" t="s">
@@ -8040,6 +8294,7 @@
       <c r="C324" s="3" t="s">
         <v>627</v>
       </c>
+      <c r="D324" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="325" s="6">
       <c r="A325" s="3" t="s">
@@ -8051,6 +8306,7 @@
       <c r="C325" s="3" t="s">
         <v>629</v>
       </c>
+      <c r="D325" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="326" s="6">
       <c r="A326" s="3" t="s">
@@ -8062,6 +8318,7 @@
       <c r="C326" s="3" t="s">
         <v>631</v>
       </c>
+      <c r="D326" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="327" s="6">
       <c r="A327" s="3" t="s">
@@ -8073,6 +8330,7 @@
       <c r="C327" s="3" t="s">
         <v>632</v>
       </c>
+      <c r="D327" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="328" s="6">
       <c r="A328" s="3" t="s">
@@ -8084,6 +8342,7 @@
       <c r="C328" s="3" t="s">
         <v>634</v>
       </c>
+      <c r="D328" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="329" s="6">
       <c r="A329" s="3" t="s">
@@ -8095,6 +8354,7 @@
       <c r="C329" s="3" t="s">
         <v>636</v>
       </c>
+      <c r="D329" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="330" s="6">
       <c r="A330" s="3" t="s">
@@ -8106,6 +8366,7 @@
       <c r="C330" s="3" t="s">
         <v>637</v>
       </c>
+      <c r="D330" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="331" s="6">
       <c r="A331" s="3" t="s">
@@ -8117,6 +8378,7 @@
       <c r="C331" s="3" t="s">
         <v>638</v>
       </c>
+      <c r="D331" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="332" s="6">
       <c r="A332" s="3" t="s">
@@ -8128,6 +8390,7 @@
       <c r="C332" s="3" t="s">
         <v>639</v>
       </c>
+      <c r="D332" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="333" s="6">
       <c r="A333" s="3" t="s">
@@ -8139,6 +8402,7 @@
       <c r="C333" s="3" t="s">
         <v>641</v>
       </c>
+      <c r="D333" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="334" s="6">
       <c r="A334" s="3" t="s">
@@ -8150,6 +8414,7 @@
       <c r="C334" s="3" t="s">
         <v>643</v>
       </c>
+      <c r="D334" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="335" s="6">
       <c r="A335" s="3" t="s">
@@ -8161,6 +8426,7 @@
       <c r="C335" s="3" t="s">
         <v>645</v>
       </c>
+      <c r="D335" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="336" s="6">
       <c r="A336" s="3" t="s">
@@ -8172,6 +8438,7 @@
       <c r="C336" s="3" t="s">
         <v>647</v>
       </c>
+      <c r="D336" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="337" s="6">
       <c r="A337" s="3" t="s">
@@ -8183,6 +8450,7 @@
       <c r="C337" s="3" t="s">
         <v>648</v>
       </c>
+      <c r="D337" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="338" s="6">
       <c r="A338" s="3" t="s">
@@ -8194,6 +8462,7 @@
       <c r="C338" s="3" t="s">
         <v>649</v>
       </c>
+      <c r="D338" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="339" s="6">
       <c r="A339" s="3" t="s">
@@ -8205,6 +8474,7 @@
       <c r="C339" s="3" t="s">
         <v>650</v>
       </c>
+      <c r="D339" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="340" s="6">
       <c r="A340" s="3" t="s">
@@ -8216,6 +8486,7 @@
       <c r="C340" s="3" t="s">
         <v>653</v>
       </c>
+      <c r="D340" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="341" s="6">
       <c r="A341" s="3" t="s">
@@ -8227,6 +8498,7 @@
       <c r="C341" s="3" t="s">
         <v>655</v>
       </c>
+      <c r="D341" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="342" s="6">
       <c r="A342" s="3" t="s">
@@ -8238,6 +8510,7 @@
       <c r="C342" s="3" t="s">
         <v>657</v>
       </c>
+      <c r="D342" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="343" s="6">
       <c r="A343" s="3" t="s">
@@ -8249,6 +8522,7 @@
       <c r="C343" s="3" t="s">
         <v>659</v>
       </c>
+      <c r="D343" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="344" s="6">
       <c r="A344" s="3" t="s">
@@ -8260,6 +8534,7 @@
       <c r="C344" s="3" t="s">
         <v>660</v>
       </c>
+      <c r="D344" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="345" s="6">
       <c r="A345" s="3" t="s">
@@ -8271,6 +8546,7 @@
       <c r="C345" s="3" t="s">
         <v>661</v>
       </c>
+      <c r="D345" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="346" s="6">
       <c r="A346" s="3" t="s">
@@ -8282,6 +8558,7 @@
       <c r="C346" s="3" t="s">
         <v>662</v>
       </c>
+      <c r="D346" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="347" s="6">
       <c r="A347" s="3" t="s">
@@ -8293,6 +8570,7 @@
       <c r="C347" s="3" t="s">
         <v>663</v>
       </c>
+      <c r="D347" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="348" s="6">
       <c r="A348" s="3" t="s">
@@ -8304,6 +8582,7 @@
       <c r="C348" s="3" t="s">
         <v>666</v>
       </c>
+      <c r="D348" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="349" s="6">
       <c r="A349" s="3" t="s">
@@ -8315,6 +8594,7 @@
       <c r="C349" s="3" t="s">
         <v>668</v>
       </c>
+      <c r="D349" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="350" s="6">
       <c r="A350" s="3" t="s">
@@ -8326,6 +8606,7 @@
       <c r="C350" s="3" t="s">
         <v>670</v>
       </c>
+      <c r="D350" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="351" s="6">
       <c r="A351" s="3" t="s">
@@ -8337,6 +8618,7 @@
       <c r="C351" s="3" t="s">
         <v>672</v>
       </c>
+      <c r="D351" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="352" s="6">
       <c r="A352" s="3" t="s">
@@ -8348,6 +8630,7 @@
       <c r="C352" s="3" t="s">
         <v>674</v>
       </c>
+      <c r="D352" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="353" s="6">
       <c r="A353" s="3" t="s">
@@ -8359,6 +8642,7 @@
       <c r="C353" s="3" t="s">
         <v>676</v>
       </c>
+      <c r="D353" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="354" s="6">
       <c r="A354" s="3" t="s">
@@ -8370,6 +8654,7 @@
       <c r="C354" s="3" t="s">
         <v>679</v>
       </c>
+      <c r="D354" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="355" s="6">
       <c r="A355" s="3" t="s">
@@ -8381,6 +8666,7 @@
       <c r="C355" s="3" t="s">
         <v>681</v>
       </c>
+      <c r="D355" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="356" s="6">
       <c r="A356" s="3" t="s">
@@ -8392,6 +8678,7 @@
       <c r="C356" s="3" t="s">
         <v>683</v>
       </c>
+      <c r="D356" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="357" s="6">
       <c r="A357" s="3" t="s">
@@ -8403,6 +8690,7 @@
       <c r="C357" s="3" t="s">
         <v>685</v>
       </c>
+      <c r="D357" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="358" s="6">
       <c r="A358" s="3" t="s">
@@ -8414,6 +8702,7 @@
       <c r="C358" s="3" t="s">
         <v>687</v>
       </c>
+      <c r="D358" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="359" s="6">
       <c r="A359" s="3" t="s">
@@ -8425,6 +8714,7 @@
       <c r="C359" s="3" t="s">
         <v>689</v>
       </c>
+      <c r="D359" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="360" s="6">
       <c r="A360" s="3" t="s">
@@ -8436,6 +8726,7 @@
       <c r="C360" s="3" t="s">
         <v>691</v>
       </c>
+      <c r="D360" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="361" s="6">
       <c r="A361" s="3" t="s">
@@ -8447,6 +8738,7 @@
       <c r="C361" s="3" t="s">
         <v>693</v>
       </c>
+      <c r="D361" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="362" s="6">
       <c r="A362" s="3" t="s">
@@ -8458,6 +8750,7 @@
       <c r="C362" s="3" t="s">
         <v>695</v>
       </c>
+      <c r="D362" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="363" s="6">
       <c r="A363" s="3" t="s">
@@ -8469,6 +8762,7 @@
       <c r="C363" s="3" t="s">
         <v>695</v>
       </c>
+      <c r="D363" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="364" s="6">
       <c r="A364" s="3" t="s">
@@ -8480,6 +8774,7 @@
       <c r="C364" s="3" t="s">
         <v>695</v>
       </c>
+      <c r="D364" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="365" s="6">
       <c r="A365" s="3" t="s">
@@ -8491,6 +8786,7 @@
       <c r="C365" s="3" t="s">
         <v>697</v>
       </c>
+      <c r="D365" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="366" s="6">
       <c r="A366" s="3" t="s">
@@ -8502,6 +8798,7 @@
       <c r="C366" s="3" t="s">
         <v>699</v>
       </c>
+      <c r="D366" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="367" s="6">
       <c r="A367" s="3" t="s">
@@ -8513,6 +8810,7 @@
       <c r="C367" s="3" t="s">
         <v>701</v>
       </c>
+      <c r="D367" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="368" s="6">
       <c r="A368" s="3" t="s">
@@ -8524,6 +8822,7 @@
       <c r="C368" s="3" t="s">
         <v>703</v>
       </c>
+      <c r="D368" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="369" s="6">
       <c r="A369" s="3" t="s">
@@ -8535,6 +8834,7 @@
       <c r="C369" s="3" t="s">
         <v>705</v>
       </c>
+      <c r="D369" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="370" s="6">
       <c r="A370" s="3" t="s">
@@ -8546,6 +8846,7 @@
       <c r="C370" s="3" t="s">
         <v>707</v>
       </c>
+      <c r="D370" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="371" s="6">
       <c r="A371" s="3" t="s">
@@ -8557,6 +8858,7 @@
       <c r="C371" s="3" t="s">
         <v>709</v>
       </c>
+      <c r="D371" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="372" s="6">
       <c r="A372" s="3" t="s">
@@ -8568,6 +8870,7 @@
       <c r="C372" s="3" t="s">
         <v>711</v>
       </c>
+      <c r="D372" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="373" s="6">
       <c r="A373" s="3" t="s">
@@ -8579,6 +8882,7 @@
       <c r="C373" s="3" t="s">
         <v>713</v>
       </c>
+      <c r="D373" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="374" s="6">
       <c r="A374" s="3" t="s">
@@ -8590,6 +8894,7 @@
       <c r="C374" s="3" t="s">
         <v>715</v>
       </c>
+      <c r="D374" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="375" s="6">
       <c r="A375" s="3" t="s">
@@ -8601,6 +8906,7 @@
       <c r="C375" s="3" t="s">
         <v>717</v>
       </c>
+      <c r="D375" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="376" s="6">
       <c r="A376" s="3" t="s">
@@ -8612,6 +8918,7 @@
       <c r="C376" s="3" t="s">
         <v>720</v>
       </c>
+      <c r="D376" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="377" s="6">
       <c r="A377" s="3" t="s">
@@ -8623,6 +8930,7 @@
       <c r="C377" s="3" t="s">
         <v>722</v>
       </c>
+      <c r="D377" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="378" s="6">
       <c r="A378" s="3" t="s">
@@ -8634,6 +8942,7 @@
       <c r="C378" s="3" t="s">
         <v>724</v>
       </c>
+      <c r="D378" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="379" s="6">
       <c r="A379" s="3" t="s">
@@ -8645,6 +8954,7 @@
       <c r="C379" s="3" t="s">
         <v>726</v>
       </c>
+      <c r="D379" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="380" s="6">
       <c r="A380" s="3" t="s">
@@ -8656,6 +8966,7 @@
       <c r="C380" s="3" t="s">
         <v>728</v>
       </c>
+      <c r="D380" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="381" s="6">
       <c r="A381" s="3" t="s">
@@ -8667,6 +8978,7 @@
       <c r="C381" s="3" t="s">
         <v>730</v>
       </c>
+      <c r="D381" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="382" s="6">
       <c r="A382" s="3" t="s">
@@ -8678,6 +8990,7 @@
       <c r="C382" s="3" t="s">
         <v>732</v>
       </c>
+      <c r="D382" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="383" s="6">
       <c r="A383" s="3" t="s">
@@ -8689,6 +9002,7 @@
       <c r="C383" s="3" t="s">
         <v>734</v>
       </c>
+      <c r="D383" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="384" s="6">
       <c r="A384" s="3" t="s">
@@ -8700,6 +9014,7 @@
       <c r="C384" s="3" t="s">
         <v>737</v>
       </c>
+      <c r="D384" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="385" s="6">
       <c r="A385" s="3" t="s">
@@ -8711,6 +9026,7 @@
       <c r="C385" s="3" t="s">
         <v>739</v>
       </c>
+      <c r="D385" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="386" s="6">
       <c r="A386" s="3" t="s">
@@ -8722,6 +9038,7 @@
       <c r="C386" s="3" t="s">
         <v>741</v>
       </c>
+      <c r="D386" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="387" s="6">
       <c r="A387" s="3" t="s">
@@ -8733,6 +9050,7 @@
       <c r="C387" s="3" t="s">
         <v>744</v>
       </c>
+      <c r="D387" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="388" s="6">
       <c r="A388" s="3" t="s">
@@ -8744,6 +9062,7 @@
       <c r="C388" s="3" t="s">
         <v>747</v>
       </c>
+      <c r="D388" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="389" s="6">
       <c r="A389" s="3" t="s">
@@ -8755,6 +9074,7 @@
       <c r="C389" s="3" t="s">
         <v>750</v>
       </c>
+      <c r="D389" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="390" s="6">
       <c r="A390" s="3" t="s">
@@ -8766,6 +9086,7 @@
       <c r="C390" s="3" t="s">
         <v>752</v>
       </c>
+      <c r="D390" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="391" s="6">
       <c r="A391" s="3" t="s">
@@ -8777,6 +9098,7 @@
       <c r="C391" s="3" t="s">
         <v>754</v>
       </c>
+      <c r="D391" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="392" s="6">
       <c r="A392" s="3" t="s">
@@ -8788,6 +9110,7 @@
       <c r="C392" s="3" t="s">
         <v>756</v>
       </c>
+      <c r="D392" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="393" s="6">
       <c r="A393" s="3" t="s">
@@ -8799,6 +9122,7 @@
       <c r="C393" s="3" t="s">
         <v>758</v>
       </c>
+      <c r="D393" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="394" s="6">
       <c r="A394" s="3" t="s">
@@ -8810,6 +9134,7 @@
       <c r="C394" s="3" t="s">
         <v>760</v>
       </c>
+      <c r="D394" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="395" s="6">
       <c r="A395" s="3" t="s">
@@ -8821,6 +9146,7 @@
       <c r="C395" s="3" t="s">
         <v>762</v>
       </c>
+      <c r="D395" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="396" s="6">
       <c r="A396" s="3" t="s">
@@ -8832,6 +9158,7 @@
       <c r="C396" s="3" t="s">
         <v>765</v>
       </c>
+      <c r="D396" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="397" s="6">
       <c r="A397" s="3" t="s">
@@ -8843,6 +9170,7 @@
       <c r="C397" s="3" t="s">
         <v>767</v>
       </c>
+      <c r="D397" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="398" s="6">
       <c r="A398" s="3" t="s">
@@ -8854,6 +9182,7 @@
       <c r="C398" s="3" t="s">
         <v>769</v>
       </c>
+      <c r="D398" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="399" s="6">
       <c r="A399" s="3" t="s">
@@ -8865,6 +9194,7 @@
       <c r="C399" s="3" t="s">
         <v>771</v>
       </c>
+      <c r="D399" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="400" s="6">
       <c r="A400" s="3" t="s">
@@ -8876,6 +9206,7 @@
       <c r="C400" s="3" t="s">
         <v>774</v>
       </c>
+      <c r="D400" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="401" s="6">
       <c r="A401" s="3" t="s">
@@ -8887,6 +9218,7 @@
       <c r="C401" s="3" t="s">
         <v>776</v>
       </c>
+      <c r="D401" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="402" s="6">
       <c r="A402" s="3" t="s">
@@ -8898,6 +9230,7 @@
       <c r="C402" s="3" t="s">
         <v>779</v>
       </c>
+      <c r="D402" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="403" s="6">
       <c r="A403" s="3" t="s">
@@ -8909,6 +9242,7 @@
       <c r="C403" s="3" t="s">
         <v>781</v>
       </c>
+      <c r="D403" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="404" s="6">
       <c r="A404" s="3" t="s">
@@ -8920,6 +9254,7 @@
       <c r="C404" s="3" t="s">
         <v>783</v>
       </c>
+      <c r="D404" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="405" s="6">
       <c r="A405" s="3" t="s">
@@ -8931,6 +9266,7 @@
       <c r="C405" s="3" t="s">
         <v>785</v>
       </c>
+      <c r="D405" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="406" s="6">
       <c r="A406" s="3" t="s">
@@ -8942,6 +9278,7 @@
       <c r="C406" s="3" t="s">
         <v>787</v>
       </c>
+      <c r="D406" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="407" s="6">
       <c r="A407" s="3" t="s">
@@ -8953,6 +9290,7 @@
       <c r="C407" s="3" t="s">
         <v>789</v>
       </c>
+      <c r="D407" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="408" s="6">
       <c r="A408" s="3" t="s">
@@ -8964,6 +9302,7 @@
       <c r="C408" s="3" t="s">
         <v>791</v>
       </c>
+      <c r="D408" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="409" s="6">
       <c r="A409" s="3" t="s">
@@ -8975,6 +9314,7 @@
       <c r="C409" s="3" t="s">
         <v>793</v>
       </c>
+      <c r="D409" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="410" s="6">
       <c r="A410" s="3" t="s">
@@ -8986,6 +9326,7 @@
       <c r="C410" s="3" t="s">
         <v>795</v>
       </c>
+      <c r="D410" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="411" s="6">
       <c r="A411" s="3" t="s">
@@ -8997,6 +9338,7 @@
       <c r="C411" s="3" t="s">
         <v>797</v>
       </c>
+      <c r="D411" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="412" s="6">
       <c r="A412" s="3" t="s">
@@ -9008,6 +9350,7 @@
       <c r="C412" s="3" t="s">
         <v>800</v>
       </c>
+      <c r="D412" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="413" s="6">
       <c r="A413" s="3" t="s">
@@ -9019,6 +9362,7 @@
       <c r="C413" s="3" t="s">
         <v>802</v>
       </c>
+      <c r="D413" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="414" s="6">
       <c r="A414" s="3" t="s">
@@ -9030,6 +9374,7 @@
       <c r="C414" s="3" t="s">
         <v>805</v>
       </c>
+      <c r="D414" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="415" s="6">
       <c r="A415" s="3" t="s">
@@ -9041,6 +9386,7 @@
       <c r="C415" s="3" t="s">
         <v>807</v>
       </c>
+      <c r="D415" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="416" s="6">
       <c r="A416" s="3" t="s">
@@ -9052,6 +9398,7 @@
       <c r="C416" s="3" t="s">
         <v>809</v>
       </c>
+      <c r="D416" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="417" s="6">
       <c r="A417" s="3" t="s">
@@ -9063,6 +9410,7 @@
       <c r="C417" s="3" t="s">
         <v>811</v>
       </c>
+      <c r="D417" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="418" s="6">
       <c r="A418" s="3" t="s">
@@ -9074,6 +9422,7 @@
       <c r="C418" s="3" t="s">
         <v>813</v>
       </c>
+      <c r="D418" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="419" s="6">
       <c r="A419" s="3" t="s">
@@ -9085,6 +9434,7 @@
       <c r="C419" s="3" t="s">
         <v>815</v>
       </c>
+      <c r="D419" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="420" s="6">
       <c r="A420" s="3" t="s">
@@ -9096,6 +9446,7 @@
       <c r="C420" s="3" t="s">
         <v>817</v>
       </c>
+      <c r="D420" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="421" s="6">
       <c r="A421" s="3" t="s">
@@ -9107,6 +9458,7 @@
       <c r="C421" s="3" t="s">
         <v>819</v>
       </c>
+      <c r="D421" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="422" s="6">
       <c r="A422" s="3" t="s">
@@ -9118,6 +9470,7 @@
       <c r="C422" s="3" t="s">
         <v>822</v>
       </c>
+      <c r="D422" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="423" s="6">
       <c r="A423" s="3" t="s">
@@ -9129,6 +9482,7 @@
       <c r="C423" s="3" t="s">
         <v>824</v>
       </c>
+      <c r="D423" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="424" s="6">
       <c r="A424" s="3" t="s">
@@ -9140,6 +9494,7 @@
       <c r="C424" s="3" t="s">
         <v>826</v>
       </c>
+      <c r="D424" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="425" s="6">
       <c r="A425" s="3" t="s">
@@ -9151,6 +9506,7 @@
       <c r="C425" s="3" t="s">
         <v>828</v>
       </c>
+      <c r="D425" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="426" s="6">
       <c r="A426" s="3" t="s">
@@ -9162,6 +9518,7 @@
       <c r="C426" s="3" t="s">
         <v>830</v>
       </c>
+      <c r="D426" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="427" s="6">
       <c r="A427" s="3" t="s">
@@ -9173,6 +9530,7 @@
       <c r="C427" s="3" t="s">
         <v>832</v>
       </c>
+      <c r="D427" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="428" s="6">
       <c r="A428" s="3" t="s">
@@ -9184,6 +9542,7 @@
       <c r="C428" s="3" t="s">
         <v>834</v>
       </c>
+      <c r="D428" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="429" s="6">
       <c r="A429" s="3" t="s">
@@ -9195,6 +9554,7 @@
       <c r="C429" s="3" t="s">
         <v>837</v>
       </c>
+      <c r="D429" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="430" s="6">
       <c r="A430" s="3" t="s">
@@ -9206,6 +9566,7 @@
       <c r="C430" s="3" t="s">
         <v>839</v>
       </c>
+      <c r="D430" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="431" s="6">
       <c r="A431" s="3" t="s">
@@ -9217,6 +9578,7 @@
       <c r="C431" s="3" t="s">
         <v>842</v>
       </c>
+      <c r="D431" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="432" s="6">
       <c r="A432" s="3" t="s">
@@ -9228,6 +9590,7 @@
       <c r="C432" s="3" t="s">
         <v>844</v>
       </c>
+      <c r="D432" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="433" s="6">
       <c r="A433" s="3" t="s">
@@ -9239,6 +9602,7 @@
       <c r="C433" s="3" t="s">
         <v>842</v>
       </c>
+      <c r="D433" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="434" s="6">
       <c r="A434" s="3" t="s">
@@ -9250,6 +9614,7 @@
       <c r="C434" s="3" t="s">
         <v>844</v>
       </c>
+      <c r="D434" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="435" s="6">
       <c r="A435" s="3" t="s">
@@ -9261,6 +9626,7 @@
       <c r="C435" s="3" t="s">
         <v>848</v>
       </c>
+      <c r="D435" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="436" s="6">
       <c r="A436" s="3" t="s">
@@ -9272,6 +9638,7 @@
       <c r="C436" s="3" t="s">
         <v>851</v>
       </c>
+      <c r="D436" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="437" s="6">
       <c r="A437" s="3" t="s">
@@ -9283,6 +9650,7 @@
       <c r="C437" s="3" t="s">
         <v>853</v>
       </c>
+      <c r="D437" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="438" s="6">
       <c r="A438" s="3" t="s">
@@ -9294,6 +9662,7 @@
       <c r="C438" s="3" t="s">
         <v>855</v>
       </c>
+      <c r="D438" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="439" s="6">
       <c r="A439" s="3" t="s">
@@ -9305,6 +9674,7 @@
       <c r="C439" s="3" t="s">
         <v>858</v>
       </c>
+      <c r="D439" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="440" s="6">
       <c r="A440" s="3" t="s">
@@ -9316,6 +9686,7 @@
       <c r="C440" s="3" t="s">
         <v>860</v>
       </c>
+      <c r="D440" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="441" s="6">
       <c r="A441" s="3" t="s">
@@ -9327,6 +9698,7 @@
       <c r="C441" s="3" t="s">
         <v>862</v>
       </c>
+      <c r="D441" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="442" s="6">
       <c r="A442" s="3" t="s">
@@ -9338,6 +9710,7 @@
       <c r="C442" s="3" t="s">
         <v>864</v>
       </c>
+      <c r="D442" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="443" s="6">
       <c r="A443" s="3" t="s">
@@ -9349,6 +9722,7 @@
       <c r="C443" s="3" t="s">
         <v>867</v>
       </c>
+      <c r="D443" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="444" s="6">
       <c r="A444" s="3" t="s">
@@ -9360,6 +9734,7 @@
       <c r="C444" s="3" t="s">
         <v>869</v>
       </c>
+      <c r="D444" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="445" s="6">
       <c r="A445" s="3" t="s">
@@ -9371,6 +9746,7 @@
       <c r="C445" s="3" t="s">
         <v>871</v>
       </c>
+      <c r="D445" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="446" s="6">
       <c r="A446" s="3" t="s">
@@ -9382,6 +9758,7 @@
       <c r="C446" s="3" t="s">
         <v>874</v>
       </c>
+      <c r="D446" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="447" s="6">
       <c r="A447" s="3" t="s">
@@ -9393,6 +9770,7 @@
       <c r="C447" s="3" t="s">
         <v>876</v>
       </c>
+      <c r="D447" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="448" s="6">
       <c r="A448" s="3" t="s">
@@ -9404,6 +9782,7 @@
       <c r="C448" s="3" t="s">
         <v>878</v>
       </c>
+      <c r="D448" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="449" s="6">
       <c r="A449" s="3" t="s">
@@ -9415,6 +9794,7 @@
       <c r="C449" s="3" t="s">
         <v>880</v>
       </c>
+      <c r="D449" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="450" s="6">
       <c r="A450" s="3" t="s">
@@ -9426,6 +9806,7 @@
       <c r="C450" s="3" t="s">
         <v>882</v>
       </c>
+      <c r="D450" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="451" s="6">
       <c r="A451" s="3" t="s">
@@ -9437,6 +9818,7 @@
       <c r="C451" s="3" t="s">
         <v>884</v>
       </c>
+      <c r="D451" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="452" s="6">
       <c r="A452" s="3" t="s">
@@ -9448,6 +9830,7 @@
       <c r="C452" s="3" t="s">
         <v>886</v>
       </c>
+      <c r="D452" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="453" s="6">
       <c r="A453" s="3" t="s">
@@ -9459,6 +9842,7 @@
       <c r="C453" s="3" t="s">
         <v>888</v>
       </c>
+      <c r="D453" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="454" s="6">
       <c r="A454" s="3" t="s">
@@ -9470,6 +9854,7 @@
       <c r="C454" s="3" t="s">
         <v>890</v>
       </c>
+      <c r="D454" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="455" s="6">
       <c r="A455" s="3" t="s">
@@ -9481,6 +9866,7 @@
       <c r="C455" s="3" t="s">
         <v>893</v>
       </c>
+      <c r="D455" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="456" s="6">
       <c r="A456" s="3" t="s">
@@ -9492,6 +9878,7 @@
       <c r="C456" s="3" t="s">
         <v>895</v>
       </c>
+      <c r="D456" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="457" s="6">
       <c r="A457" s="3" t="s">
@@ -9503,6 +9890,7 @@
       <c r="C457" s="3" t="s">
         <v>897</v>
       </c>
+      <c r="D457" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="458" s="6">
       <c r="A458" s="3" t="s">
@@ -9514,6 +9902,7 @@
       <c r="C458" s="3" t="s">
         <v>899</v>
       </c>
+      <c r="D458" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="459" s="6">
       <c r="A459" s="3" t="s">
@@ -9525,6 +9914,7 @@
       <c r="C459" s="3" t="s">
         <v>902</v>
       </c>
+      <c r="D459" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="460" s="6">
       <c r="A460" s="3" t="s">
@@ -9536,6 +9926,7 @@
       <c r="C460" s="3" t="s">
         <v>904</v>
       </c>
+      <c r="D460" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="461" s="6">
       <c r="A461" s="3" t="s">
@@ -9547,6 +9938,7 @@
       <c r="C461" s="3" t="s">
         <v>906</v>
       </c>
+      <c r="D461" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="462" s="6">
       <c r="A462" s="3" t="s">
@@ -9558,6 +9950,7 @@
       <c r="C462" s="3" t="s">
         <v>909</v>
       </c>
+      <c r="D462" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="463" s="6">
       <c r="A463" s="3" t="s">
@@ -9569,6 +9962,7 @@
       <c r="C463" s="3" t="s">
         <v>910</v>
       </c>
+      <c r="D463" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="464" s="6">
       <c r="A464" s="3" t="s">
@@ -9580,6 +9974,7 @@
       <c r="C464" s="3" t="s">
         <v>912</v>
       </c>
+      <c r="D464" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="465" s="6">
       <c r="A465" s="3" t="s">
@@ -9591,6 +9986,7 @@
       <c r="C465" s="3" t="s">
         <v>914</v>
       </c>
+      <c r="D465" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="466" s="6">
       <c r="A466" s="3" t="s">
@@ -9602,6 +9998,7 @@
       <c r="C466" s="3" t="s">
         <v>917</v>
       </c>
+      <c r="D466" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="467" s="6">
       <c r="A467" s="3" t="s">
@@ -9613,6 +10010,7 @@
       <c r="C467" s="3" t="s">
         <v>919</v>
       </c>
+      <c r="D467" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="468" s="6">
       <c r="A468" s="3" t="s">
@@ -9624,6 +10022,7 @@
       <c r="C468" s="3" t="s">
         <v>921</v>
       </c>
+      <c r="D468" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="469" s="6">
       <c r="A469" s="3" t="s">
@@ -9635,6 +10034,7 @@
       <c r="C469" s="3" t="s">
         <v>924</v>
       </c>
+      <c r="D469" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="470" s="6">
       <c r="A470" s="3" t="s">
@@ -9646,6 +10046,7 @@
       <c r="C470" s="3" t="s">
         <v>927</v>
       </c>
+      <c r="D470" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="471" s="6">
       <c r="A471" s="3" t="s">
@@ -9657,6 +10058,7 @@
       <c r="C471" s="3" t="s">
         <v>929</v>
       </c>
+      <c r="D471" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="472" s="6">
       <c r="A472" s="3" t="s">
@@ -9668,6 +10070,7 @@
       <c r="C472" s="3" t="s">
         <v>932</v>
       </c>
+      <c r="D472" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="473" s="6">
       <c r="A473" s="3" t="s">
@@ -9679,6 +10082,7 @@
       <c r="C473" s="3" t="s">
         <v>935</v>
       </c>
+      <c r="D473" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="474" s="6">
       <c r="A474" s="3" t="s">
@@ -9690,6 +10094,7 @@
       <c r="C474" s="3" t="s">
         <v>937</v>
       </c>
+      <c r="D474" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="475" s="6">
       <c r="A475" s="3" t="s">
@@ -9701,6 +10106,7 @@
       <c r="C475" s="3" t="s">
         <v>938</v>
       </c>
+      <c r="D475" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="476" s="6">
       <c r="A476" s="3" t="s">
@@ -9712,6 +10118,7 @@
       <c r="C476" s="3" t="s">
         <v>941</v>
       </c>
+      <c r="D476" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="477" s="6">
       <c r="A477" s="3" t="s">
@@ -9723,6 +10130,7 @@
       <c r="C477" s="3" t="s">
         <v>943</v>
       </c>
+      <c r="D477" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="478" s="6">
       <c r="A478" s="3" t="s">
@@ -9734,6 +10142,7 @@
       <c r="C478" s="3" t="s">
         <v>945</v>
       </c>
+      <c r="D478" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="479" s="6">
       <c r="A479" s="3" t="s">
@@ -9745,6 +10154,7 @@
       <c r="C479" s="3" t="s">
         <v>948</v>
       </c>
+      <c r="D479" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="480" s="6">
       <c r="A480" s="3" t="s">
@@ -9756,6 +10166,7 @@
       <c r="C480" s="3" t="s">
         <v>950</v>
       </c>
+      <c r="D480" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="481" s="6">
       <c r="A481" s="3" t="s">
@@ -9767,6 +10178,7 @@
       <c r="C481" s="3" t="s">
         <v>953</v>
       </c>
+      <c r="D481" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="482" s="6">
       <c r="A482" s="3" t="s">
@@ -9778,6 +10190,7 @@
       <c r="C482" s="3" t="s">
         <v>955</v>
       </c>
+      <c r="D482" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="483" s="6">
       <c r="A483" s="3" t="s">
@@ -9789,6 +10202,7 @@
       <c r="C483" s="3" t="s">
         <v>958</v>
       </c>
+      <c r="D483" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="484" s="6">
       <c r="A484" s="3" t="s">
@@ -9800,6 +10214,7 @@
       <c r="C484" s="3" t="s">
         <v>960</v>
       </c>
+      <c r="D484" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="485" s="6">
       <c r="A485" s="3" t="s">
@@ -9811,6 +10226,7 @@
       <c r="C485" s="3" t="s">
         <v>962</v>
       </c>
+      <c r="D485" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="486" s="6">
       <c r="A486" s="3" t="s">
@@ -9822,6 +10238,7 @@
       <c r="C486" s="3" t="s">
         <v>964</v>
       </c>
+      <c r="D486" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="487" s="6">
       <c r="A487" s="3" t="s">
@@ -9833,6 +10250,7 @@
       <c r="C487" s="3" t="s">
         <v>966</v>
       </c>
+      <c r="D487" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="488" s="6">
       <c r="A488" s="3" t="s">
@@ -9844,6 +10262,7 @@
       <c r="C488" s="3" t="s">
         <v>969</v>
       </c>
+      <c r="D488" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="489" s="6">
       <c r="A489" s="3" t="s">
@@ -9855,6 +10274,7 @@
       <c r="C489" s="3" t="s">
         <v>971</v>
       </c>
+      <c r="D489" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="490" s="6">
       <c r="A490" s="3" t="s">
@@ -9866,6 +10286,7 @@
       <c r="C490" s="3" t="s">
         <v>973</v>
       </c>
+      <c r="D490" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="491" s="6">
       <c r="A491" s="3" t="s">
@@ -9877,6 +10298,7 @@
       <c r="C491" s="3" t="s">
         <v>975</v>
       </c>
+      <c r="D491" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="492" s="6">
       <c r="A492" s="3" t="s">
@@ -9888,6 +10310,7 @@
       <c r="C492" s="3" t="s">
         <v>978</v>
       </c>
+      <c r="D492" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="493" s="6">
       <c r="A493" s="3" t="s">
@@ -9899,6 +10322,7 @@
       <c r="C493" s="3" t="s">
         <v>980</v>
       </c>
+      <c r="D493" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="494" s="6">
       <c r="A494" s="3" t="s">
@@ -9910,6 +10334,7 @@
       <c r="C494" s="3" t="s">
         <v>982</v>
       </c>
+      <c r="D494" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="495" s="6">
       <c r="A495" s="3" t="s">
@@ -9921,6 +10346,7 @@
       <c r="C495" s="3" t="s">
         <v>985</v>
       </c>
+      <c r="D495" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="496" s="6">
       <c r="A496" s="3" t="s">
@@ -9932,6 +10358,7 @@
       <c r="C496" s="3" t="s">
         <v>987</v>
       </c>
+      <c r="D496" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="497" s="6">
       <c r="A497" s="3" t="s">
@@ -9943,6 +10370,7 @@
       <c r="C497" s="3" t="s">
         <v>989</v>
       </c>
+      <c r="D497" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="498" s="6">
       <c r="A498" s="3" t="s">
@@ -9954,6 +10382,7 @@
       <c r="C498" s="3" t="s">
         <v>991</v>
       </c>
+      <c r="D498" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="499" s="6">
       <c r="A499" s="3" t="s">
@@ -9965,6 +10394,7 @@
       <c r="C499" s="3" t="s">
         <v>993</v>
       </c>
+      <c r="D499" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="500" s="6">
       <c r="A500" s="3" t="s">
@@ -9976,6 +10406,7 @@
       <c r="C500" s="3" t="s">
         <v>995</v>
       </c>
+      <c r="D500" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="501" s="6">
       <c r="A501" s="3" t="s">
@@ -9987,6 +10418,7 @@
       <c r="C501" s="3" t="s">
         <v>997</v>
       </c>
+      <c r="D501" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="502" s="6">
       <c r="A502" s="3" t="s">
@@ -9998,6 +10430,7 @@
       <c r="C502" s="3" t="s">
         <v>1000</v>
       </c>
+      <c r="D502" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="503" s="6">
       <c r="A503" s="3" t="s">
@@ -10009,6 +10442,7 @@
       <c r="C503" s="3" t="s">
         <v>1002</v>
       </c>
+      <c r="D503" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="504" s="6">
       <c r="A504" s="3" t="s">
@@ -10020,6 +10454,7 @@
       <c r="C504" s="3" t="s">
         <v>1004</v>
       </c>
+      <c r="D504" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="505" s="6">
       <c r="A505" s="3" t="s">
@@ -10031,6 +10466,7 @@
       <c r="C505" s="3" t="s">
         <v>1006</v>
       </c>
+      <c r="D505" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="506" s="6">
       <c r="A506" s="3" t="s">
@@ -10042,6 +10478,7 @@
       <c r="C506" s="3" t="s">
         <v>1009</v>
       </c>
+      <c r="D506" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="507" s="6">
       <c r="A507" s="3" t="s">
@@ -10053,6 +10490,7 @@
       <c r="C507" s="3" t="s">
         <v>1012</v>
       </c>
+      <c r="D507" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="508" s="6">
       <c r="A508" s="3" t="s">
@@ -10064,6 +10502,7 @@
       <c r="C508" s="3" t="s">
         <v>1014</v>
       </c>
+      <c r="D508" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="509" s="6">
       <c r="A509" s="3" t="s">
@@ -10075,6 +10514,7 @@
       <c r="C509" s="3" t="s">
         <v>1016</v>
       </c>
+      <c r="D509" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="510" s="6">
       <c r="A510" s="3" t="s">
@@ -10086,6 +10526,7 @@
       <c r="C510" s="3" t="s">
         <v>1018</v>
       </c>
+      <c r="D510" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="511" s="6">
       <c r="A511" s="3" t="s">
@@ -10097,6 +10538,7 @@
       <c r="C511" s="3" t="s">
         <v>1020</v>
       </c>
+      <c r="D511" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="512" s="6">
       <c r="A512" s="3" t="s">
@@ -10108,6 +10550,7 @@
       <c r="C512" s="3" t="s">
         <v>1023</v>
       </c>
+      <c r="D512" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="513" s="6">
       <c r="A513" s="3" t="s">
@@ -10119,6 +10562,7 @@
       <c r="C513" s="3" t="s">
         <v>1025</v>
       </c>
+      <c r="D513" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="514" s="6">
       <c r="A514" s="3" t="s">
@@ -10130,6 +10574,7 @@
       <c r="C514" s="3" t="s">
         <v>1027</v>
       </c>
+      <c r="D514" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="515" s="6">
       <c r="A515" s="3" t="s">
@@ -10141,6 +10586,7 @@
       <c r="C515" s="3" t="s">
         <v>1029</v>
       </c>
+      <c r="D515" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="516" s="6">
       <c r="A516" s="3" t="s">
@@ -10152,6 +10598,7 @@
       <c r="C516" s="3" t="s">
         <v>1031</v>
       </c>
+      <c r="D516" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="517" s="6">
       <c r="A517" s="3" t="s">
@@ -10163,6 +10610,7 @@
       <c r="C517" s="3" t="s">
         <v>1033</v>
       </c>
+      <c r="D517" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="518" s="6">
       <c r="A518" s="3" t="s">
@@ -10174,6 +10622,7 @@
       <c r="C518" s="3" t="s">
         <v>1036</v>
       </c>
+      <c r="D518" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="519" s="6">
       <c r="A519" s="3" t="s">
@@ -10185,6 +10634,7 @@
       <c r="C519" s="3" t="s">
         <v>1038</v>
       </c>
+      <c r="D519" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="520" s="6">
       <c r="A520" s="3" t="s">
@@ -10196,6 +10646,7 @@
       <c r="C520" s="3" t="s">
         <v>1040</v>
       </c>
+      <c r="D520" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="521" s="6">
       <c r="A521" s="3" t="s">
@@ -10207,6 +10658,7 @@
       <c r="C521" s="3" t="s">
         <v>1042</v>
       </c>
+      <c r="D521" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="522" s="6">
       <c r="A522" s="3" t="s">
@@ -10218,6 +10670,7 @@
       <c r="C522" s="3" t="s">
         <v>1045</v>
       </c>
+      <c r="D522" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="523" s="6">
       <c r="A523" s="3" t="s">
@@ -10229,6 +10682,7 @@
       <c r="C523" s="3" t="s">
         <v>1048</v>
       </c>
+      <c r="D523" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="524" s="6">
       <c r="A524" s="3" t="s">
@@ -10240,6 +10694,7 @@
       <c r="C524" s="3" t="s">
         <v>1050</v>
       </c>
+      <c r="D524" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="525" s="6">
       <c r="A525" s="3" t="s">
@@ -10251,6 +10706,7 @@
       <c r="C525" s="3" t="s">
         <v>1052</v>
       </c>
+      <c r="D525" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="526" s="6">
       <c r="A526" s="3" t="s">
@@ -10262,6 +10718,7 @@
       <c r="C526" s="3" t="s">
         <v>1054</v>
       </c>
+      <c r="D526" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="527" s="6">
       <c r="A527" s="3" t="s">
@@ -10273,6 +10730,7 @@
       <c r="C527" s="3" t="s">
         <v>1056</v>
       </c>
+      <c r="D527" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="528" s="6">
       <c r="A528" s="3" t="s">
@@ -10284,6 +10742,7 @@
       <c r="C528" s="3" t="s">
         <v>1058</v>
       </c>
+      <c r="D528" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="529" s="6">
       <c r="A529" s="3" t="s">
@@ -10295,6 +10754,7 @@
       <c r="C529" s="3" t="s">
         <v>1060</v>
       </c>
+      <c r="D529" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="530" s="6">
       <c r="A530" s="3" t="s">
@@ -10306,6 +10766,7 @@
       <c r="C530" s="3" t="s">
         <v>1062</v>
       </c>
+      <c r="D530" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="531" s="6">
       <c r="A531" s="3" t="s">
@@ -10317,6 +10778,7 @@
       <c r="C531" s="3" t="s">
         <v>1064</v>
       </c>
+      <c r="D531" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="532" s="6">
       <c r="A532" s="3" t="s">
@@ -10328,6 +10790,7 @@
       <c r="C532" s="3" t="s">
         <v>1066</v>
       </c>
+      <c r="D532" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="533" s="6">
       <c r="A533" s="3" t="s">
@@ -10339,6 +10802,7 @@
       <c r="C533" s="3" t="s">
         <v>1068</v>
       </c>
+      <c r="D533" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="534" s="6">
       <c r="A534" s="3" t="s">
@@ -10350,6 +10814,7 @@
       <c r="C534" s="3" t="s">
         <v>1070</v>
       </c>
+      <c r="D534" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="535" s="6">
       <c r="A535" s="3" t="s">
@@ -10361,6 +10826,7 @@
       <c r="C535" s="3" t="s">
         <v>1072</v>
       </c>
+      <c r="D535" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="536" s="6">
       <c r="A536" s="3" t="s">
@@ -10372,6 +10838,7 @@
       <c r="C536" s="3" t="s">
         <v>1075</v>
       </c>
+      <c r="D536" s="1"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="537" s="6">
       <c r="A537" s="3" t="s">
@@ -10383,6 +10850,7 @@
       <c r="C537" s="3" t="s">
         <v>1077</v>
       </c>
+      <c r="D537" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1077">
   <si>
     <t>Название</t>
   </si>
@@ -29,7 +29,7 @@
     <t>МАОУ Абанская СОШ № 3</t>
   </si>
   <si>
-    <t>Абанский р-он</t>
+    <t>Абанский район</t>
   </si>
   <si>
     <t>Муниципального автономного образовательного учреждения$«Абанская средняя общеобразовательная школа № 3»$Абанский район</t>
@@ -128,7 +128,7 @@
     <t>МКОУ Белоярская СОШ</t>
   </si>
   <si>
-    <t>Ачинский р-он</t>
+    <t>Ачинский район</t>
   </si>
   <si>
     <t>Муниципального казённого образовательного учреждения$Белоярской средней общеобразовательной школы$Ачинский район</t>
@@ -875,7 +875,7 @@
     <t>МАОУ «ОУ лицей № 7»</t>
   </si>
   <si>
-    <t>г. Красноярск, Железнодорожный р-он</t>
+    <t>г. Красноярск, Железнодорожный район</t>
   </si>
   <si>
     <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение лицей № 7»$г. Красноярск</t>
@@ -935,7 +935,7 @@
     <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 12$г. Красноярск</t>
   </si>
   <si>
-    <t>г. Красноярск, Кировский р-он</t>
+    <t>г. Красноярск, Кировский район</t>
   </si>
   <si>
     <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 10»$г. Красноярск</t>
@@ -1019,7 +1019,7 @@
     <t>МБОУ «ОУ гимназия № 11 им. А.Н. Кулакова»</t>
   </si>
   <si>
-    <t>г. Красноярск, Ленинский р-он</t>
+    <t>г. Красноярск, Ленинский район</t>
   </si>
   <si>
     <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение$гимназия № 11 им. А.Н. Кулакова»$г. Красноярск</t>
@@ -1130,7 +1130,7 @@
     <t>МАОУ «КУГ «Универс» № 1»</t>
   </si>
   <si>
-    <t>г. Красноярск, Октябрьский р-он</t>
+    <t>г. Красноярск, Октябрьский район</t>
   </si>
   <si>
     <t>Муниципального автономного образовательного учреждения$«Красноярская университетская гимназия «Универс» № 1»$г. Красноярск</t>
@@ -1241,7 +1241,7 @@
     <t>МАОУ «ОУ лицей № 9 «Лидер»</t>
   </si>
   <si>
-    <t>г. Красноярск, Свердловский р-он</t>
+    <t>г. Красноярск, Свердловский район</t>
   </si>
   <si>
     <t>Муниципального автономного образовательного учреждения$«Общеобразовательное учреждение лицей № 9 «Лидер»$г. Красноярск</t>
@@ -1352,7 +1352,7 @@
     <t>МБОУ «СОШ № 1 им. В.И. Сурикова»</t>
   </si>
   <si>
-    <t>г. Красноярск, Советский р-он</t>
+    <t>г. Красноярск, Советский район</t>
   </si>
   <si>
     <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 1 им. В.И. Сурикова»$г. Красноярск</t>
@@ -1520,7 +1520,7 @@
     <t>МАОУ «ОУ гимназия № 2»</t>
   </si>
   <si>
-    <t>г. Красноярск, Центральный р-он</t>
+    <t>г. Красноярск, Центральный район</t>
   </si>
   <si>
     <t>Муниципального автономного образовательного учреждения$«Общеобразовательное учреждение гимназия № 2»$г. Красноярск</t>
@@ -2051,106 +2051,106 @@
     <t>МБОУ Аэропортовская СОШ</t>
   </si>
   <si>
-    <t>Емельяновский р-он</t>
-  </si>
-  <si>
-    <t>Муниципального бюджетного образовательного учреждения$Аэропортовской средней общеобщеобразовательной школы$Емельяновский р-он</t>
+    <t>Емельяновский район</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$Аэропортовской средней общеобщеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Гараевская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного образовательного учреждения$Гараевской средней общеобщеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного образовательного учреждения$Гараевской средней общеобщеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Дрокинская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного образовательного учреждения$Дрокинской средней общеобщеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного образовательного учреждения$Дрокинской средней общеобщеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Емельяновская СОШ № 1</t>
   </si>
   <si>
-    <t>Муниципального бюджетного образовательного учреждения$Емельяновской средней общеобщеобразовательной$школы № 1$Емельяновский р-он</t>
+    <t>Муниципального бюджетного образовательного учреждения$Емельяновской средней общеобщеобразовательной$школы № 1$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Емельяновская СОШ № 2</t>
   </si>
   <si>
-    <t>Муниципального бюджетного образовательного учреждения$Емельяновской средней общеобщеобразовательной$школы № 2$Емельяновский р-он</t>
+    <t>Муниципального бюджетного образовательного учреждения$Емельяновской средней общеобщеобразовательной$школы № 2$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Емельяновская СОШ № 3</t>
   </si>
   <si>
-    <t>Муниципального бюджетного образовательного учреждения$Емельяновской средней общеобщеобразовательной$школы № 3$Емельяновский р-он</t>
+    <t>Муниципального бюджетного образовательного учреждения$Емельяновской средней общеобщеобразовательной$школы № 3$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Зеледеевская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного образовательного учреждения$Зеледеевской средней общеобщеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного образовательного учреждения$Зеледеевской средней общеобщеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Мининская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Мининской средней общеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Мининской средней общеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Солонцовская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Солонцовской средней общеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Солонцовской средней общеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Стеклозаводская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного образовательного учреждения$Стеклозаводской средней общеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного образовательного учреждения$Стеклозаводской средней общеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Тальская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Тальской средней общеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Тальской средней общеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Устюжская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Устюжской средней общеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Устюжской средней общеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Частоостровская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Частоостровской средней общеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Частоостровской средней общеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Шуваевская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Шуваевской средней общеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Шуваевской средней общеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МБОУ Элитовская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Элитовской средней общеобразовательной школы$Емельяновский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Элитовской средней общеобразовательной школы$Емельяновский район</t>
   </si>
   <si>
     <t>МКОУ «Арейская СОШ»</t>
   </si>
   <si>
-    <t>Муниципального казённого общеобразовательного учреждения$«Арейская средняя общеобразовательная школа»$Емельяновский р-он</t>
+    <t>Муниципального казённого общеобразовательного учреждения$«Арейская средняя общеобразовательная школа»$Емельяновский район</t>
   </si>
   <si>
     <t>МКОУ «Никольская СОШ»</t>
   </si>
   <si>
-    <t>Муниципального казённого общеобразовательного учреждения$«Никольская средняя общеобразовательная школа»$Емельяновский р-он</t>
+    <t>Муниципального казённого общеобразовательного учреждения$«Никольская средняя общеобразовательная школа»$Емельяновский район</t>
   </si>
   <si>
     <t>МКОУ Еловская СОШ</t>
@@ -2822,7 +2822,7 @@
     <t>Рыбинский район</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$2Саянской средней общеобразовательной школы № 32»$Рыбинский район</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Саянской средней общеобразовательной школы № 32»$Рыбинский район</t>
   </si>
   <si>
     <t>МБОУ Гимназия № 2</t>
@@ -3083,48 +3083,45 @@
     <t>МБОУ Березовская СОШ № 1</t>
   </si>
   <si>
-    <t>Шарыповский р-он</t>
-  </si>
-  <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Березовской средней общеобразовательной школы № 1$Шарыповский р-он</t>
+    <t>Шарыповский район</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Березовской средней общеобразовательной школы № 1$Шарыповский район</t>
   </si>
   <si>
     <t>МБОУ Большеозерская ООШ № 10</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Большеозерской средней общеобразовательной$школы № 10$Шарыповский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Большеозерской средней общеобразовательной$школы № 10$Шарыповский район</t>
   </si>
   <si>
     <t>МБОУ Гляденская ООШ № 11</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Гляденской основной общеобразовательной$школы № 11$Шарыповский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Гляденской основной общеобразовательной$школы № 11$Шарыповский район</t>
   </si>
   <si>
     <t>МБОУ Горбинская СОШ № 12</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Горбинской основной общеобразовательной$школы № 12$Шарыповский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Горбинской основной общеобразовательной$школы № 12$Шарыповский район</t>
   </si>
   <si>
     <t>МБОУ Дубининская ООШ № 13</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Дубининской  основной общеобразовательной$школы № 13$Шарыповский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Дубининской  основной общеобразовательной$школы № 13$Шарыповский район</t>
   </si>
   <si>
     <t>МКОУ Белозерская ООШ № 9</t>
   </si>
   <si>
-    <t>Муниципального казённого образовательного учреждения$Белозерской средней общеобразовательной школы № 9$Шарыповский р-он</t>
+    <t>Муниципального казённого образовательного учреждения$Белозерской средней общеобразовательной школы № 9$Шарыповский район</t>
   </si>
   <si>
     <t>МБОУ Ивановская СОШ № 2</t>
   </si>
   <si>
-    <t>Шарыповский район</t>
-  </si>
-  <si>
     <t>Муниципального бюджетного общеобразовательного учреждения$Ивановской средней общеобразовательной школы № 2$Шарыповский район</t>
   </si>
   <si>
@@ -3158,82 +3155,82 @@
     <t>МБОУ «Ильичевская СОШ»</t>
   </si>
   <si>
-    <t>Шушенский р-он</t>
-  </si>
-  <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$«Ильичевская средняя общеобразовательная школа»$Шушенский р-он</t>
+    <t>Шушенский район</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Ильичевская средняя общеобразовательная школа»$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ «Каптыревская СОШ»</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$«Каптыревская средняя общеобразовательная школа»$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Каптыревская средняя общеобразовательная школа»$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ «Нижне-Койская ООШ»</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$«Нижне-Койская основная общеобразовательная школа»$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Нижне-Койская основная общеобразовательная школа»$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ «Синеборская СОШ»</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$«Синеборская средняя общеобразовательная школа»$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Синеборская средняя общеобразовательная школа»$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ «Шунерская ООШ»</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$«Шунерская основная общеобразовательная школа»$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Шунерская основная общеобразовательная школа»$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ «Шушенская СОШ № 1»</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$«Шушенская средняя общеобразовательная школа № 1»$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Шушенская средняя общеобразовательная школа № 1»$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ Дубенская ООШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Дубенской основной общеобразовательной школы$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Дубенской основной общеобразовательной школы$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ Иджинская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Иджинской средней общеобразовательной школы$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Иджинской средней общеобразовательной школы$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ Казанцевская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Казанцевской средней общеобразовательной школы$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Казанцевской средней общеобразовательной школы$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ Московская СОШ им. И. Ярыгина</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Московской средней общеобразовательной$школы имени Ивана Ярыгина$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Московской средней общеобразовательной$школы имени Ивана Ярыгина$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ Субботинская СОШ</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Субботинской средней общеобразовательной школы$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Субботинской средней общеобразовательной школы$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ Шушенская СОШ № 2</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Шушенской средней общеобразовательной школы № 2$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Шушенской средней общеобразовательной школы № 2$Шушенский район</t>
   </si>
   <si>
     <t>МБОУ Шушенская СОШ № 3</t>
   </si>
   <si>
-    <t>Муниципального бюджетного общеобразовательного учреждения$Шушенской средней общеобразовательной школы № 3$Шушенский р-он</t>
+    <t>Муниципального бюджетного общеобразовательного учреждения$Шушенской средней общеобразовательной школы № 3$Шушенский район</t>
   </si>
   <si>
     <t>МКОУ «Ванаварская СОШ»</t>
@@ -3396,8 +3393,8 @@
   </sheetPr>
   <dimension ref="1:537"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B513" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C522" activeCellId="0" pane="topLeft" sqref="C522"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B464" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C474" activeCellId="0" pane="topLeft" sqref="C474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.9"/>
@@ -5044,7 +5041,7 @@
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="54" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="54">
       <c r="A54" s="3" t="s">
         <v>116</v>
       </c>
@@ -5056,7 +5053,7 @@
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="55" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="55">
       <c r="A55" s="3" t="s">
         <v>118</v>
       </c>
@@ -5068,7 +5065,7 @@
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="56" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="56">
       <c r="A56" s="3" t="s">
         <v>121</v>
       </c>
@@ -5080,7 +5077,7 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="57" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="57">
       <c r="A57" s="3" t="s">
         <v>123</v>
       </c>
@@ -5092,7 +5089,7 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="58" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="58">
       <c r="A58" s="3" t="s">
         <v>125</v>
       </c>
@@ -5104,7 +5101,7 @@
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="59" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="59">
       <c r="A59" s="3" t="s">
         <v>127</v>
       </c>
@@ -5116,7 +5113,7 @@
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="60" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="60">
       <c r="A60" s="3" t="s">
         <v>130</v>
       </c>
@@ -5128,7 +5125,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="61" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="61">
       <c r="A61" s="3" t="s">
         <v>132</v>
       </c>
@@ -5140,7 +5137,7 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="62" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="62">
       <c r="A62" s="3" t="s">
         <v>134</v>
       </c>
@@ -5152,7 +5149,7 @@
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="63" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="63">
       <c r="A63" s="3" t="s">
         <v>136</v>
       </c>
@@ -5164,7 +5161,7 @@
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="64" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="64">
       <c r="A64" s="3" t="s">
         <v>138</v>
       </c>
@@ -5176,7 +5173,7 @@
       </c>
       <c r="D64" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="65" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="65">
       <c r="A65" s="3" t="s">
         <v>140</v>
       </c>
@@ -5188,7 +5185,7 @@
       </c>
       <c r="D65" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="66" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="66">
       <c r="A66" s="3" t="s">
         <v>142</v>
       </c>
@@ -5200,7 +5197,7 @@
       </c>
       <c r="D66" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="67" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="67">
       <c r="A67" s="3" t="s">
         <v>144</v>
       </c>
@@ -5212,7 +5209,7 @@
       </c>
       <c r="D67" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="68" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="68">
       <c r="A68" s="3" t="s">
         <v>146</v>
       </c>
@@ -5224,7 +5221,7 @@
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="69" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="69">
       <c r="A69" s="3" t="s">
         <v>148</v>
       </c>
@@ -5236,7 +5233,7 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="70" s="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="70">
       <c r="A70" s="3" t="s">
         <v>150</v>
       </c>
@@ -5246,9 +5243,8 @@
       <c r="C70" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="71" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="71">
       <c r="A71" s="3" t="s">
         <v>152</v>
       </c>
@@ -5258,9 +5254,8 @@
       <c r="C71" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="72" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="72">
       <c r="A72" s="3" t="s">
         <v>154</v>
       </c>
@@ -5270,9 +5265,8 @@
       <c r="C72" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="73" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="73">
       <c r="A73" s="3" t="s">
         <v>156</v>
       </c>
@@ -5282,9 +5276,8 @@
       <c r="C73" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="74" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="74">
       <c r="A74" s="3" t="s">
         <v>158</v>
       </c>
@@ -5294,9 +5287,8 @@
       <c r="C74" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="75" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="75">
       <c r="A75" s="3" t="s">
         <v>160</v>
       </c>
@@ -5306,9 +5298,8 @@
       <c r="C75" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="76" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="76">
       <c r="A76" s="3" t="s">
         <v>162</v>
       </c>
@@ -5318,9 +5309,8 @@
       <c r="C76" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="77" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="77">
       <c r="A77" s="3" t="s">
         <v>164</v>
       </c>
@@ -5330,9 +5320,8 @@
       <c r="C77" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="78" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="78">
       <c r="A78" s="3" t="s">
         <v>166</v>
       </c>
@@ -5342,9 +5331,8 @@
       <c r="C78" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="79" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="79">
       <c r="A79" s="3" t="s">
         <v>146</v>
       </c>
@@ -5354,9 +5342,8 @@
       <c r="C79" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="80" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="80">
       <c r="A80" s="3" t="s">
         <v>166</v>
       </c>
@@ -5366,9 +5353,8 @@
       <c r="C80" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D80" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="81" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="81">
       <c r="A81" s="3" t="s">
         <v>171</v>
       </c>
@@ -5378,9 +5364,8 @@
       <c r="C81" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="82" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="82">
       <c r="A82" s="3" t="s">
         <v>173</v>
       </c>
@@ -5390,9 +5375,8 @@
       <c r="C82" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D82" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="83" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="83">
       <c r="A83" s="3" t="s">
         <v>175</v>
       </c>
@@ -5402,9 +5386,8 @@
       <c r="C83" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D83" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="84" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="84">
       <c r="A84" s="3" t="s">
         <v>177</v>
       </c>
@@ -5414,9 +5397,8 @@
       <c r="C84" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D84" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="85" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="85">
       <c r="A85" s="3" t="s">
         <v>166</v>
       </c>
@@ -5426,9 +5408,8 @@
       <c r="C85" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D85" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="86" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="86">
       <c r="A86" s="3" t="s">
         <v>181</v>
       </c>
@@ -5438,9 +5419,8 @@
       <c r="C86" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D86" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="87" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="87">
       <c r="A87" s="3" t="s">
         <v>183</v>
       </c>
@@ -5450,9 +5430,8 @@
       <c r="C87" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="88" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="88">
       <c r="A88" s="3" t="s">
         <v>186</v>
       </c>
@@ -5462,9 +5441,8 @@
       <c r="C88" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="89" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="89">
       <c r="A89" s="3" t="s">
         <v>188</v>
       </c>
@@ -5474,9 +5452,8 @@
       <c r="C89" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="90" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="90">
       <c r="A90" s="3" t="s">
         <v>171</v>
       </c>
@@ -5486,9 +5463,8 @@
       <c r="C90" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="91" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="91">
       <c r="A91" s="3" t="s">
         <v>173</v>
       </c>
@@ -5498,9 +5474,8 @@
       <c r="C91" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="92" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="92">
       <c r="A92" s="3" t="s">
         <v>192</v>
       </c>
@@ -5510,9 +5485,8 @@
       <c r="C92" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D92" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="93" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="93">
       <c r="A93" s="3" t="s">
         <v>194</v>
       </c>
@@ -5522,9 +5496,8 @@
       <c r="C93" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D93" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="94" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="94">
       <c r="A94" s="3" t="s">
         <v>196</v>
       </c>
@@ -5534,9 +5507,8 @@
       <c r="C94" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D94" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="95" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="95">
       <c r="A95" s="3" t="s">
         <v>199</v>
       </c>
@@ -5546,9 +5518,8 @@
       <c r="C95" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D95" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="96" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="96">
       <c r="A96" s="3" t="s">
         <v>166</v>
       </c>
@@ -5558,9 +5529,8 @@
       <c r="C96" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="97" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="97">
       <c r="A97" s="3" t="s">
         <v>192</v>
       </c>
@@ -5570,9 +5540,8 @@
       <c r="C97" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D97" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="98" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="98">
       <c r="A98" s="3" t="s">
         <v>203</v>
       </c>
@@ -5582,9 +5551,8 @@
       <c r="C98" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D98" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="99" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="99">
       <c r="A99" s="3" t="s">
         <v>206</v>
       </c>
@@ -5594,9 +5562,8 @@
       <c r="C99" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D99" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="100" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="100">
       <c r="A100" s="3" t="s">
         <v>208</v>
       </c>
@@ -5606,9 +5573,8 @@
       <c r="C100" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D100" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="101" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="101">
       <c r="A101" s="3" t="s">
         <v>210</v>
       </c>
@@ -5618,9 +5584,8 @@
       <c r="C101" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D101" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="102" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="102">
       <c r="A102" s="3" t="s">
         <v>212</v>
       </c>
@@ -5630,9 +5595,8 @@
       <c r="C102" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D102" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="103" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="103">
       <c r="A103" s="3" t="s">
         <v>214</v>
       </c>
@@ -5642,9 +5606,8 @@
       <c r="C103" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D103" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="104" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="104">
       <c r="A104" s="3" t="s">
         <v>216</v>
       </c>
@@ -5654,9 +5617,8 @@
       <c r="C104" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D104" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="105" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="105">
       <c r="A105" s="3" t="s">
         <v>218</v>
       </c>
@@ -5666,9 +5628,8 @@
       <c r="C105" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D105" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="106" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="106">
       <c r="A106" s="3" t="s">
         <v>220</v>
       </c>
@@ -5678,9 +5639,8 @@
       <c r="C106" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D106" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="107" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="107">
       <c r="A107" s="3" t="s">
         <v>222</v>
       </c>
@@ -5690,9 +5650,8 @@
       <c r="C107" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D107" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="108" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="108">
       <c r="A108" s="3" t="s">
         <v>224</v>
       </c>
@@ -5702,9 +5661,8 @@
       <c r="C108" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D108" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="109" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="109">
       <c r="A109" s="3" t="s">
         <v>226</v>
       </c>
@@ -5714,9 +5672,8 @@
       <c r="C109" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D109" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="110" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="110">
       <c r="A110" s="3" t="s">
         <v>228</v>
       </c>
@@ -5726,9 +5683,8 @@
       <c r="C110" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D110" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="111" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="111">
       <c r="A111" s="3" t="s">
         <v>230</v>
       </c>
@@ -5738,9 +5694,8 @@
       <c r="C111" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D111" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="112" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="112">
       <c r="A112" s="3" t="s">
         <v>232</v>
       </c>
@@ -5750,9 +5705,8 @@
       <c r="C112" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D112" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="113" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="113">
       <c r="A113" s="3" t="s">
         <v>235</v>
       </c>
@@ -5762,9 +5716,8 @@
       <c r="C113" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D113" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="114" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="114">
       <c r="A114" s="3" t="s">
         <v>237</v>
       </c>
@@ -5774,9 +5727,8 @@
       <c r="C114" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D114" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="115" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="115">
       <c r="A115" s="3" t="s">
         <v>239</v>
       </c>
@@ -5786,9 +5738,8 @@
       <c r="C115" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D115" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="116" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="116">
       <c r="A116" s="3" t="s">
         <v>241</v>
       </c>
@@ -5798,9 +5749,8 @@
       <c r="C116" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D116" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="117" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="117">
       <c r="A117" s="3" t="s">
         <v>243</v>
       </c>
@@ -5810,9 +5760,8 @@
       <c r="C117" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D117" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="118" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="118">
       <c r="A118" s="3" t="s">
         <v>245</v>
       </c>
@@ -5822,9 +5771,8 @@
       <c r="C118" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D118" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="119" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="119">
       <c r="A119" s="3" t="s">
         <v>247</v>
       </c>
@@ -5834,9 +5782,8 @@
       <c r="C119" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D119" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="120" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="120">
       <c r="A120" s="3" t="s">
         <v>249</v>
       </c>
@@ -5846,9 +5793,8 @@
       <c r="C120" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D120" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="121" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="121">
       <c r="A121" s="3" t="s">
         <v>251</v>
       </c>
@@ -5858,9 +5804,8 @@
       <c r="C121" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D121" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="122" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="122">
       <c r="A122" s="3" t="s">
         <v>253</v>
       </c>
@@ -5870,9 +5815,8 @@
       <c r="C122" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D122" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="123" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="123">
       <c r="A123" s="3" t="s">
         <v>255</v>
       </c>
@@ -5882,9 +5826,8 @@
       <c r="C123" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D123" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="124" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="124">
       <c r="A124" s="3" t="s">
         <v>258</v>
       </c>
@@ -5894,9 +5837,8 @@
       <c r="C124" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D124" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="125" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="125">
       <c r="A125" s="3" t="s">
         <v>156</v>
       </c>
@@ -5906,9 +5848,8 @@
       <c r="C125" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D125" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="126" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="126">
       <c r="A126" s="3" t="s">
         <v>158</v>
       </c>
@@ -5918,9 +5859,8 @@
       <c r="C126" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D126" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="127" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="127">
       <c r="A127" s="3" t="s">
         <v>262</v>
       </c>
@@ -5930,9 +5870,8 @@
       <c r="C127" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D127" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="128" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="128">
       <c r="A128" s="3" t="s">
         <v>162</v>
       </c>
@@ -5942,9 +5881,8 @@
       <c r="C128" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D128" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="129" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="129">
       <c r="A129" s="3" t="s">
         <v>265</v>
       </c>
@@ -5954,9 +5892,8 @@
       <c r="C129" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D129" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="130" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="130">
       <c r="A130" s="3" t="s">
         <v>267</v>
       </c>
@@ -5966,9 +5903,8 @@
       <c r="C130" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D130" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="131" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="131">
       <c r="A131" s="3" t="s">
         <v>269</v>
       </c>
@@ -5978,9 +5914,8 @@
       <c r="C131" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D131" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="132" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="132">
       <c r="A132" s="3" t="s">
         <v>166</v>
       </c>
@@ -5990,9 +5925,8 @@
       <c r="C132" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D132" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="133" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="133">
       <c r="A133" s="3" t="s">
         <v>272</v>
       </c>
@@ -6002,9 +5936,8 @@
       <c r="C133" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D133" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="134" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="134">
       <c r="A134" s="3" t="s">
         <v>272</v>
       </c>
@@ -6014,9 +5947,8 @@
       <c r="C134" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D134" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="135" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="135">
       <c r="A135" s="3" t="s">
         <v>173</v>
       </c>
@@ -6026,9 +5958,8 @@
       <c r="C135" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D135" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="136" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="136">
       <c r="A136" s="3" t="s">
         <v>175</v>
       </c>
@@ -6038,9 +5969,8 @@
       <c r="C136" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D136" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="137" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="137">
       <c r="A137" s="3" t="s">
         <v>192</v>
       </c>
@@ -6050,9 +5980,8 @@
       <c r="C137" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D137" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="138" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="138">
       <c r="A138" s="3" t="s">
         <v>194</v>
       </c>
@@ -6062,9 +5991,8 @@
       <c r="C138" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D138" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="139" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="139">
       <c r="A139" s="3" t="s">
         <v>279</v>
       </c>
@@ -6074,9 +6002,8 @@
       <c r="C139" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D139" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="140" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="140">
       <c r="A140" s="3" t="s">
         <v>281</v>
       </c>
@@ -6086,9 +6013,8 @@
       <c r="C140" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D140" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="141" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="141">
       <c r="A141" s="3" t="s">
         <v>283</v>
       </c>
@@ -6098,9 +6024,8 @@
       <c r="C141" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D141" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="142" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="142">
       <c r="A142" s="3" t="s">
         <v>285</v>
       </c>
@@ -6110,9 +6035,8 @@
       <c r="C142" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D142" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="143" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="143">
       <c r="A143" s="3" t="s">
         <v>288</v>
       </c>
@@ -6122,9 +6046,8 @@
       <c r="C143" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D143" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="144" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="144">
       <c r="A144" s="3" t="s">
         <v>290</v>
       </c>
@@ -6134,9 +6057,8 @@
       <c r="C144" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D144" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="145" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="145">
       <c r="A145" s="3" t="s">
         <v>292</v>
       </c>
@@ -6146,9 +6068,8 @@
       <c r="C145" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D145" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="146" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="146">
       <c r="A146" s="3" t="s">
         <v>294</v>
       </c>
@@ -6158,9 +6079,8 @@
       <c r="C146" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D146" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="147" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="147">
       <c r="A147" s="3" t="s">
         <v>296</v>
       </c>
@@ -6170,9 +6090,8 @@
       <c r="C147" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D147" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="148" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="148">
       <c r="A148" s="3" t="s">
         <v>298</v>
       </c>
@@ -6182,9 +6101,8 @@
       <c r="C148" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D148" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="149" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="149">
       <c r="A149" s="3" t="s">
         <v>300</v>
       </c>
@@ -6194,9 +6112,8 @@
       <c r="C149" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D149" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="150" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="150">
       <c r="A150" s="3" t="s">
         <v>302</v>
       </c>
@@ -6206,9 +6123,8 @@
       <c r="C150" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D150" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="151" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="151">
       <c r="A151" s="3" t="s">
         <v>304</v>
       </c>
@@ -6218,9 +6134,8 @@
       <c r="C151" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D151" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="152" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="152">
       <c r="A152" s="3" t="s">
         <v>183</v>
       </c>
@@ -6230,9 +6145,8 @@
       <c r="C152" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D152" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="153" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="153">
       <c r="A153" s="3" t="s">
         <v>308</v>
       </c>
@@ -6242,9 +6156,8 @@
       <c r="C153" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D153" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="154" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="154">
       <c r="A154" s="3" t="s">
         <v>310</v>
       </c>
@@ -6254,9 +6167,8 @@
       <c r="C154" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D154" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="155" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="155">
       <c r="A155" s="3" t="s">
         <v>312</v>
       </c>
@@ -6266,9 +6178,8 @@
       <c r="C155" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D155" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="156" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="156">
       <c r="A156" s="3" t="s">
         <v>314</v>
       </c>
@@ -6278,9 +6189,8 @@
       <c r="C156" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D156" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="157" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="157">
       <c r="A157" s="3" t="s">
         <v>316</v>
       </c>
@@ -6290,9 +6200,8 @@
       <c r="C157" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D157" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="158" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="158">
       <c r="A158" s="3" t="s">
         <v>318</v>
       </c>
@@ -6302,9 +6211,8 @@
       <c r="C158" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D158" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="159" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="159">
       <c r="A159" s="3" t="s">
         <v>320</v>
       </c>
@@ -6314,9 +6222,8 @@
       <c r="C159" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D159" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="160" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="160">
       <c r="A160" s="3" t="s">
         <v>322</v>
       </c>
@@ -6326,9 +6233,8 @@
       <c r="C160" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D160" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="161" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="161">
       <c r="A161" s="3" t="s">
         <v>156</v>
       </c>
@@ -6338,9 +6244,8 @@
       <c r="C161" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D161" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="162" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="162">
       <c r="A162" s="3" t="s">
         <v>325</v>
       </c>
@@ -6350,9 +6255,8 @@
       <c r="C162" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D162" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="163" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="163">
       <c r="A163" s="3" t="s">
         <v>327</v>
       </c>
@@ -6362,9 +6266,8 @@
       <c r="C163" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D163" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="164" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="164">
       <c r="A164" s="3" t="s">
         <v>329</v>
       </c>
@@ -6374,9 +6277,8 @@
       <c r="C164" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D164" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="165" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="165">
       <c r="A165" s="3" t="s">
         <v>331</v>
       </c>
@@ -6386,9 +6288,8 @@
       <c r="C165" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D165" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="166" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="166">
       <c r="A166" s="3" t="s">
         <v>333</v>
       </c>
@@ -6398,9 +6299,8 @@
       <c r="C166" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D166" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="167" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="167">
       <c r="A167" s="3" t="s">
         <v>336</v>
       </c>
@@ -6410,9 +6310,8 @@
       <c r="C167" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D167" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="168" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="168">
       <c r="A168" s="3" t="s">
         <v>338</v>
       </c>
@@ -6422,9 +6321,8 @@
       <c r="C168" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D168" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="169" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="169">
       <c r="A169" s="3" t="s">
         <v>340</v>
       </c>
@@ -6434,9 +6332,8 @@
       <c r="C169" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D169" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="170" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="170">
       <c r="A170" s="3" t="s">
         <v>342</v>
       </c>
@@ -6446,9 +6343,8 @@
       <c r="C170" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D170" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="171" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="171">
       <c r="A171" s="3" t="s">
         <v>136</v>
       </c>
@@ -6458,9 +6354,8 @@
       <c r="C171" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D171" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="172" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="172">
       <c r="A172" s="3" t="s">
         <v>345</v>
       </c>
@@ -6470,9 +6365,8 @@
       <c r="C172" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D172" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="173" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="173">
       <c r="A173" s="3" t="s">
         <v>142</v>
       </c>
@@ -6482,9 +6376,8 @@
       <c r="C173" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D173" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="174" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="174">
       <c r="A174" s="3" t="s">
         <v>348</v>
       </c>
@@ -6494,9 +6387,8 @@
       <c r="C174" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D174" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="175" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="175">
       <c r="A175" s="3" t="s">
         <v>350</v>
       </c>
@@ -6506,9 +6398,8 @@
       <c r="C175" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D175" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="176" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="176">
       <c r="A176" s="3" t="s">
         <v>352</v>
       </c>
@@ -6518,9 +6409,8 @@
       <c r="C176" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D176" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="177" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="177">
       <c r="A177" s="3" t="s">
         <v>354</v>
       </c>
@@ -6530,9 +6420,8 @@
       <c r="C177" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D177" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="178" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="178">
       <c r="A178" s="3" t="s">
         <v>356</v>
       </c>
@@ -6542,9 +6431,8 @@
       <c r="C178" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D178" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="179" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="179">
       <c r="A179" s="3" t="s">
         <v>358</v>
       </c>
@@ -6554,9 +6442,8 @@
       <c r="C179" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D179" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="180" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="180">
       <c r="A180" s="3" t="s">
         <v>360</v>
       </c>
@@ -6566,9 +6453,8 @@
       <c r="C180" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D180" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="181" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="181">
       <c r="A181" s="3" t="s">
         <v>362</v>
       </c>
@@ -6578,9 +6464,8 @@
       <c r="C181" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D181" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="182" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="182">
       <c r="A182" s="3" t="s">
         <v>364</v>
       </c>
@@ -6590,9 +6475,8 @@
       <c r="C182" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D182" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="183" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="183">
       <c r="A183" s="3" t="s">
         <v>366</v>
       </c>
@@ -6602,9 +6486,8 @@
       <c r="C183" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D183" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="184" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="184">
       <c r="A184" s="3" t="s">
         <v>368</v>
       </c>
@@ -6614,9 +6497,8 @@
       <c r="C184" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D184" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="185" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="185">
       <c r="A185" s="3" t="s">
         <v>370</v>
       </c>
@@ -6626,9 +6508,8 @@
       <c r="C185" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D185" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="186" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="186">
       <c r="A186" s="3" t="s">
         <v>373</v>
       </c>
@@ -6638,9 +6519,8 @@
       <c r="C186" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D186" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="187" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="187">
       <c r="A187" s="3" t="s">
         <v>375</v>
       </c>
@@ -6650,9 +6530,8 @@
       <c r="C187" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D187" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="188" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="188">
       <c r="A188" s="3" t="s">
         <v>377</v>
       </c>
@@ -6662,9 +6541,8 @@
       <c r="C188" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D188" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="189" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="189">
       <c r="A189" s="3" t="s">
         <v>379</v>
       </c>
@@ -6674,9 +6552,8 @@
       <c r="C189" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D189" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="190" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="190">
       <c r="A190" s="3" t="s">
         <v>381</v>
       </c>
@@ -6686,9 +6563,8 @@
       <c r="C190" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D190" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="191" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="191">
       <c r="A191" s="3" t="s">
         <v>383</v>
       </c>
@@ -6698,9 +6574,8 @@
       <c r="C191" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D191" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="192" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="192">
       <c r="A192" s="3" t="s">
         <v>385</v>
       </c>
@@ -6710,9 +6585,8 @@
       <c r="C192" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D192" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="193" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="193">
       <c r="A193" s="3" t="s">
         <v>146</v>
       </c>
@@ -6722,9 +6596,8 @@
       <c r="C193" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D193" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="194" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="194">
       <c r="A194" s="3" t="s">
         <v>388</v>
       </c>
@@ -6734,9 +6607,8 @@
       <c r="C194" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D194" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="195" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="195">
       <c r="A195" s="3" t="s">
         <v>390</v>
       </c>
@@ -6746,9 +6618,8 @@
       <c r="C195" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D195" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="196" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="196">
       <c r="A196" s="3" t="s">
         <v>392</v>
       </c>
@@ -6758,9 +6629,8 @@
       <c r="C196" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D196" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="197" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="197">
       <c r="A197" s="3" t="s">
         <v>394</v>
       </c>
@@ -6770,9 +6640,8 @@
       <c r="C197" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D197" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="198" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="198">
       <c r="A198" s="3" t="s">
         <v>272</v>
       </c>
@@ -6782,9 +6651,8 @@
       <c r="C198" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D198" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="199" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="199">
       <c r="A199" s="3" t="s">
         <v>397</v>
       </c>
@@ -6794,9 +6662,8 @@
       <c r="C199" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D199" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="200" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="200">
       <c r="A200" s="3" t="s">
         <v>399</v>
       </c>
@@ -6806,9 +6673,8 @@
       <c r="C200" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D200" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="201" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="201">
       <c r="A201" s="3" t="s">
         <v>401</v>
       </c>
@@ -6818,9 +6684,8 @@
       <c r="C201" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D201" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="202" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="202">
       <c r="A202" s="3" t="s">
         <v>403</v>
       </c>
@@ -6830,9 +6695,8 @@
       <c r="C202" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D202" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="203" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="203">
       <c r="A203" s="3" t="s">
         <v>405</v>
       </c>
@@ -6842,9 +6706,8 @@
       <c r="C203" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D203" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="204" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="204">
       <c r="A204" s="3" t="s">
         <v>407</v>
       </c>
@@ -6854,9 +6717,8 @@
       <c r="C204" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D204" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="205" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="205">
       <c r="A205" s="3" t="s">
         <v>410</v>
       </c>
@@ -6866,9 +6728,8 @@
       <c r="C205" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D205" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="206" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="206">
       <c r="A206" s="3" t="s">
         <v>412</v>
       </c>
@@ -6878,9 +6739,8 @@
       <c r="C206" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D206" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="207" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="207">
       <c r="A207" s="3" t="s">
         <v>414</v>
       </c>
@@ -6890,9 +6750,8 @@
       <c r="C207" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D207" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="208" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="208">
       <c r="A208" s="3" t="s">
         <v>416</v>
       </c>
@@ -6902,9 +6761,8 @@
       <c r="C208" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D208" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="209" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="209">
       <c r="A209" s="3" t="s">
         <v>418</v>
       </c>
@@ -6914,9 +6772,8 @@
       <c r="C209" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D209" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="210" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="210">
       <c r="A210" s="3" t="s">
         <v>420</v>
       </c>
@@ -6926,9 +6783,8 @@
       <c r="C210" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D210" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="211" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="211">
       <c r="A211" s="3" t="s">
         <v>422</v>
       </c>
@@ -6938,9 +6794,8 @@
       <c r="C211" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D211" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="212" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="212">
       <c r="A212" s="3" t="s">
         <v>424</v>
       </c>
@@ -6950,9 +6805,8 @@
       <c r="C212" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D212" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="213" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="213">
       <c r="A213" s="3" t="s">
         <v>426</v>
       </c>
@@ -6962,9 +6816,8 @@
       <c r="C213" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D213" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="214" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="214">
       <c r="A214" s="3" t="s">
         <v>428</v>
       </c>
@@ -6974,9 +6827,8 @@
       <c r="C214" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D214" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="215" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="215">
       <c r="A215" s="3" t="s">
         <v>430</v>
       </c>
@@ -6986,9 +6838,8 @@
       <c r="C215" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D215" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="216" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="216">
       <c r="A216" s="3" t="s">
         <v>432</v>
       </c>
@@ -6998,9 +6849,8 @@
       <c r="C216" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D216" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="217" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="217">
       <c r="A217" s="3" t="s">
         <v>434</v>
       </c>
@@ -7010,9 +6860,8 @@
       <c r="C217" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D217" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="218" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="218">
       <c r="A218" s="3" t="s">
         <v>164</v>
       </c>
@@ -7022,9 +6871,8 @@
       <c r="C218" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D218" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="219" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="219">
       <c r="A219" s="3" t="s">
         <v>437</v>
       </c>
@@ -7034,9 +6882,8 @@
       <c r="C219" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D219" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="220" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="220">
       <c r="A220" s="3" t="s">
         <v>439</v>
       </c>
@@ -7046,9 +6893,8 @@
       <c r="C220" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D220" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="221" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="221">
       <c r="A221" s="3" t="s">
         <v>175</v>
       </c>
@@ -7058,9 +6904,8 @@
       <c r="C221" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D221" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="222" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="222">
       <c r="A222" s="3" t="s">
         <v>442</v>
       </c>
@@ -7070,9 +6915,8 @@
       <c r="C222" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D222" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="223" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="223">
       <c r="A223" s="3" t="s">
         <v>444</v>
       </c>
@@ -7082,9 +6926,8 @@
       <c r="C223" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D223" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="224" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="224">
       <c r="A224" s="3" t="s">
         <v>447</v>
       </c>
@@ -7094,9 +6937,8 @@
       <c r="C224" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D224" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="225" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="225">
       <c r="A225" s="3" t="s">
         <v>449</v>
       </c>
@@ -7106,9 +6948,8 @@
       <c r="C225" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D225" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="226" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="226">
       <c r="A226" s="3" t="s">
         <v>451</v>
       </c>
@@ -7118,9 +6959,8 @@
       <c r="C226" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D226" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="227" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="227">
       <c r="A227" s="3" t="s">
         <v>453</v>
       </c>
@@ -7130,9 +6970,8 @@
       <c r="C227" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D227" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="228" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="228">
       <c r="A228" s="3" t="s">
         <v>455</v>
       </c>
@@ -7142,9 +6981,8 @@
       <c r="C228" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D228" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="229" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="229">
       <c r="A229" s="3" t="s">
         <v>457</v>
       </c>
@@ -7154,9 +6992,8 @@
       <c r="C229" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D229" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="230" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="230">
       <c r="A230" s="3" t="s">
         <v>459</v>
       </c>
@@ -7166,9 +7003,8 @@
       <c r="C230" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D230" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="231" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="231">
       <c r="A231" s="3" t="s">
         <v>461</v>
       </c>
@@ -7178,9 +7014,8 @@
       <c r="C231" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D231" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="232" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="232">
       <c r="A232" s="3" t="s">
         <v>463</v>
       </c>
@@ -7190,9 +7025,8 @@
       <c r="C232" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D232" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="233" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="233">
       <c r="A233" s="3" t="s">
         <v>465</v>
       </c>
@@ -7202,9 +7036,8 @@
       <c r="C233" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D233" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="234" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="234">
       <c r="A234" s="3" t="s">
         <v>150</v>
       </c>
@@ -7214,9 +7047,8 @@
       <c r="C234" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D234" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="235" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="235">
       <c r="A235" s="3" t="s">
         <v>468</v>
       </c>
@@ -7226,9 +7058,8 @@
       <c r="C235" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D235" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="236" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="236">
       <c r="A236" s="3" t="s">
         <v>154</v>
       </c>
@@ -7238,9 +7069,8 @@
       <c r="C236" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D236" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="237" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="237">
       <c r="A237" s="3" t="s">
         <v>471</v>
       </c>
@@ -7250,9 +7080,8 @@
       <c r="C237" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D237" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="238" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="238">
       <c r="A238" s="3" t="s">
         <v>473</v>
       </c>
@@ -7262,9 +7091,8 @@
       <c r="C238" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D238" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="239" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="239">
       <c r="A239" s="3" t="s">
         <v>475</v>
       </c>
@@ -7274,9 +7102,8 @@
       <c r="C239" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D239" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="240" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="240">
       <c r="A240" s="3" t="s">
         <v>477</v>
       </c>
@@ -7286,9 +7113,8 @@
       <c r="C240" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D240" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="241" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="241">
       <c r="A241" s="3" t="s">
         <v>479</v>
       </c>
@@ -7298,9 +7124,8 @@
       <c r="C241" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="D241" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="242" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="242">
       <c r="A242" s="3" t="s">
         <v>481</v>
       </c>
@@ -7310,9 +7135,8 @@
       <c r="C242" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D242" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="243" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="243">
       <c r="A243" s="3" t="s">
         <v>483</v>
       </c>
@@ -7322,9 +7146,8 @@
       <c r="C243" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D243" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="244" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="244">
       <c r="A244" s="3" t="s">
         <v>485</v>
       </c>
@@ -7334,9 +7157,8 @@
       <c r="C244" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D244" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="245" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="245">
       <c r="A245" s="3" t="s">
         <v>487</v>
       </c>
@@ -7346,9 +7168,8 @@
       <c r="C245" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D245" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="246" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="246">
       <c r="A246" s="3" t="s">
         <v>489</v>
       </c>
@@ -7358,9 +7179,8 @@
       <c r="C246" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D246" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="247" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="247">
       <c r="A247" s="3" t="s">
         <v>491</v>
       </c>
@@ -7370,9 +7190,8 @@
       <c r="C247" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="D247" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="248" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="248">
       <c r="A248" s="3" t="s">
         <v>267</v>
       </c>
@@ -7382,9 +7201,8 @@
       <c r="C248" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D248" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="249" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="249">
       <c r="A249" s="3" t="s">
         <v>494</v>
       </c>
@@ -7394,9 +7212,8 @@
       <c r="C249" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D249" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="250" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="250">
       <c r="A250" s="3" t="s">
         <v>496</v>
       </c>
@@ -7406,9 +7223,8 @@
       <c r="C250" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D250" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="251" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="251">
       <c r="A251" s="3" t="s">
         <v>498</v>
       </c>
@@ -7418,9 +7234,8 @@
       <c r="C251" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D251" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="252" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="252">
       <c r="A252" s="3" t="s">
         <v>500</v>
       </c>
@@ -7430,9 +7245,8 @@
       <c r="C252" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="D252" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="253" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="253">
       <c r="A253" s="3" t="s">
         <v>503</v>
       </c>
@@ -7442,9 +7256,8 @@
       <c r="C253" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D253" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="254" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="254">
       <c r="A254" s="3" t="s">
         <v>505</v>
       </c>
@@ -7454,9 +7267,8 @@
       <c r="C254" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D254" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="255" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="255">
       <c r="A255" s="3" t="s">
         <v>507</v>
       </c>
@@ -7466,9 +7278,8 @@
       <c r="C255" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="D255" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="256" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="256">
       <c r="A256" s="3" t="s">
         <v>148</v>
       </c>
@@ -7478,9 +7289,8 @@
       <c r="C256" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D256" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="257" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="257">
       <c r="A257" s="3" t="s">
         <v>510</v>
       </c>
@@ -7490,9 +7300,8 @@
       <c r="C257" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D257" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="258" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="258">
       <c r="A258" s="3" t="s">
         <v>512</v>
       </c>
@@ -7502,9 +7311,8 @@
       <c r="C258" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D258" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="259" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="259">
       <c r="A259" s="3" t="s">
         <v>514</v>
       </c>
@@ -7514,9 +7322,8 @@
       <c r="C259" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D259" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="260" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="260">
       <c r="A260" s="3" t="s">
         <v>516</v>
       </c>
@@ -7526,9 +7333,8 @@
       <c r="C260" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D260" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="261" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="261">
       <c r="A261" s="3" t="s">
         <v>518</v>
       </c>
@@ -7538,9 +7344,8 @@
       <c r="C261" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D261" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="262" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="262">
       <c r="A262" s="3" t="s">
         <v>521</v>
       </c>
@@ -7550,9 +7355,8 @@
       <c r="C262" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D262" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="263" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="263">
       <c r="A263" s="3" t="s">
         <v>523</v>
       </c>
@@ -7562,9 +7366,8 @@
       <c r="C263" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="D263" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="264" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="264">
       <c r="A264" s="3" t="s">
         <v>177</v>
       </c>
@@ -7574,9 +7377,8 @@
       <c r="C264" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="D264" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="265" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="265">
       <c r="A265" s="3" t="s">
         <v>144</v>
       </c>
@@ -7586,9 +7388,8 @@
       <c r="C265" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D265" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="266" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="266">
       <c r="A266" s="3" t="s">
         <v>463</v>
       </c>
@@ -7598,9 +7399,8 @@
       <c r="C266" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D266" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="267" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="267">
       <c r="A267" s="3" t="s">
         <v>148</v>
       </c>
@@ -7610,9 +7410,8 @@
       <c r="C267" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="D267" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="268" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="268">
       <c r="A268" s="3" t="s">
         <v>156</v>
       </c>
@@ -7622,9 +7421,8 @@
       <c r="C268" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D268" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="269" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="269">
       <c r="A269" s="3" t="s">
         <v>530</v>
       </c>
@@ -7634,9 +7432,8 @@
       <c r="C269" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D269" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="270" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="270">
       <c r="A270" s="3" t="s">
         <v>532</v>
       </c>
@@ -7646,9 +7443,8 @@
       <c r="C270" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D270" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="271" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="271">
       <c r="A271" s="3" t="s">
         <v>534</v>
       </c>
@@ -7658,9 +7454,8 @@
       <c r="C271" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D271" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="272" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="272">
       <c r="A272" s="3" t="s">
         <v>537</v>
       </c>
@@ -7670,9 +7465,8 @@
       <c r="C272" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D272" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="273" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="273">
       <c r="A273" s="3" t="s">
         <v>539</v>
       </c>
@@ -7682,9 +7476,8 @@
       <c r="C273" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D273" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="274" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="274">
       <c r="A274" s="3" t="s">
         <v>541</v>
       </c>
@@ -7694,9 +7487,8 @@
       <c r="C274" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D274" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="275" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="275">
       <c r="A275" s="3" t="s">
         <v>543</v>
       </c>
@@ -7706,9 +7498,8 @@
       <c r="C275" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="D275" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="276" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="276">
       <c r="A276" s="3" t="s">
         <v>545</v>
       </c>
@@ -7718,9 +7509,8 @@
       <c r="C276" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D276" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="277" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="277">
       <c r="A277" s="3" t="s">
         <v>547</v>
       </c>
@@ -7730,9 +7520,8 @@
       <c r="C277" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D277" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="278" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="278">
       <c r="A278" s="3" t="s">
         <v>549</v>
       </c>
@@ -7742,9 +7531,8 @@
       <c r="C278" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="D278" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="279" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="279">
       <c r="A279" s="3" t="s">
         <v>551</v>
       </c>
@@ -7754,9 +7542,8 @@
       <c r="C279" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="D279" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="280" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="280">
       <c r="A280" s="3" t="s">
         <v>553</v>
       </c>
@@ -7766,9 +7553,8 @@
       <c r="C280" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D280" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="281" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="281">
       <c r="A281" s="3" t="s">
         <v>555</v>
       </c>
@@ -7778,9 +7564,8 @@
       <c r="C281" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D281" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="282" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="282">
       <c r="A282" s="3" t="s">
         <v>557</v>
       </c>
@@ -7790,9 +7575,8 @@
       <c r="C282" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D282" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="283" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="283">
       <c r="A283" s="3" t="s">
         <v>559</v>
       </c>
@@ -7802,9 +7586,8 @@
       <c r="C283" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D283" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="284" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="284">
       <c r="A284" s="3" t="s">
         <v>177</v>
       </c>
@@ -7814,9 +7597,8 @@
       <c r="C284" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D284" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="285" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="285">
       <c r="A285" s="3" t="s">
         <v>563</v>
       </c>
@@ -7826,9 +7608,8 @@
       <c r="C285" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D285" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="286" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="286">
       <c r="A286" s="3" t="s">
         <v>138</v>
       </c>
@@ -7838,9 +7619,8 @@
       <c r="C286" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D286" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="287" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="287">
       <c r="A287" s="3" t="s">
         <v>463</v>
       </c>
@@ -7850,9 +7630,8 @@
       <c r="C287" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="D287" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="288" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="288">
       <c r="A288" s="3" t="s">
         <v>146</v>
       </c>
@@ -7862,9 +7641,8 @@
       <c r="C288" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D288" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="289" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="289">
       <c r="A289" s="3" t="s">
         <v>148</v>
       </c>
@@ -7874,9 +7652,8 @@
       <c r="C289" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D289" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="290" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="290">
       <c r="A290" s="3" t="s">
         <v>154</v>
       </c>
@@ -7886,9 +7663,8 @@
       <c r="C290" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="D290" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="291" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="291">
       <c r="A291" s="3" t="s">
         <v>570</v>
       </c>
@@ -7898,9 +7674,8 @@
       <c r="C291" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D291" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="292" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="292">
       <c r="A292" s="3" t="s">
         <v>572</v>
       </c>
@@ -7910,9 +7685,8 @@
       <c r="C292" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="D292" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="293" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="293">
       <c r="A293" s="3" t="s">
         <v>574</v>
       </c>
@@ -7922,9 +7696,8 @@
       <c r="C293" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="D293" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="294" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="294">
       <c r="A294" s="3" t="s">
         <v>577</v>
       </c>
@@ -7934,9 +7707,8 @@
       <c r="C294" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="D294" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="295" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="295">
       <c r="A295" s="3" t="s">
         <v>579</v>
       </c>
@@ -7946,9 +7718,8 @@
       <c r="C295" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D295" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="296" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="296">
       <c r="A296" s="3" t="s">
         <v>581</v>
       </c>
@@ -7958,9 +7729,8 @@
       <c r="C296" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="D296" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="297" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="297">
       <c r="A297" s="3" t="s">
         <v>583</v>
       </c>
@@ -7970,9 +7740,8 @@
       <c r="C297" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D297" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="298" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="298">
       <c r="A298" s="3" t="s">
         <v>585</v>
       </c>
@@ -7982,9 +7751,8 @@
       <c r="C298" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D298" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="299" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="299">
       <c r="A299" s="3" t="s">
         <v>587</v>
       </c>
@@ -7994,9 +7762,8 @@
       <c r="C299" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="D299" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="300" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="300">
       <c r="A300" s="3" t="s">
         <v>589</v>
       </c>
@@ -8006,9 +7773,8 @@
       <c r="C300" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D300" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="301" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="301">
       <c r="A301" s="3" t="s">
         <v>177</v>
       </c>
@@ -8018,9 +7784,8 @@
       <c r="C301" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="D301" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="302" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="302">
       <c r="A302" s="3" t="s">
         <v>136</v>
       </c>
@@ -8030,9 +7795,8 @@
       <c r="C302" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D302" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="303" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="303">
       <c r="A303" s="3" t="s">
         <v>138</v>
       </c>
@@ -8042,9 +7806,8 @@
       <c r="C303" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D303" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="304" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="304">
       <c r="A304" s="3" t="s">
         <v>142</v>
       </c>
@@ -8054,9 +7817,8 @@
       <c r="C304" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="D304" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="305" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="305">
       <c r="A305" s="3" t="s">
         <v>595</v>
       </c>
@@ -8066,9 +7828,8 @@
       <c r="C305" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="D305" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="306" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="306">
       <c r="A306" s="3" t="s">
         <v>144</v>
       </c>
@@ -8078,9 +7839,8 @@
       <c r="C306" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D306" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="307" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="307">
       <c r="A307" s="3" t="s">
         <v>598</v>
       </c>
@@ -8090,9 +7850,8 @@
       <c r="C307" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D307" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="308" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="308">
       <c r="A308" s="3" t="s">
         <v>600</v>
       </c>
@@ -8102,9 +7861,8 @@
       <c r="C308" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D308" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="309" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="309">
       <c r="A309" s="3" t="s">
         <v>418</v>
       </c>
@@ -8114,9 +7872,8 @@
       <c r="C309" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="D309" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="310" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="310">
       <c r="A310" s="3" t="s">
         <v>603</v>
       </c>
@@ -8126,9 +7883,8 @@
       <c r="C310" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D310" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="311" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="311">
       <c r="A311" s="3" t="s">
         <v>605</v>
       </c>
@@ -8138,9 +7894,8 @@
       <c r="C311" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D311" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="312" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="312">
       <c r="A312" s="3" t="s">
         <v>607</v>
       </c>
@@ -8150,9 +7905,8 @@
       <c r="C312" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D312" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="313" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="313">
       <c r="A313" s="3" t="s">
         <v>609</v>
       </c>
@@ -8162,9 +7916,8 @@
       <c r="C313" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="D313" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="314" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="314">
       <c r="A314" s="3" t="s">
         <v>611</v>
       </c>
@@ -8174,9 +7927,8 @@
       <c r="C314" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D314" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="315" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="315">
       <c r="A315" s="3" t="s">
         <v>146</v>
       </c>
@@ -8186,9 +7938,8 @@
       <c r="C315" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D315" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="316" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="316">
       <c r="A316" s="3" t="s">
         <v>388</v>
       </c>
@@ -8198,9 +7949,8 @@
       <c r="C316" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="D316" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="317" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="317">
       <c r="A317" s="3" t="s">
         <v>348</v>
       </c>
@@ -8210,9 +7960,8 @@
       <c r="C317" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="D317" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="318" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="318">
       <c r="A318" s="3" t="s">
         <v>298</v>
       </c>
@@ -8222,9 +7971,8 @@
       <c r="C318" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D318" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="319" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="319">
       <c r="A319" s="3" t="s">
         <v>617</v>
       </c>
@@ -8234,9 +7982,8 @@
       <c r="C319" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D319" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="320" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="320">
       <c r="A320" s="3" t="s">
         <v>420</v>
       </c>
@@ -8246,9 +7993,8 @@
       <c r="C320" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D320" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="321" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="321">
       <c r="A321" s="3" t="s">
         <v>620</v>
       </c>
@@ -8258,9 +8004,8 @@
       <c r="C321" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D321" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="322" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="322">
       <c r="A322" s="3" t="s">
         <v>622</v>
       </c>
@@ -8270,9 +8015,8 @@
       <c r="C322" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D322" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="323" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="323">
       <c r="A323" s="3" t="s">
         <v>624</v>
       </c>
@@ -8282,9 +8026,8 @@
       <c r="C323" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D323" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="324" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="324">
       <c r="A324" s="3" t="s">
         <v>626</v>
       </c>
@@ -8294,9 +8037,8 @@
       <c r="C324" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D324" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="325" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="325">
       <c r="A325" s="3" t="s">
         <v>628</v>
       </c>
@@ -8306,9 +8048,8 @@
       <c r="C325" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D325" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="326" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="326">
       <c r="A326" s="3" t="s">
         <v>630</v>
       </c>
@@ -8318,9 +8059,8 @@
       <c r="C326" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D326" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="327" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="327">
       <c r="A327" s="3" t="s">
         <v>422</v>
       </c>
@@ -8330,9 +8070,8 @@
       <c r="C327" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D327" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="328" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="328">
       <c r="A328" s="3" t="s">
         <v>633</v>
       </c>
@@ -8342,9 +8081,8 @@
       <c r="C328" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D328" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="329" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="329">
       <c r="A329" s="3" t="s">
         <v>635</v>
       </c>
@@ -8354,9 +8092,8 @@
       <c r="C329" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="D329" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="330" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="330">
       <c r="A330" s="3" t="s">
         <v>152</v>
       </c>
@@ -8366,9 +8103,8 @@
       <c r="C330" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D330" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="331" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="331">
       <c r="A331" s="3" t="s">
         <v>156</v>
       </c>
@@ -8378,9 +8114,8 @@
       <c r="C331" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D331" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="332" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="332">
       <c r="A332" s="3" t="s">
         <v>570</v>
       </c>
@@ -8390,9 +8125,8 @@
       <c r="C332" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D332" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="333" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="333">
       <c r="A333" s="3" t="s">
         <v>640</v>
       </c>
@@ -8402,9 +8136,8 @@
       <c r="C333" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D333" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="334" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="334">
       <c r="A334" s="3" t="s">
         <v>642</v>
       </c>
@@ -8414,9 +8147,8 @@
       <c r="C334" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D334" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="335" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="335">
       <c r="A335" s="3" t="s">
         <v>644</v>
       </c>
@@ -8426,9 +8158,8 @@
       <c r="C335" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D335" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="336" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="336">
       <c r="A336" s="3" t="s">
         <v>255</v>
       </c>
@@ -8438,9 +8169,8 @@
       <c r="C336" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D336" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="337" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="337">
       <c r="A337" s="3" t="s">
         <v>463</v>
       </c>
@@ -8450,9 +8180,8 @@
       <c r="C337" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D337" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="338" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="338">
       <c r="A338" s="3" t="s">
         <v>148</v>
       </c>
@@ -8462,9 +8191,8 @@
       <c r="C338" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D338" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="339" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="339">
       <c r="A339" s="3" t="s">
         <v>150</v>
       </c>
@@ -8474,9 +8202,8 @@
       <c r="C339" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D339" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="340" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="340">
       <c r="A340" s="3" t="s">
         <v>651</v>
       </c>
@@ -8486,9 +8213,8 @@
       <c r="C340" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="D340" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="341" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="341">
       <c r="A341" s="3" t="s">
         <v>654</v>
       </c>
@@ -8498,9 +8224,8 @@
       <c r="C341" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D341" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="342" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="342">
       <c r="A342" s="3" t="s">
         <v>656</v>
       </c>
@@ -8510,9 +8235,8 @@
       <c r="C342" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="D342" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="343" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="343">
       <c r="A343" s="3" t="s">
         <v>658</v>
       </c>
@@ -8522,9 +8246,8 @@
       <c r="C343" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D343" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="344" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="344">
       <c r="A344" s="3" t="s">
         <v>177</v>
       </c>
@@ -8534,9 +8257,8 @@
       <c r="C344" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D344" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="345" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="345">
       <c r="A345" s="3" t="s">
         <v>463</v>
       </c>
@@ -8546,9 +8268,8 @@
       <c r="C345" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="D345" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="346" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="346">
       <c r="A346" s="3" t="s">
         <v>154</v>
       </c>
@@ -8558,9 +8279,8 @@
       <c r="C346" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="D346" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="347" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="347">
       <c r="A347" s="3" t="s">
         <v>156</v>
       </c>
@@ -8570,9 +8290,8 @@
       <c r="C347" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D347" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="348" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="348">
       <c r="A348" s="3" t="s">
         <v>664</v>
       </c>
@@ -8582,9 +8301,8 @@
       <c r="C348" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D348" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="349" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="349">
       <c r="A349" s="3" t="s">
         <v>667</v>
       </c>
@@ -8594,9 +8312,8 @@
       <c r="C349" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="D349" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="350" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="350">
       <c r="A350" s="3" t="s">
         <v>669</v>
       </c>
@@ -8606,9 +8323,8 @@
       <c r="C350" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D350" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="351" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="351">
       <c r="A351" s="3" t="s">
         <v>671</v>
       </c>
@@ -8618,9 +8334,8 @@
       <c r="C351" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D351" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="352" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="352">
       <c r="A352" s="3" t="s">
         <v>673</v>
       </c>
@@ -8630,9 +8345,8 @@
       <c r="C352" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D352" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="353" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="353">
       <c r="A353" s="3" t="s">
         <v>675</v>
       </c>
@@ -8642,9 +8356,8 @@
       <c r="C353" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D353" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="354" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="354">
       <c r="A354" s="3" t="s">
         <v>677</v>
       </c>
@@ -8654,9 +8367,8 @@
       <c r="C354" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D354" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="355" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="355">
       <c r="A355" s="3" t="s">
         <v>680</v>
       </c>
@@ -8666,9 +8378,8 @@
       <c r="C355" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="D355" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="356" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="356">
       <c r="A356" s="3" t="s">
         <v>682</v>
       </c>
@@ -8678,9 +8389,8 @@
       <c r="C356" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="D356" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="357" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="357">
       <c r="A357" s="3" t="s">
         <v>684</v>
       </c>
@@ -8690,9 +8400,8 @@
       <c r="C357" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D357" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="358" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="358">
       <c r="A358" s="3" t="s">
         <v>686</v>
       </c>
@@ -8702,9 +8411,8 @@
       <c r="C358" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D358" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="359" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="359">
       <c r="A359" s="3" t="s">
         <v>688</v>
       </c>
@@ -8714,9 +8422,8 @@
       <c r="C359" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="D359" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="360" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="360">
       <c r="A360" s="3" t="s">
         <v>690</v>
       </c>
@@ -8726,9 +8433,8 @@
       <c r="C360" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D360" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="361" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="361">
       <c r="A361" s="3" t="s">
         <v>692</v>
       </c>
@@ -8738,9 +8444,8 @@
       <c r="C361" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="D361" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="362" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="362">
       <c r="A362" s="3" t="s">
         <v>694</v>
       </c>
@@ -8750,9 +8455,8 @@
       <c r="C362" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D362" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="363" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="363">
       <c r="A363" s="3" t="s">
         <v>694</v>
       </c>
@@ -8762,9 +8466,8 @@
       <c r="C363" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D363" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="364" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="364">
       <c r="A364" s="3" t="s">
         <v>694</v>
       </c>
@@ -8774,9 +8477,8 @@
       <c r="C364" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D364" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="365" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="365">
       <c r="A365" s="3" t="s">
         <v>696</v>
       </c>
@@ -8786,9 +8488,8 @@
       <c r="C365" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D365" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="366" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="366">
       <c r="A366" s="3" t="s">
         <v>698</v>
       </c>
@@ -8798,9 +8499,8 @@
       <c r="C366" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D366" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="367" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="367">
       <c r="A367" s="3" t="s">
         <v>700</v>
       </c>
@@ -8810,9 +8510,8 @@
       <c r="C367" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D367" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="368" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="368">
       <c r="A368" s="3" t="s">
         <v>702</v>
       </c>
@@ -8822,9 +8521,8 @@
       <c r="C368" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="D368" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="369" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="369">
       <c r="A369" s="3" t="s">
         <v>704</v>
       </c>
@@ -8834,9 +8532,8 @@
       <c r="C369" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="D369" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="370" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="370">
       <c r="A370" s="3" t="s">
         <v>706</v>
       </c>
@@ -8846,9 +8543,8 @@
       <c r="C370" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D370" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="371" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="371">
       <c r="A371" s="3" t="s">
         <v>708</v>
       </c>
@@ -8858,9 +8554,8 @@
       <c r="C371" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D371" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="372" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="372">
       <c r="A372" s="3" t="s">
         <v>710</v>
       </c>
@@ -8870,9 +8565,8 @@
       <c r="C372" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="D372" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="373" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="373">
       <c r="A373" s="3" t="s">
         <v>712</v>
       </c>
@@ -8882,9 +8576,8 @@
       <c r="C373" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D373" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="374" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="374">
       <c r="A374" s="3" t="s">
         <v>714</v>
       </c>
@@ -8894,9 +8587,8 @@
       <c r="C374" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D374" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="375" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="375">
       <c r="A375" s="3" t="s">
         <v>716</v>
       </c>
@@ -8906,9 +8598,8 @@
       <c r="C375" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D375" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="376" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="376">
       <c r="A376" s="3" t="s">
         <v>718</v>
       </c>
@@ -8918,9 +8609,8 @@
       <c r="C376" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="D376" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="377" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="377">
       <c r="A377" s="3" t="s">
         <v>721</v>
       </c>
@@ -8930,9 +8620,8 @@
       <c r="C377" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="D377" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="378" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="378">
       <c r="A378" s="3" t="s">
         <v>723</v>
       </c>
@@ -8942,9 +8631,8 @@
       <c r="C378" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="D378" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="379" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="379">
       <c r="A379" s="3" t="s">
         <v>725</v>
       </c>
@@ -8954,9 +8642,8 @@
       <c r="C379" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="D379" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="380" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="380">
       <c r="A380" s="3" t="s">
         <v>727</v>
       </c>
@@ -8966,9 +8653,8 @@
       <c r="C380" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D380" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="381" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="381">
       <c r="A381" s="3" t="s">
         <v>729</v>
       </c>
@@ -8978,9 +8664,8 @@
       <c r="C381" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D381" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="382" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="382">
       <c r="A382" s="3" t="s">
         <v>731</v>
       </c>
@@ -8990,9 +8675,8 @@
       <c r="C382" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D382" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="383" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="383">
       <c r="A383" s="3" t="s">
         <v>733</v>
       </c>
@@ -9002,9 +8686,8 @@
       <c r="C383" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D383" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="384" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="384">
       <c r="A384" s="3" t="s">
         <v>735</v>
       </c>
@@ -9014,9 +8697,8 @@
       <c r="C384" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D384" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="385" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="385">
       <c r="A385" s="3" t="s">
         <v>738</v>
       </c>
@@ -9026,9 +8708,8 @@
       <c r="C385" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="D385" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="386" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="386">
       <c r="A386" s="3" t="s">
         <v>740</v>
       </c>
@@ -9038,9 +8719,8 @@
       <c r="C386" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="D386" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="387" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="387">
       <c r="A387" s="3" t="s">
         <v>742</v>
       </c>
@@ -9050,9 +8730,8 @@
       <c r="C387" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D387" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="388" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="388">
       <c r="A388" s="3" t="s">
         <v>745</v>
       </c>
@@ -9062,9 +8741,8 @@
       <c r="C388" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="D388" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="389" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="389">
       <c r="A389" s="3" t="s">
         <v>748</v>
       </c>
@@ -9074,9 +8752,8 @@
       <c r="C389" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D389" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="390" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="390">
       <c r="A390" s="3" t="s">
         <v>751</v>
       </c>
@@ -9086,9 +8763,8 @@
       <c r="C390" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="D390" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="391" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="391">
       <c r="A391" s="3" t="s">
         <v>753</v>
       </c>
@@ -9098,9 +8774,8 @@
       <c r="C391" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="D391" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="392" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="392">
       <c r="A392" s="3" t="s">
         <v>755</v>
       </c>
@@ -9110,9 +8785,8 @@
       <c r="C392" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="D392" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="393" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="393">
       <c r="A393" s="3" t="s">
         <v>757</v>
       </c>
@@ -9122,9 +8796,8 @@
       <c r="C393" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="D393" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="394" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="394">
       <c r="A394" s="3" t="s">
         <v>759</v>
       </c>
@@ -9134,9 +8807,8 @@
       <c r="C394" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D394" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="395" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="395">
       <c r="A395" s="3" t="s">
         <v>761</v>
       </c>
@@ -9146,9 +8818,8 @@
       <c r="C395" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="D395" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="396" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="396">
       <c r="A396" s="3" t="s">
         <v>763</v>
       </c>
@@ -9158,9 +8829,8 @@
       <c r="C396" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="D396" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="397" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="397">
       <c r="A397" s="3" t="s">
         <v>766</v>
       </c>
@@ -9170,9 +8840,8 @@
       <c r="C397" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="D397" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="398" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="398">
       <c r="A398" s="3" t="s">
         <v>768</v>
       </c>
@@ -9182,9 +8851,8 @@
       <c r="C398" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="D398" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="399" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="399">
       <c r="A399" s="3" t="s">
         <v>770</v>
       </c>
@@ -9194,9 +8862,8 @@
       <c r="C399" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D399" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="400" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="400">
       <c r="A400" s="3" t="s">
         <v>772</v>
       </c>
@@ -9206,9 +8873,8 @@
       <c r="C400" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="D400" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="401" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="401">
       <c r="A401" s="3" t="s">
         <v>775</v>
       </c>
@@ -9218,9 +8884,8 @@
       <c r="C401" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="D401" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="402" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="402">
       <c r="A402" s="3" t="s">
         <v>777</v>
       </c>
@@ -9230,9 +8895,8 @@
       <c r="C402" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="D402" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="403" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="403">
       <c r="A403" s="3" t="s">
         <v>780</v>
       </c>
@@ -9242,9 +8906,8 @@
       <c r="C403" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="D403" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="404" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="404">
       <c r="A404" s="3" t="s">
         <v>782</v>
       </c>
@@ -9254,9 +8917,8 @@
       <c r="C404" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="D404" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="405" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="405">
       <c r="A405" s="3" t="s">
         <v>784</v>
       </c>
@@ -9266,9 +8928,8 @@
       <c r="C405" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="D405" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="406" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="406">
       <c r="A406" s="3" t="s">
         <v>786</v>
       </c>
@@ -9278,9 +8939,8 @@
       <c r="C406" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="D406" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="407" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="407">
       <c r="A407" s="3" t="s">
         <v>788</v>
       </c>
@@ -9290,9 +8950,8 @@
       <c r="C407" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="D407" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="408" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="408">
       <c r="A408" s="3" t="s">
         <v>790</v>
       </c>
@@ -9302,9 +8961,8 @@
       <c r="C408" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="D408" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="409" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="409">
       <c r="A409" s="3" t="s">
         <v>792</v>
       </c>
@@ -9314,9 +8972,8 @@
       <c r="C409" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D409" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="410" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="410">
       <c r="A410" s="3" t="s">
         <v>794</v>
       </c>
@@ -9326,9 +8983,8 @@
       <c r="C410" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="D410" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="411" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="411">
       <c r="A411" s="3" t="s">
         <v>796</v>
       </c>
@@ -9338,9 +8994,8 @@
       <c r="C411" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="D411" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="412" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="412">
       <c r="A412" s="3" t="s">
         <v>798</v>
       </c>
@@ -9350,9 +9005,8 @@
       <c r="C412" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="D412" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="413" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="413">
       <c r="A413" s="3" t="s">
         <v>801</v>
       </c>
@@ -9362,9 +9016,8 @@
       <c r="C413" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="D413" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="414" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="414">
       <c r="A414" s="3" t="s">
         <v>803</v>
       </c>
@@ -9374,9 +9027,8 @@
       <c r="C414" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="D414" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="415" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="415">
       <c r="A415" s="3" t="s">
         <v>806</v>
       </c>
@@ -9386,9 +9038,8 @@
       <c r="C415" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="D415" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="416" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="416">
       <c r="A416" s="3" t="s">
         <v>808</v>
       </c>
@@ -9398,9 +9049,8 @@
       <c r="C416" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="D416" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="417" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="417">
       <c r="A417" s="3" t="s">
         <v>810</v>
       </c>
@@ -9410,9 +9060,8 @@
       <c r="C417" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="D417" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="418" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="418">
       <c r="A418" s="3" t="s">
         <v>812</v>
       </c>
@@ -9422,9 +9071,8 @@
       <c r="C418" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="D418" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="419" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="419">
       <c r="A419" s="3" t="s">
         <v>814</v>
       </c>
@@ -9434,9 +9082,8 @@
       <c r="C419" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="D419" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="420" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="420">
       <c r="A420" s="3" t="s">
         <v>816</v>
       </c>
@@ -9446,9 +9093,8 @@
       <c r="C420" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="D420" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="421" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="421">
       <c r="A421" s="3" t="s">
         <v>818</v>
       </c>
@@ -9458,9 +9104,8 @@
       <c r="C421" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="D421" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="422" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="422">
       <c r="A422" s="3" t="s">
         <v>820</v>
       </c>
@@ -9470,9 +9115,8 @@
       <c r="C422" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="D422" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="423" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="423">
       <c r="A423" s="3" t="s">
         <v>823</v>
       </c>
@@ -9482,9 +9126,8 @@
       <c r="C423" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="D423" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="424" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="424">
       <c r="A424" s="3" t="s">
         <v>825</v>
       </c>
@@ -9494,9 +9137,8 @@
       <c r="C424" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="D424" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="425" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="425">
       <c r="A425" s="3" t="s">
         <v>827</v>
       </c>
@@ -9506,9 +9148,8 @@
       <c r="C425" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="D425" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="426" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="426">
       <c r="A426" s="3" t="s">
         <v>829</v>
       </c>
@@ -9518,9 +9159,8 @@
       <c r="C426" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D426" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="427" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="427">
       <c r="A427" s="3" t="s">
         <v>831</v>
       </c>
@@ -9530,9 +9170,8 @@
       <c r="C427" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="D427" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="428" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="428">
       <c r="A428" s="3" t="s">
         <v>833</v>
       </c>
@@ -9542,9 +9181,8 @@
       <c r="C428" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="D428" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="429" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="429">
       <c r="A429" s="3" t="s">
         <v>835</v>
       </c>
@@ -9554,9 +9192,8 @@
       <c r="C429" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="D429" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="430" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="430">
       <c r="A430" s="3" t="s">
         <v>838</v>
       </c>
@@ -9566,9 +9203,8 @@
       <c r="C430" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="D430" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="431" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="431">
       <c r="A431" s="3" t="s">
         <v>840</v>
       </c>
@@ -9578,9 +9214,8 @@
       <c r="C431" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="D431" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="432" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="432">
       <c r="A432" s="3" t="s">
         <v>843</v>
       </c>
@@ -9590,9 +9225,8 @@
       <c r="C432" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="D432" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="433" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="433">
       <c r="A433" s="3" t="s">
         <v>845</v>
       </c>
@@ -9602,9 +9236,8 @@
       <c r="C433" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="D433" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="434" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="434">
       <c r="A434" s="3" t="s">
         <v>846</v>
       </c>
@@ -9614,9 +9247,8 @@
       <c r="C434" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="D434" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="435" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="435">
       <c r="A435" s="3" t="s">
         <v>847</v>
       </c>
@@ -9626,9 +9258,8 @@
       <c r="C435" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="D435" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="436" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="436">
       <c r="A436" s="3" t="s">
         <v>849</v>
       </c>
@@ -9638,9 +9269,8 @@
       <c r="C436" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="D436" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="437" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="437">
       <c r="A437" s="3" t="s">
         <v>852</v>
       </c>
@@ -9650,9 +9280,8 @@
       <c r="C437" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="D437" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="438" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="438">
       <c r="A438" s="3" t="s">
         <v>854</v>
       </c>
@@ -9662,9 +9291,8 @@
       <c r="C438" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="D438" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="439" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="439">
       <c r="A439" s="3" t="s">
         <v>856</v>
       </c>
@@ -9674,9 +9302,8 @@
       <c r="C439" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="D439" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="440" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="440">
       <c r="A440" s="3" t="s">
         <v>859</v>
       </c>
@@ -9686,9 +9313,8 @@
       <c r="C440" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="D440" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="441" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="441">
       <c r="A441" s="3" t="s">
         <v>861</v>
       </c>
@@ -9698,9 +9324,8 @@
       <c r="C441" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="D441" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="442" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="442">
       <c r="A442" s="3" t="s">
         <v>863</v>
       </c>
@@ -9710,9 +9335,8 @@
       <c r="C442" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="D442" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="443" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="443">
       <c r="A443" s="3" t="s">
         <v>865</v>
       </c>
@@ -9722,9 +9346,8 @@
       <c r="C443" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="D443" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="444" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="444">
       <c r="A444" s="3" t="s">
         <v>868</v>
       </c>
@@ -9734,9 +9357,8 @@
       <c r="C444" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="D444" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="445" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="445">
       <c r="A445" s="3" t="s">
         <v>870</v>
       </c>
@@ -9746,9 +9368,8 @@
       <c r="C445" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="D445" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="446" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="446">
       <c r="A446" s="3" t="s">
         <v>872</v>
       </c>
@@ -9758,9 +9379,8 @@
       <c r="C446" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="D446" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="447" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="447">
       <c r="A447" s="3" t="s">
         <v>875</v>
       </c>
@@ -9770,9 +9390,8 @@
       <c r="C447" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="D447" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="448" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="448">
       <c r="A448" s="3" t="s">
         <v>877</v>
       </c>
@@ -9782,9 +9401,8 @@
       <c r="C448" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="D448" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="449" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="449">
       <c r="A449" s="3" t="s">
         <v>879</v>
       </c>
@@ -9794,9 +9412,8 @@
       <c r="C449" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="D449" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="450" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="450">
       <c r="A450" s="3" t="s">
         <v>881</v>
       </c>
@@ -9806,9 +9423,8 @@
       <c r="C450" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="D450" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="451" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="451">
       <c r="A451" s="3" t="s">
         <v>883</v>
       </c>
@@ -9818,9 +9434,8 @@
       <c r="C451" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="D451" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="452" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="452">
       <c r="A452" s="3" t="s">
         <v>885</v>
       </c>
@@ -9830,9 +9445,8 @@
       <c r="C452" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="D452" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="453" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="453">
       <c r="A453" s="3" t="s">
         <v>887</v>
       </c>
@@ -9842,9 +9456,8 @@
       <c r="C453" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="D453" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="454" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="454">
       <c r="A454" s="3" t="s">
         <v>889</v>
       </c>
@@ -9854,9 +9467,8 @@
       <c r="C454" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="D454" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="455" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="455">
       <c r="A455" s="3" t="s">
         <v>891</v>
       </c>
@@ -9866,9 +9478,8 @@
       <c r="C455" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="D455" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="456" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="456">
       <c r="A456" s="3" t="s">
         <v>894</v>
       </c>
@@ -9878,9 +9489,8 @@
       <c r="C456" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="D456" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="457" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="457">
       <c r="A457" s="3" t="s">
         <v>896</v>
       </c>
@@ -9890,9 +9500,8 @@
       <c r="C457" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="D457" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="458" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="458">
       <c r="A458" s="3" t="s">
         <v>898</v>
       </c>
@@ -9902,9 +9511,8 @@
       <c r="C458" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="D458" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="459" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="459">
       <c r="A459" s="3" t="s">
         <v>900</v>
       </c>
@@ -9914,9 +9522,8 @@
       <c r="C459" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="D459" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="460" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="460">
       <c r="A460" s="3" t="s">
         <v>903</v>
       </c>
@@ -9926,9 +9533,8 @@
       <c r="C460" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="D460" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="461" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="461">
       <c r="A461" s="3" t="s">
         <v>905</v>
       </c>
@@ -9938,9 +9544,8 @@
       <c r="C461" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="D461" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="462" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="462">
       <c r="A462" s="3" t="s">
         <v>907</v>
       </c>
@@ -9950,9 +9555,8 @@
       <c r="C462" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="D462" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="463" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="463">
       <c r="A463" s="3" t="s">
         <v>903</v>
       </c>
@@ -9962,9 +9566,8 @@
       <c r="C463" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="D463" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="464" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="464">
       <c r="A464" s="3" t="s">
         <v>911</v>
       </c>
@@ -9974,9 +9577,8 @@
       <c r="C464" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="D464" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="465" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="465">
       <c r="A465" s="3" t="s">
         <v>913</v>
       </c>
@@ -9986,9 +9588,8 @@
       <c r="C465" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="D465" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="466" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="466">
       <c r="A466" s="3" t="s">
         <v>915</v>
       </c>
@@ -9998,9 +9599,8 @@
       <c r="C466" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="D466" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="467" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="467">
       <c r="A467" s="3" t="s">
         <v>918</v>
       </c>
@@ -10010,9 +9610,8 @@
       <c r="C467" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="D467" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="468" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="468">
       <c r="A468" s="3" t="s">
         <v>920</v>
       </c>
@@ -10022,9 +9621,8 @@
       <c r="C468" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="D468" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="469" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="469">
       <c r="A469" s="3" t="s">
         <v>922</v>
       </c>
@@ -10034,9 +9632,8 @@
       <c r="C469" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="D469" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="470" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="470">
       <c r="A470" s="3" t="s">
         <v>925</v>
       </c>
@@ -10046,9 +9643,8 @@
       <c r="C470" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="D470" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="471" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="471">
       <c r="A471" s="3" t="s">
         <v>928</v>
       </c>
@@ -10058,9 +9654,8 @@
       <c r="C471" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="D471" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="472" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="472">
       <c r="A472" s="3" t="s">
         <v>930</v>
       </c>
@@ -10070,9 +9665,8 @@
       <c r="C472" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="D472" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="473" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="473">
       <c r="A473" s="3" t="s">
         <v>933</v>
       </c>
@@ -10082,9 +9676,8 @@
       <c r="C473" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="D473" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="474" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="474">
       <c r="A474" s="3" t="s">
         <v>936</v>
       </c>
@@ -10094,9 +9687,8 @@
       <c r="C474" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="D474" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="475" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="475">
       <c r="A475" s="3" t="s">
         <v>160</v>
       </c>
@@ -10106,9 +9698,8 @@
       <c r="C475" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D475" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="476" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="476">
       <c r="A476" s="3" t="s">
         <v>939</v>
       </c>
@@ -10118,9 +9709,8 @@
       <c r="C476" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="D476" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="477" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="477">
       <c r="A477" s="3" t="s">
         <v>942</v>
       </c>
@@ -10130,9 +9720,8 @@
       <c r="C477" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="D477" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="478" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="478">
       <c r="A478" s="3" t="s">
         <v>944</v>
       </c>
@@ -10142,9 +9731,8 @@
       <c r="C478" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="D478" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="479" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="479">
       <c r="A479" s="3" t="s">
         <v>946</v>
       </c>
@@ -10154,9 +9742,8 @@
       <c r="C479" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="D479" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="480" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="480">
       <c r="A480" s="3" t="s">
         <v>949</v>
       </c>
@@ -10166,9 +9753,8 @@
       <c r="C480" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="D480" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="481" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="481">
       <c r="A481" s="3" t="s">
         <v>951</v>
       </c>
@@ -10178,9 +9764,8 @@
       <c r="C481" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="D481" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="482" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="482">
       <c r="A482" s="3" t="s">
         <v>954</v>
       </c>
@@ -10190,9 +9775,8 @@
       <c r="C482" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="D482" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="483" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="483">
       <c r="A483" s="3" t="s">
         <v>956</v>
       </c>
@@ -10202,9 +9786,8 @@
       <c r="C483" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="D483" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="484" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="484">
       <c r="A484" s="3" t="s">
         <v>959</v>
       </c>
@@ -10214,9 +9797,8 @@
       <c r="C484" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="D484" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="485" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="485">
       <c r="A485" s="3" t="s">
         <v>961</v>
       </c>
@@ -10226,9 +9808,8 @@
       <c r="C485" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="D485" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="486" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="486">
       <c r="A486" s="3" t="s">
         <v>963</v>
       </c>
@@ -10238,9 +9819,8 @@
       <c r="C486" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="D486" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="487" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="487">
       <c r="A487" s="3" t="s">
         <v>965</v>
       </c>
@@ -10250,9 +9830,8 @@
       <c r="C487" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="D487" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="488" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="488">
       <c r="A488" s="3" t="s">
         <v>967</v>
       </c>
@@ -10262,9 +9841,8 @@
       <c r="C488" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="D488" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="489" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="489">
       <c r="A489" s="3" t="s">
         <v>970</v>
       </c>
@@ -10274,9 +9852,8 @@
       <c r="C489" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="D489" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="490" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="490">
       <c r="A490" s="3" t="s">
         <v>972</v>
       </c>
@@ -10286,9 +9863,8 @@
       <c r="C490" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="D490" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="491" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="491">
       <c r="A491" s="3" t="s">
         <v>974</v>
       </c>
@@ -10298,9 +9874,8 @@
       <c r="C491" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="D491" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="492" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="492">
       <c r="A492" s="3" t="s">
         <v>976</v>
       </c>
@@ -10310,9 +9885,8 @@
       <c r="C492" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="D492" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="493" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="493">
       <c r="A493" s="3" t="s">
         <v>979</v>
       </c>
@@ -10322,9 +9896,8 @@
       <c r="C493" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="D493" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="494" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="494">
       <c r="A494" s="3" t="s">
         <v>981</v>
       </c>
@@ -10334,9 +9907,8 @@
       <c r="C494" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="D494" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="495" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="495">
       <c r="A495" s="3" t="s">
         <v>983</v>
       </c>
@@ -10346,9 +9918,8 @@
       <c r="C495" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="D495" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="496" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="496">
       <c r="A496" s="3" t="s">
         <v>986</v>
       </c>
@@ -10358,9 +9929,8 @@
       <c r="C496" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="D496" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="497" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="497">
       <c r="A497" s="3" t="s">
         <v>988</v>
       </c>
@@ -10370,9 +9940,8 @@
       <c r="C497" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="D497" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="498" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="498">
       <c r="A498" s="3" t="s">
         <v>990</v>
       </c>
@@ -10382,9 +9951,8 @@
       <c r="C498" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="D498" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="499" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="499">
       <c r="A499" s="3" t="s">
         <v>992</v>
       </c>
@@ -10394,9 +9962,8 @@
       <c r="C499" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="D499" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="500" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="500">
       <c r="A500" s="3" t="s">
         <v>994</v>
       </c>
@@ -10406,9 +9973,8 @@
       <c r="C500" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="D500" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="501" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="501">
       <c r="A501" s="3" t="s">
         <v>996</v>
       </c>
@@ -10418,9 +9984,8 @@
       <c r="C501" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="D501" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="502" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="502">
       <c r="A502" s="3" t="s">
         <v>998</v>
       </c>
@@ -10430,9 +9995,8 @@
       <c r="C502" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="D502" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="503" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="503">
       <c r="A503" s="3" t="s">
         <v>1001</v>
       </c>
@@ -10442,9 +10006,8 @@
       <c r="C503" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="D503" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="504" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="504">
       <c r="A504" s="3" t="s">
         <v>1003</v>
       </c>
@@ -10454,9 +10017,8 @@
       <c r="C504" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="D504" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="505" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="505">
       <c r="A505" s="3" t="s">
         <v>1005</v>
       </c>
@@ -10466,9 +10028,8 @@
       <c r="C505" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="D505" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="506" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="506">
       <c r="A506" s="3" t="s">
         <v>1007</v>
       </c>
@@ -10478,9 +10039,8 @@
       <c r="C506" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="D506" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="507" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="507">
       <c r="A507" s="3" t="s">
         <v>1010</v>
       </c>
@@ -10490,9 +10050,8 @@
       <c r="C507" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="D507" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="508" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="508">
       <c r="A508" s="3" t="s">
         <v>1013</v>
       </c>
@@ -10502,9 +10061,8 @@
       <c r="C508" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="D508" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="509" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="509">
       <c r="A509" s="3" t="s">
         <v>1015</v>
       </c>
@@ -10514,9 +10072,8 @@
       <c r="C509" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="D509" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="510" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="510">
       <c r="A510" s="3" t="s">
         <v>1017</v>
       </c>
@@ -10526,9 +10083,8 @@
       <c r="C510" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="D510" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="511" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="511">
       <c r="A511" s="3" t="s">
         <v>1019</v>
       </c>
@@ -10538,9 +10094,8 @@
       <c r="C511" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="D511" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="512" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="512">
       <c r="A512" s="3" t="s">
         <v>1021</v>
       </c>
@@ -10550,9 +10105,8 @@
       <c r="C512" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="D512" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="513" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="513">
       <c r="A513" s="3" t="s">
         <v>1024</v>
       </c>
@@ -10562,9 +10116,8 @@
       <c r="C513" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="D513" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="514" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="514">
       <c r="A514" s="3" t="s">
         <v>1026</v>
       </c>
@@ -10574,9 +10127,8 @@
       <c r="C514" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="D514" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="515" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="515">
       <c r="A515" s="3" t="s">
         <v>1028</v>
       </c>
@@ -10586,9 +10138,8 @@
       <c r="C515" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="D515" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="516" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="516">
       <c r="A516" s="3" t="s">
         <v>1030</v>
       </c>
@@ -10598,9 +10149,8 @@
       <c r="C516" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="D516" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="517" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="517">
       <c r="A517" s="3" t="s">
         <v>1032</v>
       </c>
@@ -10610,247 +10160,226 @@
       <c r="C517" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="D517" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="518" s="6">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="518">
       <c r="A518" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="B518" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C518" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="C518" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="519">
+      <c r="A519" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="D518" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="519" s="6">
-      <c r="A519" s="3" t="s">
+      <c r="B519" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C519" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="B519" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C519" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="520">
+      <c r="A520" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="D519" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="520" s="6">
-      <c r="A520" s="3" t="s">
+      <c r="B520" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C520" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="B520" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C520" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="521">
+      <c r="A521" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="D520" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="521" s="6">
-      <c r="A521" s="3" t="s">
+      <c r="B521" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C521" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="B521" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C521" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="522">
+      <c r="A522" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="D521" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="522" s="6">
-      <c r="A522" s="3" t="s">
+      <c r="B522" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="B522" s="3" t="s">
+      <c r="C522" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="C522" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="523">
+      <c r="A523" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="D522" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="523" s="6">
-      <c r="A523" s="3" t="s">
+      <c r="B523" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="B523" s="3" t="s">
+      <c r="C523" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="C523" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="524">
+      <c r="A524" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="D523" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="524" s="6">
-      <c r="A524" s="3" t="s">
+      <c r="B524" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C524" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="B524" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C524" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="525">
+      <c r="A525" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="D524" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="525" s="6">
-      <c r="A525" s="3" t="s">
+      <c r="B525" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C525" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="B525" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C525" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="526">
+      <c r="A526" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="D525" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="526" s="6">
-      <c r="A526" s="3" t="s">
+      <c r="B526" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C526" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="B526" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C526" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="527">
+      <c r="A527" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="D526" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="527" s="6">
-      <c r="A527" s="3" t="s">
+      <c r="B527" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C527" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="B527" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C527" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="528">
+      <c r="A528" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="D527" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="528" s="6">
-      <c r="A528" s="3" t="s">
+      <c r="B528" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C528" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B528" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C528" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="529">
+      <c r="A529" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="D528" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="529" s="6">
-      <c r="A529" s="3" t="s">
+      <c r="B529" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C529" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="B529" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C529" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="530">
+      <c r="A530" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="D529" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="530" s="6">
-      <c r="A530" s="3" t="s">
+      <c r="B530" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C530" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="B530" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C530" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="531">
+      <c r="A531" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="D530" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="531" s="6">
-      <c r="A531" s="3" t="s">
+      <c r="B531" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C531" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="B531" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C531" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="532">
+      <c r="A532" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="D531" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="532" s="6">
-      <c r="A532" s="3" t="s">
+      <c r="B532" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C532" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="B532" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C532" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="533">
+      <c r="A533" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="D532" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="533" s="6">
-      <c r="A533" s="3" t="s">
+      <c r="B533" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C533" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="B533" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C533" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="534">
+      <c r="A534" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="D533" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="534" s="6">
-      <c r="A534" s="3" t="s">
+      <c r="B534" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C534" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="B534" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C534" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="535">
+      <c r="A535" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="D534" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="535" s="6">
-      <c r="A535" s="3" t="s">
+      <c r="B535" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C535" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="B535" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C535" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="536">
+      <c r="A536" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="D535" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="536" s="6">
-      <c r="A536" s="3" t="s">
+      <c r="B536" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="B536" s="3" t="s">
+      <c r="C536" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="C536" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="537">
+      <c r="A537" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="D536" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="537" s="6">
-      <c r="A537" s="3" t="s">
+      <c r="B537" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C537" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="B537" s="3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D537" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1075">
   <si>
     <t>Название</t>
   </si>
@@ -875,7 +875,7 @@
     <t>МАОУ «ОУ лицей № 7»</t>
   </si>
   <si>
-    <t>г. Красноярск, Железнодорожный район</t>
+    <t>г. Красноярск, тер. отд. по Центральному и Железнодорожному р-онам</t>
   </si>
   <si>
     <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение лицей № 7»$г. Красноярск</t>
@@ -935,7 +935,7 @@
     <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 12$г. Красноярск</t>
   </si>
   <si>
-    <t>г. Красноярск, Кировский район</t>
+    <t>г. Красноярск, тер. отд. по Кировскому р-ону</t>
   </si>
   <si>
     <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 10»$г. Красноярск</t>
@@ -1019,7 +1019,7 @@
     <t>МБОУ «ОУ гимназия № 11 им. А.Н. Кулакова»</t>
   </si>
   <si>
-    <t>г. Красноярск, Ленинский район</t>
+    <t>г. Красноярск, тер. отд. по Ленинскому р-ону</t>
   </si>
   <si>
     <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение$гимназия № 11 им. А.Н. Кулакова»$г. Красноярск</t>
@@ -1130,7 +1130,7 @@
     <t>МАОУ «КУГ «Универс» № 1»</t>
   </si>
   <si>
-    <t>г. Красноярск, Октябрьский район</t>
+    <t>г. Красноярск, тер. отд. по Октябрьскому р-ону</t>
   </si>
   <si>
     <t>Муниципального автономного образовательного учреждения$«Красноярская университетская гимназия «Универс» № 1»$г. Красноярск</t>
@@ -1241,7 +1241,7 @@
     <t>МАОУ «ОУ лицей № 9 «Лидер»</t>
   </si>
   <si>
-    <t>г. Красноярск, Свердловский район</t>
+    <t>г. Красноярск, тер. отд. по Свердловскому р-ону</t>
   </si>
   <si>
     <t>Муниципального автономного образовательного учреждения$«Общеобразовательное учреждение лицей № 9 «Лидер»$г. Красноярск</t>
@@ -1352,7 +1352,7 @@
     <t>МБОУ «СОШ № 1 им. В.И. Сурикова»</t>
   </si>
   <si>
-    <t>г. Красноярск, Советский район</t>
+    <t>г. Красноярск, тер. отд. по Советскому р-ону</t>
   </si>
   <si>
     <t>Муниципального бюджетного образовательного учреждения$«Средняя общеобразовательная школа № 1 им. В.И. Сурикова»$г. Красноярск</t>
@@ -1520,9 +1520,6 @@
     <t>МАОУ «ОУ гимназия № 2»</t>
   </si>
   <si>
-    <t>г. Красноярск, Центральный район</t>
-  </si>
-  <si>
     <t>Муниципального автономного образовательного учреждения$«Общеобразовательное учреждение гимназия № 2»$г. Красноярск</t>
   </si>
   <si>
@@ -2784,9 +2781,6 @@
   </si>
   <si>
     <t>МБОУ «ООШ № 3»</t>
-  </si>
-  <si>
-    <t>орбинской</t>
   </si>
   <si>
     <t>Муниципального бюджетного общеобразовательного учреждения$«Основная общеобразовательная школа № 3»$г. Сосновоборск</t>
@@ -3393,14 +3387,14 @@
   </sheetPr>
   <dimension ref="1:537"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B464" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C474" activeCellId="0" pane="topLeft" sqref="C474"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="C512" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C521" activeCellId="0" pane="topLeft" sqref="C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.9"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.1530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.7295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="82.3877551020408"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="129.357142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5204081632653"/>
   </cols>
@@ -7240,43 +7234,43 @@
         <v>500</v>
       </c>
       <c r="B252" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>502</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="253">
       <c r="A253" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="254">
       <c r="A254" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="255">
       <c r="A255" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="256">
@@ -7284,87 +7278,87 @@
         <v>148</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>501</v>
+        <v>286</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="257">
       <c r="A257" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>511</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="258">
       <c r="A258" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="259">
       <c r="A259" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="260">
       <c r="A260" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="261">
       <c r="A261" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="262">
       <c r="A262" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="263">
       <c r="A263" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>524</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="264">
@@ -7372,10 +7366,10 @@
         <v>177</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="265">
@@ -7383,10 +7377,10 @@
         <v>144</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="266">
@@ -7394,10 +7388,10 @@
         <v>463</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="267">
@@ -7405,10 +7399,10 @@
         <v>148</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="268">
@@ -7416,175 +7410,175 @@
         <v>156</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="269">
       <c r="A269" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="270">
       <c r="A270" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="271">
       <c r="A271" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="C271" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="272">
       <c r="A272" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="273">
       <c r="A273" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>540</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="274">
       <c r="A274" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>542</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="275">
       <c r="A275" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="276">
       <c r="A276" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>546</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="277">
       <c r="A277" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="278">
       <c r="A278" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="279">
       <c r="A279" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>552</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="280">
       <c r="A280" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="281">
       <c r="A281" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="282">
       <c r="A282" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>558</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="283">
       <c r="A283" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B283" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="C283" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="284">
@@ -7592,21 +7586,21 @@
         <v>177</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="285">
       <c r="A285" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="286">
@@ -7614,10 +7608,10 @@
         <v>138</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="287">
@@ -7625,10 +7619,10 @@
         <v>463</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="288">
@@ -7636,10 +7630,10 @@
         <v>146</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="289">
@@ -7647,10 +7641,10 @@
         <v>148</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="290">
@@ -7658,120 +7652,120 @@
         <v>154</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="291">
       <c r="A291" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>571</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="292">
       <c r="A292" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="293">
       <c r="A293" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="C293" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="294">
       <c r="A294" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="295">
       <c r="A295" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>580</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="296">
       <c r="A296" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="297">
       <c r="A297" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>584</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="298">
       <c r="A298" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="299">
       <c r="A299" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="300">
       <c r="A300" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="301">
@@ -7779,10 +7773,10 @@
         <v>177</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="302">
@@ -7790,10 +7784,10 @@
         <v>136</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="303">
@@ -7801,10 +7795,10 @@
         <v>138</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="304">
@@ -7812,21 +7806,21 @@
         <v>142</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="305">
       <c r="A305" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="306">
@@ -7834,32 +7828,32 @@
         <v>144</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="307">
       <c r="A307" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="308">
       <c r="A308" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="309">
@@ -7867,65 +7861,65 @@
         <v>418</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="310">
       <c r="A310" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="311">
       <c r="A311" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="312">
       <c r="A312" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>608</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="313">
       <c r="A313" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="314">
       <c r="A314" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>611</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>612</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="315">
@@ -7933,10 +7927,10 @@
         <v>146</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="316">
@@ -7944,10 +7938,10 @@
         <v>388</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="317">
@@ -7955,10 +7949,10 @@
         <v>348</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="318">
@@ -7966,21 +7960,21 @@
         <v>298</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="319">
       <c r="A319" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="320">
@@ -7988,76 +7982,76 @@
         <v>420</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="321">
       <c r="A321" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="322">
       <c r="A322" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="323">
       <c r="A323" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="324">
       <c r="A324" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="325">
       <c r="A325" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="326">
       <c r="A326" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>631</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="327">
@@ -8065,32 +8059,32 @@
         <v>422</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="328">
       <c r="A328" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>634</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="329">
       <c r="A329" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>636</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="330">
@@ -8098,10 +8092,10 @@
         <v>152</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="331">
@@ -8109,54 +8103,54 @@
         <v>156</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="332">
       <c r="A332" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="333">
       <c r="A333" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>641</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="334">
       <c r="A334" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>643</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="335">
       <c r="A335" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>645</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="336">
@@ -8164,10 +8158,10 @@
         <v>255</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>647</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="337">
@@ -8175,10 +8169,10 @@
         <v>463</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="338">
@@ -8186,10 +8180,10 @@
         <v>148</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="339">
@@ -8197,54 +8191,54 @@
         <v>150</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="340">
       <c r="A340" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="C340" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>653</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="341">
       <c r="A341" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C341" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="342">
       <c r="A342" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>657</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="343">
       <c r="A343" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C343" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>659</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="344">
@@ -8252,10 +8246,10 @@
         <v>177</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="345">
@@ -8263,10 +8257,10 @@
         <v>463</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="346">
@@ -8274,10 +8268,10 @@
         <v>154</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="347">
@@ -8285,1407 +8279,1407 @@
         <v>156</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="348">
       <c r="A348" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B348" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="C348" s="3" t="s">
         <v>665</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>666</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="349">
       <c r="A349" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>668</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="350">
       <c r="A350" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="351">
       <c r="A351" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C351" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>672</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="352">
       <c r="A352" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>674</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="353">
       <c r="A353" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="354">
       <c r="A354" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B354" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="C354" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>679</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="355">
       <c r="A355" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>681</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="356">
       <c r="A356" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>683</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="357">
       <c r="A357" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>684</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="358">
       <c r="A358" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C358" s="3" t="s">
         <v>686</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>687</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="359">
       <c r="A359" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C359" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>689</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="360">
       <c r="A360" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C360" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>691</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="361">
       <c r="A361" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>693</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="362">
       <c r="A362" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C362" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="363">
       <c r="A363" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="364">
       <c r="A364" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="365">
       <c r="A365" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>697</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="366">
       <c r="A366" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C366" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>699</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="367">
       <c r="A367" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>701</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="368">
       <c r="A368" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C368" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>703</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="369">
       <c r="A369" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C369" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>705</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="370">
       <c r="A370" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C370" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="371">
       <c r="A371" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C371" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>709</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="372">
       <c r="A372" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C372" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="373">
       <c r="A373" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>713</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="374">
       <c r="A374" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C374" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>715</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="375">
       <c r="A375" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C375" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>717</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="376">
       <c r="A376" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B376" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="C376" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>720</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="377">
       <c r="A377" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C377" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>722</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="378">
       <c r="A378" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="379">
       <c r="A379" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C379" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>726</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="380">
       <c r="A380" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>728</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="381">
       <c r="A381" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C381" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>730</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="382">
       <c r="A382" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C382" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>732</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="383">
       <c r="A383" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C383" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="384">
       <c r="A384" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B384" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="C384" s="3" t="s">
         <v>736</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>737</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="385">
       <c r="A385" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C385" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>739</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="386">
       <c r="A386" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C386" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>741</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="387">
       <c r="A387" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B387" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="C387" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>744</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="388">
       <c r="A388" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B388" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="C388" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>747</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="389">
       <c r="A389" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B389" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="C389" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>750</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="390">
       <c r="A390" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C390" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C390" s="3" t="s">
-        <v>752</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="391">
       <c r="A391" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>754</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="392">
       <c r="A392" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C392" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>756</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="393">
       <c r="A393" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="B393" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>758</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="394">
       <c r="A394" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>759</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>760</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="395">
       <c r="A395" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C395" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>762</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="396">
       <c r="A396" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B396" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="C396" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>765</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="397">
       <c r="A397" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>767</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="398">
       <c r="A398" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>768</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>769</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="399">
       <c r="A399" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C399" s="3" t="s">
         <v>770</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="400">
       <c r="A400" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B400" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="C400" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>774</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="401">
       <c r="A401" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C401" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>776</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="402">
       <c r="A402" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B402" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="C402" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>779</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="403">
       <c r="A403" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C403" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>781</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="404">
       <c r="A404" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C404" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="405">
       <c r="A405" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C405" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>785</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="406">
       <c r="A406" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C406" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>787</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="407">
       <c r="A407" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>788</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="408">
       <c r="A408" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C408" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>791</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="409">
       <c r="A409" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>793</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="410">
       <c r="A410" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="411">
       <c r="A411" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C411" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>797</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="412">
       <c r="A412" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B412" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="C412" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="413">
       <c r="A413" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>802</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="414">
       <c r="A414" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B414" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="C414" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>805</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="415">
       <c r="A415" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C415" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="416">
       <c r="A416" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C416" s="3" t="s">
         <v>808</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>809</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="417">
       <c r="A417" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C417" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>811</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="418">
       <c r="A418" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>812</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>813</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="419">
       <c r="A419" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C419" s="3" t="s">
         <v>814</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>815</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="420">
       <c r="A420" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C420" s="3" t="s">
         <v>816</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>817</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="421">
       <c r="A421" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C421" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>819</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="422">
       <c r="A422" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B422" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="C422" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>822</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="423">
       <c r="A423" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C423" s="3" t="s">
         <v>823</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>824</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="424">
       <c r="A424" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C424" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="425">
       <c r="A425" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>828</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="426">
       <c r="A426" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C426" s="3" t="s">
         <v>829</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>830</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="427">
       <c r="A427" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C427" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>832</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="428">
       <c r="A428" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>834</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="429">
       <c r="A429" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="C429" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="430">
       <c r="A430" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="431">
       <c r="A431" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B431" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="C431" s="3" t="s">
         <v>841</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>842</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="432">
       <c r="A432" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C432" s="3" t="s">
         <v>843</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>844</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="433">
       <c r="A433" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B433" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C433" s="3" t="s">
         <v>841</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>842</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="434">
       <c r="A434" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="435">
       <c r="A435" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C435" s="3" t="s">
         <v>847</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>848</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="436">
       <c r="A436" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B436" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="C436" s="3" t="s">
         <v>850</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>851</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="437">
       <c r="A437" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C437" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>853</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="438">
       <c r="A438" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C438" s="3" t="s">
         <v>854</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>855</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="439">
       <c r="A439" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B439" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="C439" s="3" t="s">
         <v>857</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="440">
       <c r="A440" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C440" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>860</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="441">
       <c r="A441" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C441" s="3" t="s">
         <v>861</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>862</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="442">
       <c r="A442" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C442" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>864</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="443">
       <c r="A443" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B443" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B443" s="3" t="s">
+      <c r="C443" s="3" t="s">
         <v>866</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>867</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="444">
       <c r="A444" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C444" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>869</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="445">
       <c r="A445" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C445" s="3" t="s">
         <v>870</v>
-      </c>
-      <c r="B445" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>871</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="446">
       <c r="A446" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B446" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="C446" s="3" t="s">
         <v>873</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>874</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="447">
       <c r="A447" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>876</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="448">
       <c r="A448" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="B448" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>878</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="449">
       <c r="A449" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="450">
       <c r="A450" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C450" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="451">
       <c r="A451" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C451" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>884</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="452">
       <c r="A452" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>886</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="453">
       <c r="A453" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C453" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>888</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="454">
       <c r="A454" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C454" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="B454" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C454" s="3" t="s">
-        <v>890</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="455">
       <c r="A455" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B455" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="B455" s="3" t="s">
+      <c r="C455" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>893</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="456">
       <c r="A456" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C456" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C456" s="3" t="s">
-        <v>895</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="457">
       <c r="A457" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C457" s="3" t="s">
         <v>896</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>897</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="458">
       <c r="A458" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C458" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>899</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="459">
       <c r="A459" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B459" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="C459" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="C459" s="3" t="s">
-        <v>902</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="460">
       <c r="A460" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C460" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="C460" s="3" t="s">
-        <v>904</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="461">
       <c r="A461" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>905</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>906</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="462">
       <c r="A462" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B462" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="B462" s="3" t="s">
+      <c r="C462" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="C462" s="3" t="s">
-        <v>909</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="463">
       <c r="A463" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="464">
       <c r="A464" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C464" s="3" t="s">
         <v>911</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="C464" s="3" t="s">
-        <v>912</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="465">
       <c r="A465" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C465" s="3" t="s">
         <v>913</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="466">
       <c r="A466" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B466" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="C466" s="3" t="s">
         <v>916</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>917</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="467">
       <c r="A467" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C467" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="C467" s="3" t="s">
-        <v>919</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="468">
       <c r="A468" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C468" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>921</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="469">
       <c r="A469" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C469" s="3" t="s">
         <v>922</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>924</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="470">
       <c r="A470" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>925</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>927</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="471">
       <c r="A471" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="472">
       <c r="A472" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C472" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>932</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="473">
       <c r="A473" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C473" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="B473" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>935</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="474">
       <c r="A474" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="475">
@@ -9693,692 +9687,692 @@
         <v>160</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="476">
       <c r="A476" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>939</v>
-      </c>
-      <c r="B476" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>941</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="477">
       <c r="A477" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="478">
       <c r="A478" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="479">
       <c r="A479" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C479" s="3" t="s">
         <v>946</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="480">
       <c r="A480" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="481">
       <c r="A481" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C481" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>953</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="482">
       <c r="A482" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="483">
       <c r="A483" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C483" s="3" t="s">
         <v>956</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>958</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="484">
       <c r="A484" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="485">
       <c r="A485" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="486">
       <c r="A486" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="487">
       <c r="A487" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="488">
       <c r="A488" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C488" s="3" t="s">
         <v>967</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>969</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="489">
       <c r="A489" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="490">
       <c r="A490" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="491">
       <c r="A491" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="492">
       <c r="A492" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>976</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>978</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="493">
       <c r="A493" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="494">
       <c r="A494" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="495">
       <c r="A495" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C495" s="3" t="s">
         <v>983</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>985</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="496">
       <c r="A496" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="497">
       <c r="A497" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="498">
       <c r="A498" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="499">
       <c r="A499" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="500">
       <c r="A500" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="501">
       <c r="A501" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="502">
       <c r="A502" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C502" s="3" t="s">
         <v>998</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="503">
       <c r="A503" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="504">
       <c r="A504" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="505">
       <c r="A505" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="506">
       <c r="A506" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C506" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="507">
       <c r="A507" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C507" s="3" t="s">
         <v>1010</v>
-      </c>
-      <c r="B507" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="508">
       <c r="A508" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="509">
       <c r="A509" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="510">
       <c r="A510" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="511">
       <c r="A511" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="512">
       <c r="A512" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C512" s="3" t="s">
         <v>1021</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="513">
       <c r="A513" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="514">
       <c r="A514" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="515">
       <c r="A515" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="516">
       <c r="A516" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="517">
       <c r="A517" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="518">
       <c r="A518" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="519">
       <c r="A519" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="520">
       <c r="A520" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="521">
       <c r="A521" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="522">
       <c r="A522" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C522" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="B522" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="523">
       <c r="A523" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C523" s="3" t="s">
         <v>1045</v>
-      </c>
-      <c r="B523" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="524">
       <c r="A524" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="525">
       <c r="A525" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="526">
       <c r="A526" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="527">
       <c r="A527" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="528">
       <c r="A528" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="529">
       <c r="A529" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="530">
       <c r="A530" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="531">
       <c r="A531" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="532">
       <c r="A532" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="533">
       <c r="A533" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="534">
       <c r="A534" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="535">
       <c r="A535" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="536">
       <c r="A536" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C536" s="3" t="s">
         <v>1072</v>
-      </c>
-      <c r="B536" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="537">
       <c r="A537" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -1256,7 +1256,7 @@
     <t>МБОУ «ОУ гимназия № 14»</t>
   </si>
   <si>
-    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 7$управления, права и экономики»$г. Красноярск</t>
+    <t>Муниципального бюджетного образовательного учреждения$«Общеобразовательное учреждение гимназия № 14$управления, права и экономики»$г. Красноярск</t>
   </si>
   <si>
     <t>МБОУ «ОУ гимназия № 5»</t>
@@ -3387,8 +3387,8 @@
   </sheetPr>
   <dimension ref="1:537"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="C512" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C521" activeCellId="0" pane="topLeft" sqref="C521"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A159" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C168" activeCellId="0" pane="topLeft" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.9"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="188" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="94" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Школы" sheetId="1" state="visible" r:id="rId2"/>
@@ -353,10 +353,10 @@
     <t>Муниципального казенного образовательного учреждения$Невонской средней общеобразовательной школы № 6$Богучанский район</t>
   </si>
   <si>
-    <t>МКОУ Пичунская СОШ № 8</t>
-  </si>
-  <si>
-    <t>Муниципального казенного образовательного учреждения$Пичунской средней общеобразовательной школы № 8$Богучанский район</t>
+    <t>МКОУ Пинчугская СОШ № 8</t>
+  </si>
+  <si>
+    <t>Муниципального казенного образовательного учреждения$Пинчугской средней общеобразовательной школы № 8$Богучанский район</t>
   </si>
   <si>
     <t>МКОУ Таежнинская СОШ № 7</t>
@@ -3387,8 +3387,8 @@
   </sheetPr>
   <dimension ref="1:537"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A159" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C168" activeCellId="0" pane="topLeft" sqref="C168"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
+      <selection activeCell="A52" activeCellId="0" pane="topLeft" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.9"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -10,12 +10,15 @@
   <sheets>
     <sheet name="Школы" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="top" vbProcedure="false">Школы!$C$538</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1077">
   <si>
     <t>Название</t>
   </si>
@@ -3240,6 +3243,12 @@
   </si>
   <si>
     <t>Муниципального казенного общеобразовательного учреждения$«Туринская средняя общеобразовательная школа»$Эвенкийский муниципальный район</t>
+  </si>
+  <si>
+    <t>МБОУ «Оши СОО № 1 им. В.П. Синякова»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Общеобразовательная школа-интернат среднего(полного)$общего образования № 1 имени В.П. Синякова»$г. Красноярск</t>
   </si>
 </sst>
 </file>
@@ -3339,7 +3348,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -3368,6 +3377,10 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -3385,10 +3398,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:537"/>
+  <dimension ref="1:538"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
-      <selection activeCell="A52" activeCellId="0" pane="topLeft" sqref="A52"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A524" view="normal" windowProtection="false" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
+      <selection activeCell="C539" activeCellId="0" pane="topLeft" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.9"/>
@@ -10375,6 +10388,17 @@
         <v>1074</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="538">
+      <c r="A538" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C538" s="7" t="s">
+        <v>1076</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Школы" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="top" vbProcedure="false">Школы!$C$538</definedName>
+    <definedName function="false" hidden="false" name="top" vbProcedure="false">Школы!$C$541</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="1085">
   <si>
     <t>Название</t>
   </si>
@@ -629,6 +629,12 @@
     <t>Муниципального бюджетного образовательного учреждения$средней общеобразовательной школы № 7$г. Енисейск</t>
   </si>
   <si>
+    <t>МАОУ «МУК»</t>
+  </si>
+  <si>
+    <t>Муниципального автономного образовательного учреждения$ «Межшкольный учебный комбинат»$г. Енисейск</t>
+  </si>
+  <si>
     <t>МБОУ «Гимназия № 91 им. М.В. Ломоносова»</t>
   </si>
   <si>
@@ -1592,6 +1598,9 @@
     <t>Муниципального бюджетного общеобразовательного учреждения$«Основная общеобразовательная школа № 5»$г. Лесосибирск</t>
   </si>
   <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 6»$г. Лесосибирск</t>
+  </si>
+  <si>
     <t>Муниципального бюджетного общеобразовательного учреждения$«Средняя общеобразовательная школа № 1»$г. Лесосибирск</t>
   </si>
   <si>
@@ -2756,6 +2765,12 @@
     <t>Муниципального бюджетного образовательного учреждения$«Решотинская средняя общеобразовательная школа № 10»$Нижнеингашский район</t>
   </si>
   <si>
+    <t>МБОУ «Решотинская СОШ № 1»</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного образовательного учреждения$«Решотинская средняя общеобразовательная школа № 1»$Нижнеингашский район</t>
+  </si>
+  <si>
     <t>МБОУ Нижнеингашская СОШ № 1</t>
   </si>
   <si>
@@ -3249,6 +3264,15 @@
   </si>
   <si>
     <t>Муниципального бюджетного общеобразовательного учреждения$ «Общеобразовательная школа-интернат среднего(полного)$общего образования № 1 имени В.П. Синякова»$г. Красноярск</t>
+  </si>
+  <si>
+    <t>Муниципального бюджетного общеобразовательного учреждения$ «Лицей № 1»$г. Ачинск</t>
+  </si>
+  <si>
+    <t>МКОУ Большеничкинская СОШ № 5</t>
+  </si>
+  <si>
+    <t>Муниципального казённого общеобразовательного учреждения$Большеничкинской средней общеобразовательной школы № 5$Минусинский район</t>
   </si>
 </sst>
 </file>
@@ -3398,10 +3422,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:538"/>
+  <dimension ref="1:543"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A524" view="normal" windowProtection="false" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
-      <selection activeCell="C539" activeCellId="0" pane="topLeft" sqref="C539"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A79" view="normal" windowProtection="false" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
+      <selection activeCell="C99" activeCellId="0" pane="topLeft" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.9"/>
@@ -5553,18 +5577,18 @@
         <v>203</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="99">
       <c r="A99" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>207</v>
@@ -5575,7 +5599,7 @@
         <v>208</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>209</v>
@@ -5586,7 +5610,7 @@
         <v>210</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>211</v>
@@ -5597,7 +5621,7 @@
         <v>212</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>213</v>
@@ -5608,7 +5632,7 @@
         <v>214</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>215</v>
@@ -5619,7 +5643,7 @@
         <v>216</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>217</v>
@@ -5630,7 +5654,7 @@
         <v>218</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>219</v>
@@ -5641,7 +5665,7 @@
         <v>220</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>221</v>
@@ -5652,7 +5676,7 @@
         <v>222</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>223</v>
@@ -5663,7 +5687,7 @@
         <v>224</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>225</v>
@@ -5674,7 +5698,7 @@
         <v>226</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>227</v>
@@ -5685,7 +5709,7 @@
         <v>228</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>229</v>
@@ -5696,7 +5720,7 @@
         <v>230</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>231</v>
@@ -5707,18 +5731,18 @@
         <v>232</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="113">
       <c r="A113" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>236</v>
@@ -5729,7 +5753,7 @@
         <v>237</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>238</v>
@@ -5740,7 +5764,7 @@
         <v>239</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>240</v>
@@ -5751,7 +5775,7 @@
         <v>241</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>242</v>
@@ -5762,7 +5786,7 @@
         <v>243</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>244</v>
@@ -5773,7 +5797,7 @@
         <v>245</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>246</v>
@@ -5784,7 +5808,7 @@
         <v>247</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>248</v>
@@ -5795,7 +5819,7 @@
         <v>249</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>250</v>
@@ -5806,7 +5830,7 @@
         <v>251</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>252</v>
@@ -5817,7 +5841,7 @@
         <v>253</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>254</v>
@@ -5828,18 +5852,18 @@
         <v>255</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="124">
       <c r="A124" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>259</v>
@@ -5847,32 +5871,32 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="125">
       <c r="A125" s="3" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="126">
       <c r="A126" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="127">
       <c r="A127" s="3" t="s">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>263</v>
@@ -5880,21 +5904,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="128">
       <c r="A128" s="3" t="s">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="129">
       <c r="A129" s="3" t="s">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>266</v>
@@ -5905,7 +5929,7 @@
         <v>267</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>268</v>
@@ -5916,7 +5940,7 @@
         <v>269</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>270</v>
@@ -5924,21 +5948,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="132">
       <c r="A132" s="3" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="133">
       <c r="A133" s="3" t="s">
-        <v>272</v>
+        <v>166</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>273</v>
@@ -5946,65 +5970,65 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="134">
       <c r="A134" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="135">
       <c r="A135" s="3" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="136">
       <c r="A136" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="137">
       <c r="A137" s="3" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="138">
       <c r="A138" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="139">
       <c r="A139" s="3" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>280</v>
@@ -6015,7 +6039,7 @@
         <v>281</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>282</v>
@@ -6026,7 +6050,7 @@
         <v>283</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>284</v>
@@ -6037,18 +6061,18 @@
         <v>285</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="143">
       <c r="A143" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>289</v>
@@ -6059,7 +6083,7 @@
         <v>290</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>291</v>
@@ -6070,7 +6094,7 @@
         <v>292</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>293</v>
@@ -6081,7 +6105,7 @@
         <v>294</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>295</v>
@@ -6092,7 +6116,7 @@
         <v>296</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>297</v>
@@ -6103,7 +6127,7 @@
         <v>298</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>299</v>
@@ -6114,7 +6138,7 @@
         <v>300</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>301</v>
@@ -6125,7 +6149,7 @@
         <v>302</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>303</v>
@@ -6136,7 +6160,7 @@
         <v>304</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>305</v>
@@ -6144,10 +6168,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="152">
       <c r="A152" s="3" t="s">
-        <v>183</v>
+        <v>306</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>307</v>
@@ -6155,10 +6179,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="153">
       <c r="A153" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>309</v>
@@ -6169,7 +6193,7 @@
         <v>310</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>311</v>
@@ -6180,7 +6204,7 @@
         <v>312</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>313</v>
@@ -6191,7 +6215,7 @@
         <v>314</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>315</v>
@@ -6202,7 +6226,7 @@
         <v>316</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>317</v>
@@ -6213,7 +6237,7 @@
         <v>318</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>319</v>
@@ -6224,7 +6248,7 @@
         <v>320</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>321</v>
@@ -6235,7 +6259,7 @@
         <v>322</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>323</v>
@@ -6243,21 +6267,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="161">
       <c r="A161" s="3" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="162">
       <c r="A162" s="3" t="s">
-        <v>325</v>
+        <v>156</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>326</v>
@@ -6268,7 +6292,7 @@
         <v>327</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>328</v>
@@ -6279,7 +6303,7 @@
         <v>329</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>330</v>
@@ -6290,7 +6314,7 @@
         <v>331</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>332</v>
@@ -6301,18 +6325,18 @@
         <v>333</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="167">
       <c r="A167" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>337</v>
@@ -6323,7 +6347,7 @@
         <v>338</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>339</v>
@@ -6334,7 +6358,7 @@
         <v>340</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>341</v>
@@ -6345,7 +6369,7 @@
         <v>342</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>343</v>
@@ -6353,21 +6377,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="171">
       <c r="A171" s="3" t="s">
-        <v>136</v>
+        <v>344</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="172">
       <c r="A172" s="3" t="s">
-        <v>345</v>
+        <v>136</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>346</v>
@@ -6375,21 +6399,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="173">
       <c r="A173" s="3" t="s">
-        <v>142</v>
+        <v>347</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="174">
       <c r="A174" s="3" t="s">
-        <v>348</v>
+        <v>142</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>349</v>
@@ -6400,7 +6424,7 @@
         <v>350</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>351</v>
@@ -6411,7 +6435,7 @@
         <v>352</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>353</v>
@@ -6422,7 +6446,7 @@
         <v>354</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>355</v>
@@ -6433,7 +6457,7 @@
         <v>356</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>357</v>
@@ -6444,7 +6468,7 @@
         <v>358</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>359</v>
@@ -6455,7 +6479,7 @@
         <v>360</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>361</v>
@@ -6466,7 +6490,7 @@
         <v>362</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>363</v>
@@ -6477,7 +6501,7 @@
         <v>364</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>365</v>
@@ -6488,7 +6512,7 @@
         <v>366</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>367</v>
@@ -6499,7 +6523,7 @@
         <v>368</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>369</v>
@@ -6510,18 +6534,18 @@
         <v>370</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="186">
       <c r="A186" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>374</v>
@@ -6532,7 +6556,7 @@
         <v>375</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>376</v>
@@ -6543,7 +6567,7 @@
         <v>377</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>378</v>
@@ -6554,7 +6578,7 @@
         <v>379</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>380</v>
@@ -6565,7 +6589,7 @@
         <v>381</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>382</v>
@@ -6576,7 +6600,7 @@
         <v>383</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>384</v>
@@ -6587,7 +6611,7 @@
         <v>385</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>386</v>
@@ -6595,21 +6619,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="193">
       <c r="A193" s="3" t="s">
-        <v>146</v>
+        <v>387</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="194">
       <c r="A194" s="3" t="s">
-        <v>388</v>
+        <v>146</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>389</v>
@@ -6620,7 +6644,7 @@
         <v>390</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>391</v>
@@ -6631,7 +6655,7 @@
         <v>392</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>393</v>
@@ -6642,7 +6666,7 @@
         <v>394</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>395</v>
@@ -6650,21 +6674,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="198">
       <c r="A198" s="3" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="199">
       <c r="A199" s="3" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>398</v>
@@ -6675,7 +6699,7 @@
         <v>399</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>400</v>
@@ -6686,7 +6710,7 @@
         <v>401</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>402</v>
@@ -6697,7 +6721,7 @@
         <v>403</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>404</v>
@@ -6708,7 +6732,7 @@
         <v>405</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>406</v>
@@ -6719,18 +6743,18 @@
         <v>407</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="205">
       <c r="A205" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>411</v>
@@ -6741,7 +6765,7 @@
         <v>412</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>413</v>
@@ -6752,7 +6776,7 @@
         <v>414</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>415</v>
@@ -6763,7 +6787,7 @@
         <v>416</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>417</v>
@@ -6774,7 +6798,7 @@
         <v>418</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>419</v>
@@ -6785,7 +6809,7 @@
         <v>420</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>421</v>
@@ -6796,7 +6820,7 @@
         <v>422</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>423</v>
@@ -6807,7 +6831,7 @@
         <v>424</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>425</v>
@@ -6818,7 +6842,7 @@
         <v>426</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>427</v>
@@ -6829,7 +6853,7 @@
         <v>428</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>429</v>
@@ -6840,7 +6864,7 @@
         <v>430</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>431</v>
@@ -6851,7 +6875,7 @@
         <v>432</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>433</v>
@@ -6862,7 +6886,7 @@
         <v>434</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>435</v>
@@ -6870,21 +6894,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="218">
       <c r="A218" s="3" t="s">
-        <v>164</v>
+        <v>436</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="219">
       <c r="A219" s="3" t="s">
-        <v>437</v>
+        <v>164</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>438</v>
@@ -6895,7 +6919,7 @@
         <v>439</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>440</v>
@@ -6903,21 +6927,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="221">
       <c r="A221" s="3" t="s">
-        <v>175</v>
+        <v>441</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="222">
       <c r="A222" s="3" t="s">
-        <v>442</v>
+        <v>175</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>443</v>
@@ -6928,18 +6952,18 @@
         <v>444</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="224">
       <c r="A224" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>448</v>
@@ -6950,7 +6974,7 @@
         <v>449</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>450</v>
@@ -6961,7 +6985,7 @@
         <v>451</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>452</v>
@@ -6972,7 +6996,7 @@
         <v>453</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>454</v>
@@ -6983,7 +7007,7 @@
         <v>455</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>456</v>
@@ -6994,7 +7018,7 @@
         <v>457</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>458</v>
@@ -7005,7 +7029,7 @@
         <v>459</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>460</v>
@@ -7016,7 +7040,7 @@
         <v>461</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>462</v>
@@ -7027,7 +7051,7 @@
         <v>463</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>464</v>
@@ -7038,7 +7062,7 @@
         <v>465</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>466</v>
@@ -7046,21 +7070,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="234">
       <c r="A234" s="3" t="s">
-        <v>150</v>
+        <v>467</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="235">
       <c r="A235" s="3" t="s">
-        <v>468</v>
+        <v>150</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>469</v>
@@ -7068,21 +7092,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="236">
       <c r="A236" s="3" t="s">
-        <v>154</v>
+        <v>470</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="237">
       <c r="A237" s="3" t="s">
-        <v>471</v>
+        <v>154</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>472</v>
@@ -7093,7 +7117,7 @@
         <v>473</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>474</v>
@@ -7104,7 +7128,7 @@
         <v>475</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>476</v>
@@ -7115,7 +7139,7 @@
         <v>477</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>478</v>
@@ -7126,7 +7150,7 @@
         <v>479</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>480</v>
@@ -7137,7 +7161,7 @@
         <v>481</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>482</v>
@@ -7148,7 +7172,7 @@
         <v>483</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>484</v>
@@ -7159,7 +7183,7 @@
         <v>485</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>486</v>
@@ -7170,7 +7194,7 @@
         <v>487</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>488</v>
@@ -7181,7 +7205,7 @@
         <v>489</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>490</v>
@@ -7192,7 +7216,7 @@
         <v>491</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>492</v>
@@ -7200,21 +7224,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="248">
       <c r="A248" s="3" t="s">
-        <v>267</v>
+        <v>493</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="249">
       <c r="A249" s="3" t="s">
-        <v>494</v>
+        <v>269</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>495</v>
@@ -7225,7 +7249,7 @@
         <v>496</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>497</v>
@@ -7236,7 +7260,7 @@
         <v>498</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>499</v>
@@ -7247,7 +7271,7 @@
         <v>500</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>286</v>
+        <v>447</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>501</v>
@@ -7258,7 +7282,7 @@
         <v>502</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>503</v>
@@ -7269,7 +7293,7 @@
         <v>504</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>505</v>
@@ -7280,7 +7304,7 @@
         <v>506</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>507</v>
@@ -7288,21 +7312,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="256">
       <c r="A256" s="3" t="s">
-        <v>148</v>
+        <v>508</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="257">
       <c r="A257" s="3" t="s">
-        <v>509</v>
+        <v>148</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>510</v>
@@ -7313,7 +7337,7 @@
         <v>511</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>512</v>
@@ -7324,7 +7348,7 @@
         <v>513</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>514</v>
@@ -7335,7 +7359,7 @@
         <v>515</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>516</v>
@@ -7346,18 +7370,18 @@
         <v>517</v>
       </c>
       <c r="B261" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="262">
       <c r="A262" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>518</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>521</v>
@@ -7368,7 +7392,7 @@
         <v>522</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>523</v>
@@ -7376,65 +7400,65 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="264">
       <c r="A264" s="3" t="s">
-        <v>177</v>
+        <v>524</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="265">
       <c r="A265" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="266">
       <c r="A266" s="3" t="s">
-        <v>463</v>
+        <v>177</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="267">
       <c r="A267" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="268">
       <c r="A268" s="3" t="s">
-        <v>156</v>
+        <v>465</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="269">
       <c r="A269" s="3" t="s">
-        <v>529</v>
+        <v>148</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>530</v>
@@ -7442,175 +7466,175 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="270">
       <c r="A270" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>532</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="271">
       <c r="A271" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="272">
       <c r="A272" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="273">
       <c r="A273" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>539</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="274">
       <c r="A274" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="275">
       <c r="A275" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="276">
       <c r="A276" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="277">
       <c r="A277" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="278">
       <c r="A278" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="279">
       <c r="A279" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="280">
       <c r="A280" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>553</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="281">
       <c r="A281" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="282">
       <c r="A282" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>557</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="283">
       <c r="A283" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="284">
       <c r="A284" s="3" t="s">
-        <v>177</v>
+        <v>559</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="285">
       <c r="A285" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B285" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>563</v>
@@ -7618,10 +7642,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="286">
       <c r="A286" s="3" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>564</v>
@@ -7629,54 +7653,54 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="287">
       <c r="A287" s="3" t="s">
-        <v>463</v>
+        <v>565</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="288">
       <c r="A288" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="289">
       <c r="A289" s="3" t="s">
-        <v>148</v>
+        <v>465</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="290">
       <c r="A290" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="291">
       <c r="A291" s="3" t="s">
-        <v>569</v>
+        <v>148</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>570</v>
@@ -7684,109 +7708,109 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="292">
       <c r="A292" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>572</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="293">
       <c r="A293" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="294">
       <c r="A294" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="295">
       <c r="A295" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="296">
       <c r="A296" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>581</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="297">
       <c r="A297" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="298">
       <c r="A298" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="299">
       <c r="A299" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="300">
       <c r="A300" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>589</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="301">
       <c r="A301" s="3" t="s">
-        <v>177</v>
+        <v>589</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>590</v>
@@ -7794,43 +7818,43 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="302">
       <c r="A302" s="3" t="s">
-        <v>136</v>
+        <v>591</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="303">
       <c r="A303" s="3" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="304">
       <c r="A304" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="305">
       <c r="A305" s="3" t="s">
-        <v>594</v>
+        <v>138</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>595</v>
@@ -7838,10 +7862,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="306">
       <c r="A306" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>596</v>
@@ -7852,7 +7876,7 @@
         <v>597</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>598</v>
@@ -7860,21 +7884,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="308">
       <c r="A308" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>600</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="309">
       <c r="A309" s="3" t="s">
-        <v>418</v>
+        <v>600</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>601</v>
@@ -7885,7 +7909,7 @@
         <v>602</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>603</v>
@@ -7893,54 +7917,54 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="311">
       <c r="A311" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>605</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="312">
       <c r="A312" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>607</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="313">
       <c r="A313" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>609</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="314">
       <c r="A314" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>611</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="315">
       <c r="A315" s="3" t="s">
-        <v>146</v>
+        <v>611</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>612</v>
@@ -7948,43 +7972,43 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="316">
       <c r="A316" s="3" t="s">
-        <v>388</v>
+        <v>613</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="317">
       <c r="A317" s="3" t="s">
-        <v>348</v>
+        <v>146</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="318">
       <c r="A318" s="3" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="319">
       <c r="A319" s="3" t="s">
-        <v>616</v>
+        <v>350</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>617</v>
@@ -7992,10 +8016,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="320">
       <c r="A320" s="3" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>618</v>
@@ -8006,7 +8030,7 @@
         <v>619</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>620</v>
@@ -8014,65 +8038,65 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="322">
       <c r="A322" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="323">
       <c r="A323" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>624</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="324">
       <c r="A324" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="325">
       <c r="A325" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>628</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="326">
       <c r="A326" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>630</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="327">
       <c r="A327" s="3" t="s">
-        <v>422</v>
+        <v>630</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>631</v>
@@ -8083,7 +8107,7 @@
         <v>632</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>633</v>
@@ -8091,21 +8115,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="329">
       <c r="A329" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>635</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="330">
       <c r="A330" s="3" t="s">
-        <v>152</v>
+        <v>635</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>636</v>
@@ -8113,32 +8137,32 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="331">
       <c r="A331" s="3" t="s">
-        <v>156</v>
+        <v>637</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="332">
       <c r="A332" s="3" t="s">
-        <v>569</v>
+        <v>152</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="333">
       <c r="A333" s="3" t="s">
-        <v>639</v>
+        <v>156</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>640</v>
@@ -8146,43 +8170,43 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="334">
       <c r="A334" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>642</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="335">
       <c r="A335" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="336">
       <c r="A336" s="3" t="s">
-        <v>255</v>
+        <v>644</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>646</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="337">
       <c r="A337" s="3" t="s">
-        <v>463</v>
+        <v>646</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>645</v>
+        <v>577</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>647</v>
@@ -8190,76 +8214,76 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="338">
       <c r="A338" s="3" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="339">
       <c r="A339" s="3" t="s">
-        <v>150</v>
+        <v>465</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="340">
       <c r="A340" s="3" t="s">
-        <v>650</v>
+        <v>148</v>
       </c>
       <c r="B340" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C340" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="341">
       <c r="A341" s="3" t="s">
-        <v>653</v>
+        <v>150</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="342">
       <c r="A342" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>656</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="343">
       <c r="A343" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C343" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>658</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="344">
       <c r="A344" s="3" t="s">
-        <v>177</v>
+        <v>658</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>659</v>
@@ -8267,981 +8291,981 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="345">
       <c r="A345" s="3" t="s">
-        <v>463</v>
+        <v>660</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="346">
       <c r="A346" s="3" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="347">
       <c r="A347" s="3" t="s">
-        <v>156</v>
+        <v>465</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="348">
       <c r="A348" s="3" t="s">
-        <v>663</v>
+        <v>154</v>
       </c>
       <c r="B348" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C348" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>665</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="349">
       <c r="A349" s="3" t="s">
-        <v>666</v>
+        <v>156</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="350">
       <c r="A350" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>669</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="351">
       <c r="A351" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C351" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>671</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="352">
       <c r="A352" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="353">
       <c r="A353" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>675</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="354">
       <c r="A354" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C354" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>678</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="355">
       <c r="A355" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="356">
       <c r="A356" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>682</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="357">
       <c r="A357" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>684</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="358">
       <c r="A358" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C358" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="359">
       <c r="A359" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C359" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="360">
       <c r="A360" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C360" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="361">
       <c r="A361" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>691</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>692</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="362">
       <c r="A362" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C362" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="363">
       <c r="A363" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="364">
       <c r="A364" s="3" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="365">
       <c r="A365" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="366">
       <c r="A366" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C366" s="3" t="s">
         <v>697</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>698</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="367">
       <c r="A367" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>700</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="368">
       <c r="A368" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C368" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>702</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="369">
       <c r="A369" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C369" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="370">
       <c r="A370" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C370" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>706</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="371">
       <c r="A371" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C371" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>708</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="372">
       <c r="A372" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C372" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>710</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="373">
       <c r="A373" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>712</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="374">
       <c r="A374" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C374" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>714</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="375">
       <c r="A375" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C375" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="376">
       <c r="A376" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>719</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="377">
       <c r="A377" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>718</v>
+        <v>680</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="378">
       <c r="A378" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>723</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="379">
       <c r="A379" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C379" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>725</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="380">
       <c r="A380" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>727</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="381">
       <c r="A381" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C381" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>729</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="382">
       <c r="A382" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C382" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>731</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="383">
       <c r="A383" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C383" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>733</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="384">
       <c r="A384" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C384" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>736</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="385">
       <c r="A385" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="386">
       <c r="A386" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C386" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>740</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="387">
       <c r="A387" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C387" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>743</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="388">
       <c r="A388" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="389">
       <c r="A389" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="390">
       <c r="A390" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>748</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="391">
       <c r="A391" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="392">
       <c r="A392" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C392" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>755</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="393">
       <c r="A393" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="B393" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>757</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="394">
       <c r="A394" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>759</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="395">
       <c r="A395" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C395" s="3" t="s">
         <v>760</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>761</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="396">
       <c r="A396" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C396" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>764</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="397">
       <c r="A397" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="398">
       <c r="A398" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="399">
       <c r="A399" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C399" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>770</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="400">
       <c r="A400" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C400" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>773</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="401">
       <c r="A401" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="402">
       <c r="A402" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C402" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>778</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="403">
       <c r="A403" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="404">
       <c r="A404" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C404" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>782</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="405">
       <c r="A405" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C405" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>784</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="406">
       <c r="A406" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C406" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>786</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="407">
       <c r="A407" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="408">
       <c r="A408" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C408" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>790</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="409">
       <c r="A409" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>791</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>792</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="410">
       <c r="A410" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>794</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="411">
       <c r="A411" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C411" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>796</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="412">
       <c r="A412" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C412" s="3" t="s">
         <v>797</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>799</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="413">
       <c r="A413" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="414">
       <c r="A414" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C414" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>804</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="415">
       <c r="A415" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="416">
       <c r="A416" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C416" s="3" t="s">
         <v>807</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>808</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="417">
       <c r="A417" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C417" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>810</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="418">
       <c r="A418" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>811</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>812</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="419">
       <c r="A419" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C419" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>814</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="420">
       <c r="A420" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C420" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="421">
       <c r="A421" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C421" s="3" t="s">
         <v>817</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>818</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="422">
       <c r="A422" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C422" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>821</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="423">
       <c r="A423" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="424">
       <c r="A424" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C424" s="3" t="s">
         <v>824</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>825</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="425">
       <c r="A425" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>826</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>827</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="426">
       <c r="A426" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C426" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>829</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="427">
       <c r="A427" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C427" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>831</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="428">
       <c r="A428" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>833</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="429">
       <c r="A429" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C429" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>836</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="430">
       <c r="A430" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="431">
       <c r="A431" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>839</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>841</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="432">
       <c r="A432" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="433">
       <c r="A433" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C433" s="3" t="s">
         <v>844</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>841</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="434">
@@ -9249,21 +9273,21 @@
         <v>845</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="435">
       <c r="A435" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="436">
@@ -9271,315 +9295,315 @@
         <v>848</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="437">
       <c r="A437" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="438">
       <c r="A438" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C438" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>854</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="439">
       <c r="A439" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C439" s="3" t="s">
         <v>855</v>
-      </c>
-      <c r="B439" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>857</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="440">
       <c r="A440" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="441">
       <c r="A441" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="C441" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>861</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="442">
       <c r="A442" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="C442" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>863</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="443">
       <c r="A443" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="C443" s="3" t="s">
         <v>864</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>866</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="444">
       <c r="A444" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="445">
       <c r="A445" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C445" s="3" t="s">
         <v>869</v>
-      </c>
-      <c r="B445" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>870</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="446">
       <c r="A446" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C446" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="447">
       <c r="A447" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="448">
       <c r="A448" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>876</v>
-      </c>
-      <c r="B448" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="449">
       <c r="A449" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>879</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="450">
       <c r="A450" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C450" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>881</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="451">
       <c r="A451" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C451" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>883</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="452">
       <c r="A452" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>885</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="453">
       <c r="A453" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C453" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>887</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="454">
       <c r="A454" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C454" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="B454" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C454" s="3" t="s">
-        <v>889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="455">
       <c r="A455" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C455" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>892</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="456">
       <c r="A456" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="457">
       <c r="A457" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C457" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>896</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="458">
       <c r="A458" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C458" s="3" t="s">
         <v>897</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>898</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="459">
       <c r="A459" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C459" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="C459" s="3" t="s">
-        <v>901</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="460">
       <c r="A460" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="461">
       <c r="A461" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C461" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>905</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="462">
       <c r="A462" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C462" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="C462" s="3" t="s">
-        <v>908</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="463">
       <c r="A463" s="3" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="464">
       <c r="A464" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B464" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>907</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>911</v>
@@ -9587,816 +9611,871 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="465">
       <c r="A465" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C465" s="3" t="s">
         <v>912</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>913</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="466">
       <c r="A466" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C466" s="3" t="s">
         <v>914</v>
-      </c>
-      <c r="B466" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>916</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="467">
       <c r="A467" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="468">
       <c r="A468" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="469">
       <c r="A469" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C469" s="3" t="s">
         <v>921</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>922</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="470">
       <c r="A470" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>923</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>925</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="471">
       <c r="A471" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="472">
       <c r="A472" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>929</v>
+        <v>648</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="473">
       <c r="A473" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="474">
       <c r="A474" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B474" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C474" s="3" t="s">
         <v>932</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>935</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="475">
       <c r="A475" s="3" t="s">
-        <v>160</v>
+        <v>933</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="476">
       <c r="A476" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B476" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="C476" s="3" t="s">
         <v>938</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>939</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="477">
       <c r="A477" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C477" s="3" t="s">
         <v>940</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>941</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="478">
       <c r="A478" s="3" t="s">
-        <v>942</v>
+        <v>160</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="479">
       <c r="A479" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C479" s="3" t="s">
         <v>944</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>946</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="480">
       <c r="A480" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="481">
       <c r="A481" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="482">
       <c r="A482" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>950</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="483">
       <c r="A483" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="484">
       <c r="A484" s="3" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>955</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="485">
       <c r="A485" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>955</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="486">
       <c r="A486" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C486" s="3" t="s">
         <v>961</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>962</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="487">
       <c r="A487" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>964</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="488">
       <c r="A488" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C488" s="3" t="s">
         <v>965</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>967</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="489">
       <c r="A489" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="490">
       <c r="A490" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="491">
       <c r="A491" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C491" s="3" t="s">
         <v>972</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>973</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="492">
       <c r="A492" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>976</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="493">
       <c r="A493" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="494">
       <c r="A494" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="495">
       <c r="A495" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C495" s="3" t="s">
         <v>981</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>983</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="496">
       <c r="A496" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="497">
       <c r="A497" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="498">
       <c r="A498" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C498" s="3" t="s">
         <v>988</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>989</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="499">
       <c r="A499" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C499" s="3" t="s">
         <v>990</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>991</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="500">
       <c r="A500" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C500" s="3" t="s">
         <v>992</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>993</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="501">
       <c r="A501" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C501" s="3" t="s">
         <v>994</v>
-      </c>
-      <c r="B501" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>995</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="502">
       <c r="A502" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C502" s="3" t="s">
         <v>996</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>998</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="503">
       <c r="A503" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="504">
       <c r="A504" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="505">
       <c r="A505" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C505" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B505" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="506">
       <c r="A506" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C506" s="3" t="s">
         <v>1005</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="507">
       <c r="A507" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="508">
       <c r="A508" s="3" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B508" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C508" s="3" t="s">
         <v>1009</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="509">
       <c r="A509" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="510">
       <c r="A510" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C510" s="3" t="s">
         <v>1015</v>
-      </c>
-      <c r="B510" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="511">
       <c r="A511" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C511" s="3" t="s">
         <v>1017</v>
-      </c>
-      <c r="B511" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="512">
       <c r="A512" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C512" s="3" t="s">
         <v>1019</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="513">
       <c r="A513" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="514">
       <c r="A514" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="515">
       <c r="A515" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C515" s="3" t="s">
         <v>1026</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C515" s="3" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="516">
       <c r="A516" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C516" s="3" t="s">
         <v>1028</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="517">
       <c r="A517" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C517" s="3" t="s">
         <v>1030</v>
-      </c>
-      <c r="B517" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C517" s="3" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="518">
       <c r="A518" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C518" s="3" t="s">
         <v>1032</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="519">
       <c r="A519" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C519" s="3" t="s">
         <v>1034</v>
-      </c>
-      <c r="B519" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="520">
       <c r="A520" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C520" s="3" t="s">
         <v>1036</v>
-      </c>
-      <c r="B520" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="521">
       <c r="A521" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C521" s="3" t="s">
         <v>1038</v>
-      </c>
-      <c r="B521" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="522">
       <c r="A522" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C522" s="3" t="s">
         <v>1040</v>
-      </c>
-      <c r="B522" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="523">
       <c r="A523" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="524">
       <c r="A524" s="3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B524" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C524" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="525">
       <c r="A525" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="526">
       <c r="A526" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C526" s="3" t="s">
         <v>1050</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="527">
       <c r="A527" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C527" s="3" t="s">
         <v>1052</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="528">
       <c r="A528" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C528" s="3" t="s">
         <v>1054</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="529">
       <c r="A529" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C529" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="B529" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="530">
       <c r="A530" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C530" s="3" t="s">
         <v>1058</v>
-      </c>
-      <c r="B530" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C530" s="3" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="531">
       <c r="A531" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C531" s="3" t="s">
         <v>1060</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C531" s="3" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="532">
       <c r="A532" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C532" s="3" t="s">
         <v>1062</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="533">
       <c r="A533" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C533" s="3" t="s">
         <v>1064</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="534">
       <c r="A534" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C534" s="3" t="s">
         <v>1066</v>
-      </c>
-      <c r="B534" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C534" s="3" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="535">
       <c r="A535" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C535" s="3" t="s">
         <v>1068</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="536">
       <c r="A536" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C536" s="3" t="s">
         <v>1070</v>
-      </c>
-      <c r="B536" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="537">
       <c r="A537" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="538">
+      <c r="A538" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="B537" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C537" s="3" t="s">
+      <c r="B538" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C538" s="3" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="538">
-      <c r="A538" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="539">
+      <c r="A539" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="B538" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C538" s="7" t="s">
+      <c r="B539" s="3" t="s">
         <v>1076</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="22.7" outlineLevel="0" r="540">
+      <c r="A540" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="541">
+      <c r="A541" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C541" s="7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="542">
+      <c r="A542" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="543">
+      <c r="A543" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
